--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6618000</v>
+        <v>5868600</v>
       </c>
       <c r="E8" s="3">
-        <v>7111800</v>
+        <v>6455700</v>
       </c>
       <c r="F8" s="3">
-        <v>6606800</v>
+        <v>6937300</v>
       </c>
       <c r="G8" s="3">
-        <v>6046600</v>
+        <v>6444800</v>
       </c>
       <c r="H8" s="3">
-        <v>5319700</v>
+        <v>5898200</v>
       </c>
       <c r="I8" s="3">
-        <v>5043900</v>
+        <v>5189200</v>
       </c>
       <c r="J8" s="3">
+        <v>4920200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4416600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4745100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5203900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6694800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6488900</v>
+        <v>5772300</v>
       </c>
       <c r="E9" s="3">
-        <v>6847900</v>
+        <v>6329700</v>
       </c>
       <c r="F9" s="3">
-        <v>6042200</v>
+        <v>6679900</v>
       </c>
       <c r="G9" s="3">
-        <v>5471200</v>
+        <v>5894000</v>
       </c>
       <c r="H9" s="3">
-        <v>4916500</v>
+        <v>5337000</v>
       </c>
       <c r="I9" s="3">
-        <v>4579400</v>
+        <v>4795900</v>
       </c>
       <c r="J9" s="3">
+        <v>4467100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3847400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4462600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4851200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6789600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>129100</v>
+        <v>96300</v>
       </c>
       <c r="E10" s="3">
-        <v>263900</v>
+        <v>125900</v>
       </c>
       <c r="F10" s="3">
-        <v>564600</v>
+        <v>257400</v>
       </c>
       <c r="G10" s="3">
-        <v>575300</v>
+        <v>550800</v>
       </c>
       <c r="H10" s="3">
-        <v>403200</v>
+        <v>561200</v>
       </c>
       <c r="I10" s="3">
-        <v>464500</v>
+        <v>393300</v>
       </c>
       <c r="J10" s="3">
+        <v>453100</v>
+      </c>
+      <c r="K10" s="3">
         <v>569300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>282500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>352800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-94800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,25 +929,28 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-1400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -947,28 +967,31 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6524100</v>
+        <v>5775400</v>
       </c>
       <c r="E17" s="3">
-        <v>6839300</v>
+        <v>6364000</v>
       </c>
       <c r="F17" s="3">
-        <v>6078000</v>
+        <v>6671500</v>
       </c>
       <c r="G17" s="3">
-        <v>5503000</v>
+        <v>5928900</v>
       </c>
       <c r="H17" s="3">
-        <v>4944700</v>
+        <v>5368000</v>
       </c>
       <c r="I17" s="3">
-        <v>4604200</v>
+        <v>4823400</v>
       </c>
       <c r="J17" s="3">
+        <v>4491200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3883900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4473700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4895200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6807400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>93900</v>
+        <v>93200</v>
       </c>
       <c r="E18" s="3">
-        <v>272500</v>
+        <v>91600</v>
       </c>
       <c r="F18" s="3">
-        <v>528800</v>
+        <v>265800</v>
       </c>
       <c r="G18" s="3">
-        <v>543600</v>
+        <v>515800</v>
       </c>
       <c r="H18" s="3">
-        <v>374900</v>
+        <v>530300</v>
       </c>
       <c r="I18" s="3">
-        <v>439700</v>
+        <v>365700</v>
       </c>
       <c r="J18" s="3">
+        <v>428900</v>
+      </c>
+      <c r="K18" s="3">
         <v>532800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>271400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>308700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-112700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>105000</v>
+        <v>92000</v>
       </c>
       <c r="E20" s="3">
-        <v>63000</v>
+        <v>102400</v>
       </c>
       <c r="F20" s="3">
-        <v>127800</v>
+        <v>61400</v>
       </c>
       <c r="G20" s="3">
-        <v>118800</v>
+        <v>124600</v>
       </c>
       <c r="H20" s="3">
-        <v>98200</v>
+        <v>115900</v>
       </c>
       <c r="I20" s="3">
-        <v>90500</v>
+        <v>95800</v>
       </c>
       <c r="J20" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K20" s="3">
         <v>60700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>309700</v>
+        <v>214500</v>
       </c>
       <c r="E21" s="3">
-        <v>334100</v>
+        <v>300900</v>
       </c>
       <c r="F21" s="3">
-        <v>770000</v>
+        <v>325900</v>
       </c>
       <c r="G21" s="3">
-        <v>659400</v>
+        <v>751100</v>
       </c>
       <c r="H21" s="3">
-        <v>588800</v>
+        <v>643200</v>
       </c>
       <c r="I21" s="3">
-        <v>528000</v>
+        <v>574400</v>
       </c>
       <c r="J21" s="3">
+        <v>515000</v>
+      </c>
+      <c r="K21" s="3">
         <v>712400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>289400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>492100</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>10400</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
-        <v>4900</v>
+        <v>10100</v>
       </c>
       <c r="G22" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I22" s="3">
         <v>3300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195900</v>
+        <v>180600</v>
       </c>
       <c r="E23" s="3">
-        <v>325100</v>
+        <v>191100</v>
       </c>
       <c r="F23" s="3">
-        <v>651700</v>
+        <v>317100</v>
       </c>
       <c r="G23" s="3">
-        <v>656900</v>
+        <v>635700</v>
       </c>
       <c r="H23" s="3">
-        <v>469800</v>
+        <v>640800</v>
       </c>
       <c r="I23" s="3">
-        <v>527500</v>
+        <v>458300</v>
       </c>
       <c r="J23" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K23" s="3">
         <v>588500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>290500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>338400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-110900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30900</v>
+        <v>29900</v>
       </c>
       <c r="E24" s="3">
-        <v>70100</v>
+        <v>30200</v>
       </c>
       <c r="F24" s="3">
-        <v>141100</v>
+        <v>68300</v>
       </c>
       <c r="G24" s="3">
-        <v>147400</v>
+        <v>137700</v>
       </c>
       <c r="H24" s="3">
-        <v>96300</v>
+        <v>143800</v>
       </c>
       <c r="I24" s="3">
-        <v>121800</v>
+        <v>93900</v>
       </c>
       <c r="J24" s="3">
+        <v>118800</v>
+      </c>
+      <c r="K24" s="3">
         <v>136100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>73000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>165000</v>
+        <v>150800</v>
       </c>
       <c r="E26" s="3">
-        <v>255100</v>
+        <v>161000</v>
       </c>
       <c r="F26" s="3">
-        <v>510600</v>
+        <v>248800</v>
       </c>
       <c r="G26" s="3">
-        <v>509500</v>
+        <v>498100</v>
       </c>
       <c r="H26" s="3">
-        <v>373500</v>
+        <v>497000</v>
       </c>
       <c r="I26" s="3">
-        <v>405700</v>
+        <v>364300</v>
       </c>
       <c r="J26" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K26" s="3">
         <v>452500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>225900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>265400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>164100</v>
+        <v>150100</v>
       </c>
       <c r="E27" s="3">
-        <v>256100</v>
+        <v>160100</v>
       </c>
       <c r="F27" s="3">
-        <v>509500</v>
+        <v>249800</v>
       </c>
       <c r="G27" s="3">
-        <v>508600</v>
+        <v>497000</v>
       </c>
       <c r="H27" s="3">
-        <v>372800</v>
+        <v>496100</v>
       </c>
       <c r="I27" s="3">
-        <v>404600</v>
+        <v>363700</v>
       </c>
       <c r="J27" s="3">
+        <v>394700</v>
+      </c>
+      <c r="K27" s="3">
         <v>451800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>223100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>262800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105000</v>
+        <v>-92000</v>
       </c>
       <c r="E32" s="3">
-        <v>-63000</v>
+        <v>-102400</v>
       </c>
       <c r="F32" s="3">
-        <v>-127800</v>
+        <v>-61400</v>
       </c>
       <c r="G32" s="3">
-        <v>-118800</v>
+        <v>-124600</v>
       </c>
       <c r="H32" s="3">
-        <v>-98200</v>
+        <v>-115900</v>
       </c>
       <c r="I32" s="3">
-        <v>-90500</v>
+        <v>-95800</v>
       </c>
       <c r="J32" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-60700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>164100</v>
+        <v>150100</v>
       </c>
       <c r="E33" s="3">
-        <v>256100</v>
+        <v>160100</v>
       </c>
       <c r="F33" s="3">
-        <v>509500</v>
+        <v>249800</v>
       </c>
       <c r="G33" s="3">
-        <v>508600</v>
+        <v>497000</v>
       </c>
       <c r="H33" s="3">
-        <v>372800</v>
+        <v>496100</v>
       </c>
       <c r="I33" s="3">
-        <v>404600</v>
+        <v>363700</v>
       </c>
       <c r="J33" s="3">
+        <v>394700</v>
+      </c>
+      <c r="K33" s="3">
         <v>451800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>223100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>262800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>164100</v>
+        <v>150100</v>
       </c>
       <c r="E35" s="3">
-        <v>256100</v>
+        <v>160100</v>
       </c>
       <c r="F35" s="3">
-        <v>509500</v>
+        <v>249800</v>
       </c>
       <c r="G35" s="3">
-        <v>508600</v>
+        <v>497000</v>
       </c>
       <c r="H35" s="3">
-        <v>372800</v>
+        <v>496100</v>
       </c>
       <c r="I35" s="3">
-        <v>404600</v>
+        <v>363700</v>
       </c>
       <c r="J35" s="3">
+        <v>394700</v>
+      </c>
+      <c r="K35" s="3">
         <v>451800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>223100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>262800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,171 +1795,184 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1423900</v>
+        <v>1033300</v>
       </c>
       <c r="E41" s="3">
-        <v>1251100</v>
+        <v>1389000</v>
       </c>
       <c r="F41" s="3">
-        <v>1807800</v>
+        <v>1220400</v>
       </c>
       <c r="G41" s="3">
-        <v>1072500</v>
+        <v>1763500</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>1046200</v>
       </c>
       <c r="I41" s="3">
-        <v>756300</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>737800</v>
+      </c>
+      <c r="K41" s="3">
         <v>635600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>740700</v>
+        <v>900700</v>
       </c>
       <c r="E42" s="3">
-        <v>849700</v>
+        <v>722500</v>
       </c>
       <c r="F42" s="3">
-        <v>289800</v>
+        <v>828800</v>
       </c>
       <c r="G42" s="3">
-        <v>291100</v>
+        <v>282700</v>
       </c>
       <c r="H42" s="3">
-        <v>1141500</v>
+        <v>284000</v>
       </c>
       <c r="I42" s="3">
-        <v>24300</v>
+        <v>1113500</v>
       </c>
       <c r="J42" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>377600</v>
+        <v>239700</v>
       </c>
       <c r="E43" s="3">
-        <v>355000</v>
+        <v>368300</v>
       </c>
       <c r="F43" s="3">
-        <v>579400</v>
+        <v>346300</v>
       </c>
       <c r="G43" s="3">
-        <v>507300</v>
+        <v>565200</v>
       </c>
       <c r="H43" s="3">
-        <v>452000</v>
+        <v>494900</v>
       </c>
       <c r="I43" s="3">
-        <v>446200</v>
+        <v>440900</v>
       </c>
       <c r="J43" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K43" s="3">
         <v>523700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>428700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>557600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>984100</v>
+        <v>945400</v>
       </c>
       <c r="E44" s="3">
-        <v>1165200</v>
+        <v>959900</v>
       </c>
       <c r="F44" s="3">
-        <v>1038400</v>
+        <v>1136600</v>
       </c>
       <c r="G44" s="3">
-        <v>946600</v>
+        <v>1012900</v>
       </c>
       <c r="H44" s="3">
-        <v>1006800</v>
+        <v>923400</v>
       </c>
       <c r="I44" s="3">
-        <v>883800</v>
+        <v>982100</v>
       </c>
       <c r="J44" s="3">
+        <v>862100</v>
+      </c>
+      <c r="K44" s="3">
         <v>664600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>620100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>858600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12700</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>8900</v>
+        <v>12300</v>
       </c>
       <c r="F45" s="3">
-        <v>31700</v>
+        <v>8700</v>
       </c>
       <c r="G45" s="3">
-        <v>32800</v>
+        <v>30900</v>
       </c>
       <c r="H45" s="3">
-        <v>20000</v>
+        <v>31900</v>
       </c>
       <c r="I45" s="3">
-        <v>23800</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>19500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>23200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1884,148 +1983,163 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3539000</v>
+        <v>3122400</v>
       </c>
       <c r="E46" s="3">
-        <v>3629900</v>
+        <v>3452100</v>
       </c>
       <c r="F46" s="3">
-        <v>3747100</v>
+        <v>3540800</v>
       </c>
       <c r="G46" s="3">
-        <v>2850400</v>
+        <v>3655200</v>
       </c>
       <c r="H46" s="3">
-        <v>2620300</v>
+        <v>2780500</v>
       </c>
       <c r="I46" s="3">
-        <v>2134400</v>
+        <v>2556000</v>
       </c>
       <c r="J46" s="3">
+        <v>2082000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1827000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1208600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1460900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1383100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>717800</v>
+        <v>1221100</v>
       </c>
       <c r="E47" s="3">
-        <v>649600</v>
+        <v>700200</v>
       </c>
       <c r="F47" s="3">
-        <v>729800</v>
+        <v>633600</v>
       </c>
       <c r="G47" s="3">
-        <v>638800</v>
+        <v>711900</v>
       </c>
       <c r="H47" s="3">
-        <v>544400</v>
+        <v>623100</v>
       </c>
       <c r="I47" s="3">
-        <v>529300</v>
+        <v>531000</v>
       </c>
       <c r="J47" s="3">
+        <v>516300</v>
+      </c>
+      <c r="K47" s="3">
         <v>497100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>491400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>482900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1950600</v>
+        <v>1935300</v>
       </c>
       <c r="E48" s="3">
-        <v>1948800</v>
+        <v>1902700</v>
       </c>
       <c r="F48" s="3">
-        <v>1953200</v>
+        <v>1901000</v>
       </c>
       <c r="G48" s="3">
-        <v>2045900</v>
+        <v>1905300</v>
       </c>
       <c r="H48" s="3">
-        <v>2029000</v>
+        <v>1995700</v>
       </c>
       <c r="I48" s="3">
-        <v>2090800</v>
+        <v>1979200</v>
       </c>
       <c r="J48" s="3">
+        <v>2039600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2112000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2302000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2329700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65400</v>
+        <v>67400</v>
       </c>
       <c r="E49" s="3">
-        <v>123100</v>
+        <v>63800</v>
       </c>
       <c r="F49" s="3">
-        <v>100600</v>
+        <v>120100</v>
       </c>
       <c r="G49" s="3">
-        <v>107200</v>
+        <v>98200</v>
       </c>
       <c r="H49" s="3">
-        <v>119300</v>
+        <v>104600</v>
       </c>
       <c r="I49" s="3">
-        <v>101200</v>
+        <v>116400</v>
       </c>
       <c r="J49" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K49" s="3">
         <v>105500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>116200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>131600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17300</v>
+        <v>21100</v>
       </c>
       <c r="E52" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="F52" s="3">
-        <v>15200</v>
+        <v>16700</v>
       </c>
       <c r="G52" s="3">
-        <v>17100</v>
+        <v>14800</v>
       </c>
       <c r="H52" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="I52" s="3">
-        <v>14800</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6290000</v>
+        <v>6367400</v>
       </c>
       <c r="E54" s="3">
-        <v>6368500</v>
+        <v>6135700</v>
       </c>
       <c r="F54" s="3">
-        <v>6545900</v>
+        <v>6212300</v>
       </c>
       <c r="G54" s="3">
-        <v>5659300</v>
+        <v>6385300</v>
       </c>
       <c r="H54" s="3">
-        <v>5327400</v>
+        <v>5520500</v>
       </c>
       <c r="I54" s="3">
-        <v>4870500</v>
+        <v>5196700</v>
       </c>
       <c r="J54" s="3">
+        <v>4751000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4554200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4128900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4470200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4494600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,156 +2359,169 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>497600</v>
+        <v>394200</v>
       </c>
       <c r="E57" s="3">
-        <v>419400</v>
+        <v>485400</v>
       </c>
       <c r="F57" s="3">
-        <v>417400</v>
+        <v>409100</v>
       </c>
       <c r="G57" s="3">
-        <v>273800</v>
+        <v>407200</v>
       </c>
       <c r="H57" s="3">
-        <v>326700</v>
+        <v>267100</v>
       </c>
       <c r="I57" s="3">
-        <v>304700</v>
+        <v>318600</v>
       </c>
       <c r="J57" s="3">
+        <v>297300</v>
+      </c>
+      <c r="K57" s="3">
         <v>290500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>269700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>510700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>157900</v>
+        <v>218200</v>
       </c>
       <c r="E58" s="3">
-        <v>71300</v>
+        <v>154000</v>
       </c>
       <c r="F58" s="3">
-        <v>200200</v>
+        <v>69600</v>
       </c>
       <c r="G58" s="3">
-        <v>87000</v>
+        <v>195300</v>
       </c>
       <c r="H58" s="3">
-        <v>88000</v>
+        <v>84800</v>
       </c>
       <c r="I58" s="3">
-        <v>78400</v>
+        <v>85900</v>
       </c>
       <c r="J58" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K58" s="3">
         <v>123300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>307200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>625900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>593100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1483000</v>
+        <v>1554200</v>
       </c>
       <c r="E59" s="3">
-        <v>1505500</v>
+        <v>1446600</v>
       </c>
       <c r="F59" s="3">
-        <v>1786100</v>
+        <v>1468600</v>
       </c>
       <c r="G59" s="3">
-        <v>1206300</v>
+        <v>1742300</v>
       </c>
       <c r="H59" s="3">
-        <v>1338600</v>
+        <v>1176700</v>
       </c>
       <c r="I59" s="3">
-        <v>899900</v>
+        <v>1305700</v>
       </c>
       <c r="J59" s="3">
+        <v>877800</v>
+      </c>
+      <c r="K59" s="3">
         <v>961700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>607600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>814900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2138500</v>
+        <v>2166500</v>
       </c>
       <c r="E60" s="3">
-        <v>1996200</v>
+        <v>2086000</v>
       </c>
       <c r="F60" s="3">
-        <v>2403800</v>
+        <v>1947300</v>
       </c>
       <c r="G60" s="3">
-        <v>1567100</v>
+        <v>2344800</v>
       </c>
       <c r="H60" s="3">
-        <v>1753200</v>
+        <v>1528700</v>
       </c>
       <c r="I60" s="3">
-        <v>1283100</v>
+        <v>1710200</v>
       </c>
       <c r="J60" s="3">
+        <v>1251600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1375500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1146700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1710500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1815700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3100</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2399,30 +2542,33 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>237400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
       </c>
       <c r="F62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2433,14 +2579,17 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>2400</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2160700</v>
+        <v>2187700</v>
       </c>
       <c r="E66" s="3">
-        <v>2014400</v>
+        <v>2107700</v>
       </c>
       <c r="F66" s="3">
-        <v>2446900</v>
+        <v>1965000</v>
       </c>
       <c r="G66" s="3">
-        <v>1608900</v>
+        <v>2386900</v>
       </c>
       <c r="H66" s="3">
-        <v>1793700</v>
+        <v>1569400</v>
       </c>
       <c r="I66" s="3">
-        <v>1323400</v>
+        <v>1749700</v>
       </c>
       <c r="J66" s="3">
+        <v>1290900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1415200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1190700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1756800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2095000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2561000</v>
+        <v>2649800</v>
       </c>
       <c r="E72" s="3">
-        <v>2785700</v>
+        <v>2498200</v>
       </c>
       <c r="F72" s="3">
-        <v>2530700</v>
+        <v>2717400</v>
       </c>
       <c r="G72" s="3">
-        <v>2489900</v>
+        <v>2468600</v>
       </c>
       <c r="H72" s="3">
-        <v>1984000</v>
+        <v>2428800</v>
       </c>
       <c r="I72" s="3">
-        <v>1997500</v>
+        <v>1935400</v>
       </c>
       <c r="J72" s="3">
+        <v>1948500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1589400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1335300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1110600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4129400</v>
+        <v>4179700</v>
       </c>
       <c r="E76" s="3">
-        <v>4354100</v>
+        <v>4028000</v>
       </c>
       <c r="F76" s="3">
-        <v>4099000</v>
+        <v>4247200</v>
       </c>
       <c r="G76" s="3">
-        <v>4050500</v>
+        <v>3998500</v>
       </c>
       <c r="H76" s="3">
-        <v>3533600</v>
+        <v>3951100</v>
       </c>
       <c r="I76" s="3">
-        <v>3547100</v>
+        <v>3446900</v>
       </c>
       <c r="J76" s="3">
+        <v>3460100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3138900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2938100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2713400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>164100</v>
+        <v>150100</v>
       </c>
       <c r="E81" s="3">
-        <v>256100</v>
+        <v>160100</v>
       </c>
       <c r="F81" s="3">
-        <v>509500</v>
+        <v>249800</v>
       </c>
       <c r="G81" s="3">
-        <v>508600</v>
+        <v>497000</v>
       </c>
       <c r="H81" s="3">
-        <v>372800</v>
+        <v>496100</v>
       </c>
       <c r="I81" s="3">
-        <v>404600</v>
+        <v>363700</v>
       </c>
       <c r="J81" s="3">
+        <v>394700</v>
+      </c>
+      <c r="K81" s="3">
         <v>451800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>223100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>262800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31600</v>
+        <v>677000</v>
       </c>
       <c r="E89" s="3">
-        <v>350900</v>
+        <v>30800</v>
       </c>
       <c r="F89" s="3">
-        <v>604500</v>
+        <v>342300</v>
       </c>
       <c r="G89" s="3">
-        <v>675900</v>
+        <v>589700</v>
       </c>
       <c r="H89" s="3">
-        <v>337200</v>
+        <v>659300</v>
       </c>
       <c r="I89" s="3">
-        <v>368500</v>
+        <v>328900</v>
       </c>
       <c r="J89" s="3">
+        <v>359500</v>
+      </c>
+      <c r="K89" s="3">
         <v>661900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>468400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>263700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81100</v>
+        <v>67500</v>
       </c>
       <c r="E91" s="3">
-        <v>29800</v>
+        <v>-79100</v>
       </c>
       <c r="F91" s="3">
-        <v>-50400</v>
+        <v>29100</v>
       </c>
       <c r="G91" s="3">
-        <v>39100</v>
+        <v>-49200</v>
       </c>
       <c r="H91" s="3">
-        <v>-63800</v>
+        <v>38200</v>
       </c>
       <c r="I91" s="3">
-        <v>-29300</v>
+        <v>-62200</v>
       </c>
       <c r="J91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>35400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46500</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>59000</v>
+        <v>-704600</v>
       </c>
       <c r="E94" s="3">
-        <v>-283600</v>
+        <v>57500</v>
       </c>
       <c r="F94" s="3">
-        <v>6900</v>
+        <v>-276700</v>
       </c>
       <c r="G94" s="3">
-        <v>-360400</v>
+        <v>6800</v>
       </c>
       <c r="H94" s="3">
-        <v>15900</v>
+        <v>-351500</v>
       </c>
       <c r="I94" s="3">
-        <v>-26400</v>
+        <v>15500</v>
       </c>
       <c r="J94" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3470,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-155600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-151800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80500</v>
+        <v>-321700</v>
       </c>
       <c r="E100" s="3">
-        <v>-621100</v>
+        <v>78500</v>
       </c>
       <c r="F100" s="3">
-        <v>117900</v>
+        <v>-605900</v>
       </c>
       <c r="G100" s="3">
-        <v>-380700</v>
+        <v>115000</v>
       </c>
       <c r="H100" s="3">
-        <v>9100</v>
+        <v>-371300</v>
       </c>
       <c r="I100" s="3">
-        <v>-201100</v>
+        <v>8900</v>
       </c>
       <c r="J100" s="3">
+        <v>-196100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-177300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-326500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-222000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-339200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
-        <v>3500</v>
-      </c>
       <c r="G101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>172100</v>
+        <v>-348700</v>
       </c>
       <c r="E102" s="3">
-        <v>-555300</v>
+        <v>167800</v>
       </c>
       <c r="F102" s="3">
-        <v>732900</v>
+        <v>-541700</v>
       </c>
       <c r="G102" s="3">
-        <v>-64800</v>
+        <v>714900</v>
       </c>
       <c r="H102" s="3">
-        <v>360900</v>
+        <v>-63200</v>
       </c>
       <c r="I102" s="3">
-        <v>141900</v>
+        <v>352000</v>
       </c>
       <c r="J102" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K102" s="3">
         <v>484100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5868600</v>
+        <v>6089600</v>
       </c>
       <c r="E8" s="3">
-        <v>6455700</v>
+        <v>6698700</v>
       </c>
       <c r="F8" s="3">
-        <v>6937300</v>
+        <v>7198500</v>
       </c>
       <c r="G8" s="3">
-        <v>6444800</v>
+        <v>6687400</v>
       </c>
       <c r="H8" s="3">
-        <v>5898200</v>
+        <v>6120300</v>
       </c>
       <c r="I8" s="3">
-        <v>5189200</v>
+        <v>5384600</v>
       </c>
       <c r="J8" s="3">
-        <v>4920200</v>
+        <v>5105400</v>
       </c>
       <c r="K8" s="3">
         <v>4416600</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5772300</v>
+        <v>5989700</v>
       </c>
       <c r="E9" s="3">
-        <v>6329700</v>
+        <v>6568100</v>
       </c>
       <c r="F9" s="3">
-        <v>6679900</v>
+        <v>6931400</v>
       </c>
       <c r="G9" s="3">
-        <v>5894000</v>
+        <v>6115900</v>
       </c>
       <c r="H9" s="3">
-        <v>5337000</v>
+        <v>5538000</v>
       </c>
       <c r="I9" s="3">
-        <v>4795900</v>
+        <v>4976400</v>
       </c>
       <c r="J9" s="3">
-        <v>4467100</v>
+        <v>4635300</v>
       </c>
       <c r="K9" s="3">
         <v>3847400</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>96300</v>
+        <v>99900</v>
       </c>
       <c r="E10" s="3">
-        <v>125900</v>
+        <v>130700</v>
       </c>
       <c r="F10" s="3">
-        <v>257400</v>
+        <v>267100</v>
       </c>
       <c r="G10" s="3">
-        <v>550800</v>
+        <v>571500</v>
       </c>
       <c r="H10" s="3">
-        <v>561200</v>
+        <v>582400</v>
       </c>
       <c r="I10" s="3">
-        <v>393300</v>
+        <v>408100</v>
       </c>
       <c r="J10" s="3">
-        <v>453100</v>
+        <v>470100</v>
       </c>
       <c r="K10" s="3">
         <v>569300</v>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>-200</v>
       </c>
       <c r="H14" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -979,13 +979,13 @@
         <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5775400</v>
+        <v>5992900</v>
       </c>
       <c r="E17" s="3">
-        <v>6364000</v>
+        <v>6603700</v>
       </c>
       <c r="F17" s="3">
-        <v>6671500</v>
+        <v>6922700</v>
       </c>
       <c r="G17" s="3">
-        <v>5928900</v>
+        <v>6152200</v>
       </c>
       <c r="H17" s="3">
-        <v>5368000</v>
+        <v>5570100</v>
       </c>
       <c r="I17" s="3">
-        <v>4823400</v>
+        <v>5005000</v>
       </c>
       <c r="J17" s="3">
-        <v>4491200</v>
+        <v>4660400</v>
       </c>
       <c r="K17" s="3">
         <v>3883900</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>93200</v>
+        <v>96700</v>
       </c>
       <c r="E18" s="3">
-        <v>91600</v>
+        <v>95100</v>
       </c>
       <c r="F18" s="3">
-        <v>265800</v>
+        <v>275900</v>
       </c>
       <c r="G18" s="3">
-        <v>515800</v>
+        <v>535300</v>
       </c>
       <c r="H18" s="3">
-        <v>530300</v>
+        <v>550200</v>
       </c>
       <c r="I18" s="3">
-        <v>365700</v>
+        <v>379500</v>
       </c>
       <c r="J18" s="3">
-        <v>428900</v>
+        <v>445100</v>
       </c>
       <c r="K18" s="3">
         <v>532800</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>92000</v>
+        <v>95500</v>
       </c>
       <c r="E20" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="F20" s="3">
-        <v>61400</v>
+        <v>63700</v>
       </c>
       <c r="G20" s="3">
-        <v>124600</v>
+        <v>129300</v>
       </c>
       <c r="H20" s="3">
-        <v>115900</v>
+        <v>120200</v>
       </c>
       <c r="I20" s="3">
-        <v>95800</v>
+        <v>99400</v>
       </c>
       <c r="J20" s="3">
-        <v>88300</v>
+        <v>91600</v>
       </c>
       <c r="K20" s="3">
         <v>60700</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>214500</v>
+        <v>222600</v>
       </c>
       <c r="E21" s="3">
-        <v>300900</v>
+        <v>312300</v>
       </c>
       <c r="F21" s="3">
-        <v>325900</v>
+        <v>338100</v>
       </c>
       <c r="G21" s="3">
-        <v>751100</v>
+        <v>779400</v>
       </c>
       <c r="H21" s="3">
-        <v>643200</v>
+        <v>667400</v>
       </c>
       <c r="I21" s="3">
-        <v>574400</v>
+        <v>596000</v>
       </c>
       <c r="J21" s="3">
-        <v>515000</v>
+        <v>534400</v>
       </c>
       <c r="K21" s="3">
         <v>712400</v>
@@ -1195,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="G22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K22" s="3">
         <v>5000</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>180600</v>
+        <v>187400</v>
       </c>
       <c r="E23" s="3">
-        <v>191100</v>
+        <v>198300</v>
       </c>
       <c r="F23" s="3">
-        <v>317100</v>
+        <v>329100</v>
       </c>
       <c r="G23" s="3">
-        <v>635700</v>
+        <v>659700</v>
       </c>
       <c r="H23" s="3">
-        <v>640800</v>
+        <v>665000</v>
       </c>
       <c r="I23" s="3">
-        <v>458300</v>
+        <v>475500</v>
       </c>
       <c r="J23" s="3">
-        <v>514500</v>
+        <v>533900</v>
       </c>
       <c r="K23" s="3">
         <v>588500</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29900</v>
+        <v>31000</v>
       </c>
       <c r="E24" s="3">
-        <v>30200</v>
+        <v>31300</v>
       </c>
       <c r="F24" s="3">
-        <v>68300</v>
+        <v>70900</v>
       </c>
       <c r="G24" s="3">
-        <v>137700</v>
+        <v>142900</v>
       </c>
       <c r="H24" s="3">
-        <v>143800</v>
+        <v>149200</v>
       </c>
       <c r="I24" s="3">
-        <v>93900</v>
+        <v>97500</v>
       </c>
       <c r="J24" s="3">
-        <v>118800</v>
+        <v>123200</v>
       </c>
       <c r="K24" s="3">
         <v>136100</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150800</v>
+        <v>156400</v>
       </c>
       <c r="E26" s="3">
-        <v>161000</v>
+        <v>167000</v>
       </c>
       <c r="F26" s="3">
-        <v>248800</v>
+        <v>258200</v>
       </c>
       <c r="G26" s="3">
-        <v>498100</v>
+        <v>516800</v>
       </c>
       <c r="H26" s="3">
-        <v>497000</v>
+        <v>515700</v>
       </c>
       <c r="I26" s="3">
-        <v>364300</v>
+        <v>378100</v>
       </c>
       <c r="J26" s="3">
-        <v>395800</v>
+        <v>410700</v>
       </c>
       <c r="K26" s="3">
         <v>452500</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150100</v>
+        <v>155700</v>
       </c>
       <c r="E27" s="3">
-        <v>160100</v>
+        <v>166100</v>
       </c>
       <c r="F27" s="3">
-        <v>249800</v>
+        <v>259200</v>
       </c>
       <c r="G27" s="3">
-        <v>497000</v>
+        <v>515700</v>
       </c>
       <c r="H27" s="3">
-        <v>496100</v>
+        <v>514800</v>
       </c>
       <c r="I27" s="3">
-        <v>363700</v>
+        <v>377400</v>
       </c>
       <c r="J27" s="3">
-        <v>394700</v>
+        <v>409500</v>
       </c>
       <c r="K27" s="3">
         <v>451800</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-92000</v>
+        <v>-95500</v>
       </c>
       <c r="E32" s="3">
-        <v>-102400</v>
+        <v>-106300</v>
       </c>
       <c r="F32" s="3">
-        <v>-61400</v>
+        <v>-63700</v>
       </c>
       <c r="G32" s="3">
-        <v>-124600</v>
+        <v>-129300</v>
       </c>
       <c r="H32" s="3">
-        <v>-115900</v>
+        <v>-120200</v>
       </c>
       <c r="I32" s="3">
-        <v>-95800</v>
+        <v>-99400</v>
       </c>
       <c r="J32" s="3">
-        <v>-88300</v>
+        <v>-91600</v>
       </c>
       <c r="K32" s="3">
         <v>-60700</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150100</v>
+        <v>155700</v>
       </c>
       <c r="E33" s="3">
-        <v>160100</v>
+        <v>166100</v>
       </c>
       <c r="F33" s="3">
-        <v>249800</v>
+        <v>259200</v>
       </c>
       <c r="G33" s="3">
-        <v>497000</v>
+        <v>515700</v>
       </c>
       <c r="H33" s="3">
-        <v>496100</v>
+        <v>514800</v>
       </c>
       <c r="I33" s="3">
-        <v>363700</v>
+        <v>377400</v>
       </c>
       <c r="J33" s="3">
-        <v>394700</v>
+        <v>409500</v>
       </c>
       <c r="K33" s="3">
         <v>451800</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150100</v>
+        <v>155700</v>
       </c>
       <c r="E35" s="3">
-        <v>160100</v>
+        <v>166100</v>
       </c>
       <c r="F35" s="3">
-        <v>249800</v>
+        <v>259200</v>
       </c>
       <c r="G35" s="3">
-        <v>497000</v>
+        <v>515700</v>
       </c>
       <c r="H35" s="3">
-        <v>496100</v>
+        <v>514800</v>
       </c>
       <c r="I35" s="3">
-        <v>363700</v>
+        <v>377400</v>
       </c>
       <c r="J35" s="3">
-        <v>394700</v>
+        <v>409500</v>
       </c>
       <c r="K35" s="3">
         <v>451800</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1033300</v>
+        <v>1072200</v>
       </c>
       <c r="E41" s="3">
-        <v>1389000</v>
+        <v>1441300</v>
       </c>
       <c r="F41" s="3">
-        <v>1220400</v>
+        <v>1266400</v>
       </c>
       <c r="G41" s="3">
-        <v>1763500</v>
+        <v>1829900</v>
       </c>
       <c r="H41" s="3">
-        <v>1046200</v>
+        <v>1085600</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>737800</v>
+        <v>765600</v>
       </c>
       <c r="K41" s="3">
         <v>635600</v>
@@ -1840,25 +1840,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>900700</v>
+        <v>934600</v>
       </c>
       <c r="E42" s="3">
-        <v>722500</v>
+        <v>749700</v>
       </c>
       <c r="F42" s="3">
-        <v>828800</v>
+        <v>860000</v>
       </c>
       <c r="G42" s="3">
-        <v>282700</v>
+        <v>293400</v>
       </c>
       <c r="H42" s="3">
-        <v>284000</v>
+        <v>294700</v>
       </c>
       <c r="I42" s="3">
-        <v>1113500</v>
+        <v>1155400</v>
       </c>
       <c r="J42" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="K42" s="3">
         <v>3100</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>239700</v>
+        <v>248800</v>
       </c>
       <c r="E43" s="3">
-        <v>368300</v>
+        <v>382200</v>
       </c>
       <c r="F43" s="3">
-        <v>346300</v>
+        <v>359300</v>
       </c>
       <c r="G43" s="3">
-        <v>565200</v>
+        <v>586500</v>
       </c>
       <c r="H43" s="3">
-        <v>494900</v>
+        <v>513500</v>
       </c>
       <c r="I43" s="3">
-        <v>440900</v>
+        <v>457500</v>
       </c>
       <c r="J43" s="3">
-        <v>435300</v>
+        <v>451700</v>
       </c>
       <c r="K43" s="3">
         <v>523700</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>945400</v>
+        <v>980900</v>
       </c>
       <c r="E44" s="3">
-        <v>959900</v>
+        <v>996100</v>
       </c>
       <c r="F44" s="3">
-        <v>1136600</v>
+        <v>1179400</v>
       </c>
       <c r="G44" s="3">
-        <v>1012900</v>
+        <v>1051000</v>
       </c>
       <c r="H44" s="3">
-        <v>923400</v>
+        <v>958200</v>
       </c>
       <c r="I44" s="3">
-        <v>982100</v>
+        <v>1019100</v>
       </c>
       <c r="J44" s="3">
-        <v>862100</v>
+        <v>894500</v>
       </c>
       <c r="K44" s="3">
         <v>664600</v>
@@ -1954,25 +1954,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>12300</v>
+        <v>12800</v>
       </c>
       <c r="F45" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="G45" s="3">
-        <v>30900</v>
+        <v>32100</v>
       </c>
       <c r="H45" s="3">
-        <v>31900</v>
+        <v>33200</v>
       </c>
       <c r="I45" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="J45" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3122400</v>
+        <v>3240000</v>
       </c>
       <c r="E46" s="3">
-        <v>3452100</v>
+        <v>3582100</v>
       </c>
       <c r="F46" s="3">
-        <v>3540800</v>
+        <v>3674200</v>
       </c>
       <c r="G46" s="3">
-        <v>3655200</v>
+        <v>3792800</v>
       </c>
       <c r="H46" s="3">
-        <v>2780500</v>
+        <v>2885100</v>
       </c>
       <c r="I46" s="3">
-        <v>2556000</v>
+        <v>2652200</v>
       </c>
       <c r="J46" s="3">
-        <v>2082000</v>
+        <v>2160400</v>
       </c>
       <c r="K46" s="3">
         <v>1827000</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1221100</v>
+        <v>1267100</v>
       </c>
       <c r="E47" s="3">
-        <v>700200</v>
+        <v>726500</v>
       </c>
       <c r="F47" s="3">
-        <v>633600</v>
+        <v>657500</v>
       </c>
       <c r="G47" s="3">
-        <v>711900</v>
+        <v>738700</v>
       </c>
       <c r="H47" s="3">
-        <v>623100</v>
+        <v>646600</v>
       </c>
       <c r="I47" s="3">
-        <v>531000</v>
+        <v>551000</v>
       </c>
       <c r="J47" s="3">
-        <v>516300</v>
+        <v>535700</v>
       </c>
       <c r="K47" s="3">
         <v>497100</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1935300</v>
+        <v>2008200</v>
       </c>
       <c r="E48" s="3">
-        <v>1902700</v>
+        <v>1974400</v>
       </c>
       <c r="F48" s="3">
-        <v>1901000</v>
+        <v>1972600</v>
       </c>
       <c r="G48" s="3">
-        <v>1905300</v>
+        <v>1977000</v>
       </c>
       <c r="H48" s="3">
-        <v>1995700</v>
+        <v>2070800</v>
       </c>
       <c r="I48" s="3">
-        <v>1979200</v>
+        <v>2053700</v>
       </c>
       <c r="J48" s="3">
-        <v>2039600</v>
+        <v>2116300</v>
       </c>
       <c r="K48" s="3">
         <v>2112000</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>67400</v>
+        <v>69900</v>
       </c>
       <c r="E49" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="F49" s="3">
-        <v>120100</v>
+        <v>124600</v>
       </c>
       <c r="G49" s="3">
-        <v>98200</v>
+        <v>101800</v>
       </c>
       <c r="H49" s="3">
-        <v>104600</v>
+        <v>108500</v>
       </c>
       <c r="I49" s="3">
-        <v>116400</v>
+        <v>120800</v>
       </c>
       <c r="J49" s="3">
-        <v>98700</v>
+        <v>102500</v>
       </c>
       <c r="K49" s="3">
         <v>105500</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="E52" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="F52" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="G52" s="3">
-        <v>14800</v>
+        <v>15400</v>
       </c>
       <c r="H52" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="I52" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="J52" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="K52" s="3">
         <v>12600</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6367400</v>
+        <v>6607100</v>
       </c>
       <c r="E54" s="3">
-        <v>6135700</v>
+        <v>6366700</v>
       </c>
       <c r="F54" s="3">
-        <v>6212300</v>
+        <v>6446200</v>
       </c>
       <c r="G54" s="3">
-        <v>6385300</v>
+        <v>6625800</v>
       </c>
       <c r="H54" s="3">
-        <v>5520500</v>
+        <v>5728400</v>
       </c>
       <c r="I54" s="3">
-        <v>5196700</v>
+        <v>5392300</v>
       </c>
       <c r="J54" s="3">
-        <v>4751000</v>
+        <v>4929900</v>
       </c>
       <c r="K54" s="3">
         <v>4554200</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>394200</v>
+        <v>409000</v>
       </c>
       <c r="E57" s="3">
-        <v>485400</v>
+        <v>503700</v>
       </c>
       <c r="F57" s="3">
-        <v>409100</v>
+        <v>424500</v>
       </c>
       <c r="G57" s="3">
-        <v>407200</v>
+        <v>422500</v>
       </c>
       <c r="H57" s="3">
-        <v>267100</v>
+        <v>277200</v>
       </c>
       <c r="I57" s="3">
-        <v>318600</v>
+        <v>330600</v>
       </c>
       <c r="J57" s="3">
-        <v>297300</v>
+        <v>308500</v>
       </c>
       <c r="K57" s="3">
         <v>290500</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>218200</v>
+        <v>226400</v>
       </c>
       <c r="E58" s="3">
-        <v>154000</v>
+        <v>159800</v>
       </c>
       <c r="F58" s="3">
-        <v>69600</v>
+        <v>72200</v>
       </c>
       <c r="G58" s="3">
-        <v>195300</v>
+        <v>202700</v>
       </c>
       <c r="H58" s="3">
-        <v>84800</v>
+        <v>88000</v>
       </c>
       <c r="I58" s="3">
-        <v>85900</v>
+        <v>89100</v>
       </c>
       <c r="J58" s="3">
-        <v>76500</v>
+        <v>79400</v>
       </c>
       <c r="K58" s="3">
         <v>123300</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1554200</v>
+        <v>1612700</v>
       </c>
       <c r="E59" s="3">
-        <v>1446600</v>
+        <v>1501100</v>
       </c>
       <c r="F59" s="3">
-        <v>1468600</v>
+        <v>1523900</v>
       </c>
       <c r="G59" s="3">
-        <v>1742300</v>
+        <v>1807900</v>
       </c>
       <c r="H59" s="3">
-        <v>1176700</v>
+        <v>1221000</v>
       </c>
       <c r="I59" s="3">
-        <v>1305700</v>
+        <v>1354900</v>
       </c>
       <c r="J59" s="3">
-        <v>877800</v>
+        <v>910900</v>
       </c>
       <c r="K59" s="3">
         <v>961700</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2166500</v>
+        <v>2248100</v>
       </c>
       <c r="E60" s="3">
-        <v>2086000</v>
+        <v>2164600</v>
       </c>
       <c r="F60" s="3">
-        <v>1947300</v>
+        <v>2020600</v>
       </c>
       <c r="G60" s="3">
-        <v>2344800</v>
+        <v>2433100</v>
       </c>
       <c r="H60" s="3">
-        <v>1528700</v>
+        <v>1586200</v>
       </c>
       <c r="I60" s="3">
-        <v>1710200</v>
+        <v>1774600</v>
       </c>
       <c r="J60" s="3">
-        <v>1251600</v>
+        <v>1298700</v>
       </c>
       <c r="K60" s="3">
         <v>1375500</v>
@@ -2521,7 +2521,7 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
@@ -2565,7 +2565,7 @@
         <v>1500</v>
       </c>
       <c r="G62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2187700</v>
+        <v>2270100</v>
       </c>
       <c r="E66" s="3">
-        <v>2107700</v>
+        <v>2187000</v>
       </c>
       <c r="F66" s="3">
-        <v>1965000</v>
+        <v>2039000</v>
       </c>
       <c r="G66" s="3">
-        <v>2386900</v>
+        <v>2476700</v>
       </c>
       <c r="H66" s="3">
-        <v>1569400</v>
+        <v>1628500</v>
       </c>
       <c r="I66" s="3">
-        <v>1749700</v>
+        <v>1815600</v>
       </c>
       <c r="J66" s="3">
-        <v>1290900</v>
+        <v>1339500</v>
       </c>
       <c r="K66" s="3">
         <v>1415200</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2649800</v>
+        <v>2749600</v>
       </c>
       <c r="E72" s="3">
-        <v>2498200</v>
+        <v>2592300</v>
       </c>
       <c r="F72" s="3">
-        <v>2717400</v>
+        <v>2819700</v>
       </c>
       <c r="G72" s="3">
-        <v>2468600</v>
+        <v>2561600</v>
       </c>
       <c r="H72" s="3">
-        <v>2428800</v>
+        <v>2520300</v>
       </c>
       <c r="I72" s="3">
-        <v>1935400</v>
+        <v>2008200</v>
       </c>
       <c r="J72" s="3">
-        <v>1948500</v>
+        <v>2021900</v>
       </c>
       <c r="K72" s="3">
         <v>1589400</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4337000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4179700</v>
       </c>
-      <c r="E76" s="3">
-        <v>4028000</v>
-      </c>
       <c r="F76" s="3">
-        <v>4247200</v>
+        <v>4407200</v>
       </c>
       <c r="G76" s="3">
-        <v>3998500</v>
+        <v>4149000</v>
       </c>
       <c r="H76" s="3">
-        <v>3951100</v>
+        <v>4099900</v>
       </c>
       <c r="I76" s="3">
-        <v>3446900</v>
+        <v>3576700</v>
       </c>
       <c r="J76" s="3">
-        <v>3460100</v>
+        <v>3590400</v>
       </c>
       <c r="K76" s="3">
         <v>3138900</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150100</v>
+        <v>155700</v>
       </c>
       <c r="E81" s="3">
-        <v>160100</v>
+        <v>166100</v>
       </c>
       <c r="F81" s="3">
-        <v>249800</v>
+        <v>259200</v>
       </c>
       <c r="G81" s="3">
-        <v>497000</v>
+        <v>515700</v>
       </c>
       <c r="H81" s="3">
-        <v>496100</v>
+        <v>514800</v>
       </c>
       <c r="I81" s="3">
-        <v>363700</v>
+        <v>377400</v>
       </c>
       <c r="J81" s="3">
-        <v>394700</v>
+        <v>409500</v>
       </c>
       <c r="K81" s="3">
         <v>451800</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>677000</v>
+        <v>702500</v>
       </c>
       <c r="E89" s="3">
-        <v>30800</v>
+        <v>32000</v>
       </c>
       <c r="F89" s="3">
-        <v>342300</v>
+        <v>355200</v>
       </c>
       <c r="G89" s="3">
-        <v>589700</v>
+        <v>611900</v>
       </c>
       <c r="H89" s="3">
-        <v>659300</v>
+        <v>684100</v>
       </c>
       <c r="I89" s="3">
-        <v>328900</v>
+        <v>341300</v>
       </c>
       <c r="J89" s="3">
-        <v>359500</v>
+        <v>373000</v>
       </c>
       <c r="K89" s="3">
         <v>661900</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>67500</v>
+        <v>70000</v>
       </c>
       <c r="E91" s="3">
-        <v>-79100</v>
+        <v>-82100</v>
       </c>
       <c r="F91" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="G91" s="3">
-        <v>-49200</v>
+        <v>-51000</v>
       </c>
       <c r="H91" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="I91" s="3">
-        <v>-62200</v>
+        <v>-64600</v>
       </c>
       <c r="J91" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-704600</v>
+        <v>-731100</v>
       </c>
       <c r="E94" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="F94" s="3">
-        <v>-276700</v>
+        <v>-287100</v>
       </c>
       <c r="G94" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H94" s="3">
-        <v>-351500</v>
+        <v>-364800</v>
       </c>
       <c r="I94" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="J94" s="3">
-        <v>-25700</v>
+        <v>-26700</v>
       </c>
       <c r="K94" s="3">
         <v>-900</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-151800</v>
+        <v>-157500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-321700</v>
+        <v>-333800</v>
       </c>
       <c r="E100" s="3">
-        <v>78500</v>
+        <v>81500</v>
       </c>
       <c r="F100" s="3">
-        <v>-605900</v>
+        <v>-628700</v>
       </c>
       <c r="G100" s="3">
-        <v>115000</v>
+        <v>119300</v>
       </c>
       <c r="H100" s="3">
-        <v>-371300</v>
+        <v>-385300</v>
       </c>
       <c r="I100" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="J100" s="3">
-        <v>-196100</v>
+        <v>-203500</v>
       </c>
       <c r="K100" s="3">
         <v>-177300</v>
@@ -3888,7 +3888,7 @@
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-348700</v>
+        <v>-361800</v>
       </c>
       <c r="E102" s="3">
-        <v>167800</v>
+        <v>174200</v>
       </c>
       <c r="F102" s="3">
-        <v>-541700</v>
+        <v>-562100</v>
       </c>
       <c r="G102" s="3">
-        <v>714900</v>
+        <v>741800</v>
       </c>
       <c r="H102" s="3">
-        <v>-63200</v>
+        <v>-65600</v>
       </c>
       <c r="I102" s="3">
-        <v>352000</v>
+        <v>365300</v>
       </c>
       <c r="J102" s="3">
-        <v>138500</v>
+        <v>143700</v>
       </c>
       <c r="K102" s="3">
         <v>484100</v>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6089600</v>
+        <v>4552300</v>
       </c>
       <c r="E8" s="3">
-        <v>6698700</v>
+        <v>6378500</v>
       </c>
       <c r="F8" s="3">
-        <v>7198500</v>
+        <v>7016600</v>
       </c>
       <c r="G8" s="3">
-        <v>6687400</v>
+        <v>7540000</v>
       </c>
       <c r="H8" s="3">
-        <v>6120300</v>
+        <v>7004700</v>
       </c>
       <c r="I8" s="3">
-        <v>5384600</v>
+        <v>6410700</v>
       </c>
       <c r="J8" s="3">
+        <v>5640000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5105400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4416600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4745100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5203900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6694800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5989700</v>
+        <v>4951400</v>
       </c>
       <c r="E9" s="3">
-        <v>6568100</v>
+        <v>6273800</v>
       </c>
       <c r="F9" s="3">
-        <v>6931400</v>
+        <v>6879700</v>
       </c>
       <c r="G9" s="3">
-        <v>6115900</v>
+        <v>7260200</v>
       </c>
       <c r="H9" s="3">
-        <v>5538000</v>
+        <v>6406100</v>
       </c>
       <c r="I9" s="3">
-        <v>4976400</v>
+        <v>5800700</v>
       </c>
       <c r="J9" s="3">
+        <v>5212500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4635300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3847400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4462600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4851200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6789600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>99900</v>
+        <v>-399100</v>
       </c>
       <c r="E10" s="3">
-        <v>130700</v>
+        <v>104700</v>
       </c>
       <c r="F10" s="3">
-        <v>267100</v>
+        <v>136900</v>
       </c>
       <c r="G10" s="3">
-        <v>571500</v>
+        <v>279800</v>
       </c>
       <c r="H10" s="3">
-        <v>582400</v>
+        <v>598600</v>
       </c>
       <c r="I10" s="3">
-        <v>408100</v>
+        <v>610000</v>
       </c>
       <c r="J10" s="3">
+        <v>427500</v>
+      </c>
+      <c r="K10" s="3">
         <v>470100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>569300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>282500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>352800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-94800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,28 +949,31 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>-1600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -970,8 +990,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -993,8 +1016,8 @@
       <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5992900</v>
+        <v>4969000</v>
       </c>
       <c r="E17" s="3">
-        <v>6603700</v>
+        <v>6277200</v>
       </c>
       <c r="F17" s="3">
-        <v>6922700</v>
+        <v>6917000</v>
       </c>
       <c r="G17" s="3">
-        <v>6152200</v>
+        <v>7251100</v>
       </c>
       <c r="H17" s="3">
-        <v>5570100</v>
+        <v>6444000</v>
       </c>
       <c r="I17" s="3">
-        <v>5005000</v>
+        <v>5834300</v>
       </c>
       <c r="J17" s="3">
+        <v>5242500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4660400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3883900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4473700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4895200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6807400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96700</v>
+        <v>-416700</v>
       </c>
       <c r="E18" s="3">
-        <v>95100</v>
+        <v>101300</v>
       </c>
       <c r="F18" s="3">
-        <v>275900</v>
+        <v>99600</v>
       </c>
       <c r="G18" s="3">
-        <v>535300</v>
+        <v>288900</v>
       </c>
       <c r="H18" s="3">
-        <v>550200</v>
+        <v>560700</v>
       </c>
       <c r="I18" s="3">
-        <v>379500</v>
+        <v>576300</v>
       </c>
       <c r="J18" s="3">
+        <v>397500</v>
+      </c>
+      <c r="K18" s="3">
         <v>445100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>532800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>271400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>308700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-112700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>95500</v>
+        <v>69600</v>
       </c>
       <c r="E20" s="3">
-        <v>106300</v>
+        <v>100000</v>
       </c>
       <c r="F20" s="3">
-        <v>63700</v>
+        <v>111300</v>
       </c>
       <c r="G20" s="3">
-        <v>129300</v>
+        <v>66700</v>
       </c>
       <c r="H20" s="3">
-        <v>120200</v>
+        <v>135500</v>
       </c>
       <c r="I20" s="3">
-        <v>99400</v>
+        <v>125900</v>
       </c>
       <c r="J20" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K20" s="3">
         <v>91600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>60700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>50500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>222600</v>
+        <v>-229100</v>
       </c>
       <c r="E21" s="3">
-        <v>312300</v>
+        <v>233200</v>
       </c>
       <c r="F21" s="3">
-        <v>338100</v>
+        <v>327100</v>
       </c>
       <c r="G21" s="3">
-        <v>779400</v>
+        <v>354200</v>
       </c>
       <c r="H21" s="3">
-        <v>667400</v>
+        <v>816400</v>
       </c>
       <c r="I21" s="3">
-        <v>596000</v>
+        <v>699100</v>
       </c>
       <c r="J21" s="3">
+        <v>624300</v>
+      </c>
+      <c r="K21" s="3">
         <v>534400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>712400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>289400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>492100</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="3">
         <v>10500</v>
       </c>
-      <c r="G22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187400</v>
+        <v>-351300</v>
       </c>
       <c r="E23" s="3">
-        <v>198300</v>
+        <v>196300</v>
       </c>
       <c r="F23" s="3">
-        <v>329100</v>
+        <v>207700</v>
       </c>
       <c r="G23" s="3">
-        <v>659700</v>
+        <v>344700</v>
       </c>
       <c r="H23" s="3">
-        <v>665000</v>
+        <v>691000</v>
       </c>
       <c r="I23" s="3">
-        <v>475500</v>
+        <v>696500</v>
       </c>
       <c r="J23" s="3">
+        <v>498100</v>
+      </c>
+      <c r="K23" s="3">
         <v>533900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>588500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>290500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>338400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-110900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31000</v>
+        <v>-98300</v>
       </c>
       <c r="E24" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="F24" s="3">
-        <v>70900</v>
+        <v>32800</v>
       </c>
       <c r="G24" s="3">
-        <v>142900</v>
+        <v>74300</v>
       </c>
       <c r="H24" s="3">
-        <v>149200</v>
+        <v>149600</v>
       </c>
       <c r="I24" s="3">
-        <v>97500</v>
+        <v>156300</v>
       </c>
       <c r="J24" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K24" s="3">
         <v>123200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>136100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>73000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>156400</v>
+        <v>-253000</v>
       </c>
       <c r="E26" s="3">
-        <v>167000</v>
+        <v>163900</v>
       </c>
       <c r="F26" s="3">
-        <v>258200</v>
+        <v>174900</v>
       </c>
       <c r="G26" s="3">
-        <v>516800</v>
+        <v>270400</v>
       </c>
       <c r="H26" s="3">
-        <v>515700</v>
+        <v>541300</v>
       </c>
       <c r="I26" s="3">
-        <v>378100</v>
+        <v>540200</v>
       </c>
       <c r="J26" s="3">
+        <v>396000</v>
+      </c>
+      <c r="K26" s="3">
         <v>410700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>452500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>225900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>265400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>155700</v>
+        <v>-254200</v>
       </c>
       <c r="E27" s="3">
-        <v>166100</v>
+        <v>163100</v>
       </c>
       <c r="F27" s="3">
-        <v>259200</v>
+        <v>174000</v>
       </c>
       <c r="G27" s="3">
-        <v>515700</v>
+        <v>271500</v>
       </c>
       <c r="H27" s="3">
-        <v>514800</v>
+        <v>540200</v>
       </c>
       <c r="I27" s="3">
-        <v>377400</v>
+        <v>539200</v>
       </c>
       <c r="J27" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K27" s="3">
         <v>409500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>451800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>223100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>262800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-95500</v>
+        <v>-69600</v>
       </c>
       <c r="E32" s="3">
-        <v>-106300</v>
+        <v>-100000</v>
       </c>
       <c r="F32" s="3">
-        <v>-63700</v>
+        <v>-111300</v>
       </c>
       <c r="G32" s="3">
-        <v>-129300</v>
+        <v>-66700</v>
       </c>
       <c r="H32" s="3">
-        <v>-120200</v>
+        <v>-135500</v>
       </c>
       <c r="I32" s="3">
-        <v>-99400</v>
+        <v>-125900</v>
       </c>
       <c r="J32" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-91600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-60700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-50500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>155700</v>
+        <v>-254200</v>
       </c>
       <c r="E33" s="3">
-        <v>166100</v>
+        <v>163100</v>
       </c>
       <c r="F33" s="3">
-        <v>259200</v>
+        <v>174000</v>
       </c>
       <c r="G33" s="3">
-        <v>515700</v>
+        <v>271500</v>
       </c>
       <c r="H33" s="3">
-        <v>514800</v>
+        <v>540200</v>
       </c>
       <c r="I33" s="3">
-        <v>377400</v>
+        <v>539200</v>
       </c>
       <c r="J33" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K33" s="3">
         <v>409500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>451800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>223100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>262800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>155700</v>
+        <v>-254200</v>
       </c>
       <c r="E35" s="3">
-        <v>166100</v>
+        <v>163100</v>
       </c>
       <c r="F35" s="3">
-        <v>259200</v>
+        <v>174000</v>
       </c>
       <c r="G35" s="3">
-        <v>515700</v>
+        <v>271500</v>
       </c>
       <c r="H35" s="3">
-        <v>514800</v>
+        <v>540200</v>
       </c>
       <c r="I35" s="3">
-        <v>377400</v>
+        <v>539200</v>
       </c>
       <c r="J35" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K35" s="3">
         <v>409500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>451800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>223100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>262800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,186 +1882,199 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1072200</v>
+        <v>429900</v>
       </c>
       <c r="E41" s="3">
-        <v>1441300</v>
+        <v>1123100</v>
       </c>
       <c r="F41" s="3">
-        <v>1266400</v>
+        <v>1509700</v>
       </c>
       <c r="G41" s="3">
-        <v>1829900</v>
+        <v>1326500</v>
       </c>
       <c r="H41" s="3">
-        <v>1085600</v>
+        <v>1916700</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>1137100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>765600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>635600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>934600</v>
+        <v>1099100</v>
       </c>
       <c r="E42" s="3">
-        <v>749700</v>
+        <v>979000</v>
       </c>
       <c r="F42" s="3">
-        <v>860000</v>
+        <v>785300</v>
       </c>
       <c r="G42" s="3">
-        <v>293400</v>
+        <v>900800</v>
       </c>
       <c r="H42" s="3">
-        <v>294700</v>
+        <v>307300</v>
       </c>
       <c r="I42" s="3">
-        <v>1155400</v>
+        <v>308700</v>
       </c>
       <c r="J42" s="3">
+        <v>1210300</v>
+      </c>
+      <c r="K42" s="3">
         <v>24600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1200</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>248800</v>
+        <v>303800</v>
       </c>
       <c r="E43" s="3">
-        <v>382200</v>
+        <v>260600</v>
       </c>
       <c r="F43" s="3">
-        <v>359300</v>
+        <v>400300</v>
       </c>
       <c r="G43" s="3">
-        <v>586500</v>
+        <v>376400</v>
       </c>
       <c r="H43" s="3">
-        <v>513500</v>
+        <v>614300</v>
       </c>
       <c r="I43" s="3">
-        <v>457500</v>
+        <v>537900</v>
       </c>
       <c r="J43" s="3">
+        <v>479200</v>
+      </c>
+      <c r="K43" s="3">
         <v>451700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>523700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>428700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>557600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>980900</v>
+        <v>666400</v>
       </c>
       <c r="E44" s="3">
-        <v>996100</v>
+        <v>1027500</v>
       </c>
       <c r="F44" s="3">
-        <v>1179400</v>
+        <v>1043300</v>
       </c>
       <c r="G44" s="3">
-        <v>1051000</v>
+        <v>1235300</v>
       </c>
       <c r="H44" s="3">
-        <v>958200</v>
+        <v>1100900</v>
       </c>
       <c r="I44" s="3">
-        <v>1019100</v>
+        <v>1003600</v>
       </c>
       <c r="J44" s="3">
+        <v>1067400</v>
+      </c>
+      <c r="K44" s="3">
         <v>894500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>664600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>620100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>858600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>6900</v>
       </c>
       <c r="E45" s="3">
-        <v>12800</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>9100</v>
+        <v>13400</v>
       </c>
       <c r="G45" s="3">
-        <v>32100</v>
+        <v>9500</v>
       </c>
       <c r="H45" s="3">
-        <v>33200</v>
+        <v>33600</v>
       </c>
       <c r="I45" s="3">
-        <v>20200</v>
+        <v>34700</v>
       </c>
       <c r="J45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K45" s="3">
         <v>24100</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -1986,160 +2085,175 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3240000</v>
+        <v>2506200</v>
       </c>
       <c r="E46" s="3">
-        <v>3582100</v>
+        <v>3393700</v>
       </c>
       <c r="F46" s="3">
-        <v>3674200</v>
+        <v>3752100</v>
       </c>
       <c r="G46" s="3">
-        <v>3792800</v>
+        <v>3848500</v>
       </c>
       <c r="H46" s="3">
-        <v>2885100</v>
+        <v>3972800</v>
       </c>
       <c r="I46" s="3">
-        <v>2652200</v>
+        <v>3022000</v>
       </c>
       <c r="J46" s="3">
+        <v>2778000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2160400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1827000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1208600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1460900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1383100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1267100</v>
+        <v>1590400</v>
       </c>
       <c r="E47" s="3">
-        <v>726500</v>
+        <v>1327200</v>
       </c>
       <c r="F47" s="3">
-        <v>657500</v>
+        <v>761000</v>
       </c>
       <c r="G47" s="3">
-        <v>738700</v>
+        <v>688700</v>
       </c>
       <c r="H47" s="3">
-        <v>646600</v>
+        <v>773700</v>
       </c>
       <c r="I47" s="3">
-        <v>551000</v>
+        <v>677200</v>
       </c>
       <c r="J47" s="3">
+        <v>577100</v>
+      </c>
+      <c r="K47" s="3">
         <v>535700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>497100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>491400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>482900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2008200</v>
+        <v>2121500</v>
       </c>
       <c r="E48" s="3">
-        <v>1974400</v>
+        <v>2103500</v>
       </c>
       <c r="F48" s="3">
-        <v>1972600</v>
+        <v>2068100</v>
       </c>
       <c r="G48" s="3">
-        <v>1977000</v>
+        <v>2066200</v>
       </c>
       <c r="H48" s="3">
         <v>2070800</v>
       </c>
       <c r="I48" s="3">
-        <v>2053700</v>
+        <v>2169100</v>
       </c>
       <c r="J48" s="3">
+        <v>2151200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2116300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2112000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2302000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2329700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>69900</v>
+        <v>72700</v>
       </c>
       <c r="E49" s="3">
-        <v>66200</v>
+        <v>73200</v>
       </c>
       <c r="F49" s="3">
-        <v>124600</v>
+        <v>69300</v>
       </c>
       <c r="G49" s="3">
-        <v>101800</v>
+        <v>130600</v>
       </c>
       <c r="H49" s="3">
-        <v>108500</v>
+        <v>106700</v>
       </c>
       <c r="I49" s="3">
-        <v>120800</v>
+        <v>113700</v>
       </c>
       <c r="J49" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K49" s="3">
         <v>102500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>105500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>116200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>131600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21900</v>
+        <v>124300</v>
       </c>
       <c r="E52" s="3">
-        <v>17500</v>
+        <v>22900</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>18400</v>
       </c>
       <c r="G52" s="3">
-        <v>15400</v>
+        <v>18100</v>
       </c>
       <c r="H52" s="3">
-        <v>17300</v>
+        <v>16100</v>
       </c>
       <c r="I52" s="3">
-        <v>14600</v>
+        <v>18100</v>
       </c>
       <c r="J52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K52" s="3">
         <v>15000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6607100</v>
+        <v>6415100</v>
       </c>
       <c r="E54" s="3">
-        <v>6366700</v>
+        <v>6920600</v>
       </c>
       <c r="F54" s="3">
-        <v>6446200</v>
+        <v>6668800</v>
       </c>
       <c r="G54" s="3">
-        <v>6625800</v>
+        <v>6752000</v>
       </c>
       <c r="H54" s="3">
-        <v>5728400</v>
+        <v>6940100</v>
       </c>
       <c r="I54" s="3">
-        <v>5392300</v>
+        <v>6000100</v>
       </c>
       <c r="J54" s="3">
+        <v>5648200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4929900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4554200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4128900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4470200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4494600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,171 +2490,184 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>409000</v>
+        <v>389400</v>
       </c>
       <c r="E57" s="3">
-        <v>503700</v>
+        <v>428400</v>
       </c>
       <c r="F57" s="3">
-        <v>424500</v>
+        <v>527600</v>
       </c>
       <c r="G57" s="3">
-        <v>422500</v>
+        <v>444600</v>
       </c>
       <c r="H57" s="3">
-        <v>277200</v>
+        <v>442600</v>
       </c>
       <c r="I57" s="3">
-        <v>330600</v>
+        <v>290300</v>
       </c>
       <c r="J57" s="3">
+        <v>346300</v>
+      </c>
+      <c r="K57" s="3">
         <v>308500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>290500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>231900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>269700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>510700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>226400</v>
+        <v>462700</v>
       </c>
       <c r="E58" s="3">
-        <v>159800</v>
+        <v>237200</v>
       </c>
       <c r="F58" s="3">
-        <v>72200</v>
+        <v>167400</v>
       </c>
       <c r="G58" s="3">
-        <v>202700</v>
+        <v>75600</v>
       </c>
       <c r="H58" s="3">
-        <v>88000</v>
+        <v>212300</v>
       </c>
       <c r="I58" s="3">
-        <v>89100</v>
+        <v>92200</v>
       </c>
       <c r="J58" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K58" s="3">
         <v>79400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>123300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>307200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>625900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>593100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1612700</v>
+        <v>1444100</v>
       </c>
       <c r="E59" s="3">
-        <v>1501100</v>
+        <v>1689200</v>
       </c>
       <c r="F59" s="3">
-        <v>1523900</v>
+        <v>1572300</v>
       </c>
       <c r="G59" s="3">
-        <v>1807900</v>
+        <v>1596200</v>
       </c>
       <c r="H59" s="3">
-        <v>1221000</v>
+        <v>1893700</v>
       </c>
       <c r="I59" s="3">
-        <v>1354900</v>
+        <v>1279000</v>
       </c>
       <c r="J59" s="3">
+        <v>1419200</v>
+      </c>
+      <c r="K59" s="3">
         <v>910900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>961700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>607600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>814900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2248100</v>
+        <v>2296200</v>
       </c>
       <c r="E60" s="3">
-        <v>2164600</v>
+        <v>2354800</v>
       </c>
       <c r="F60" s="3">
-        <v>2020600</v>
+        <v>2267300</v>
       </c>
       <c r="G60" s="3">
-        <v>2433100</v>
+        <v>2116400</v>
       </c>
       <c r="H60" s="3">
-        <v>1586200</v>
+        <v>2548500</v>
       </c>
       <c r="I60" s="3">
-        <v>1774600</v>
+        <v>1661500</v>
       </c>
       <c r="J60" s="3">
+        <v>1858800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1298700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1375500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1146700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1710500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1815700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2545,33 +2688,36 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>2600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>237400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>7200</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
       </c>
       <c r="F62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="H62" s="3">
-        <v>800</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>2000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2582,14 +2728,17 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>2400</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2270100</v>
+        <v>2325500</v>
       </c>
       <c r="E66" s="3">
-        <v>2187000</v>
+        <v>2377800</v>
       </c>
       <c r="F66" s="3">
-        <v>2039000</v>
+        <v>2290800</v>
       </c>
       <c r="G66" s="3">
-        <v>2476700</v>
+        <v>2135700</v>
       </c>
       <c r="H66" s="3">
-        <v>1628500</v>
+        <v>2594200</v>
       </c>
       <c r="I66" s="3">
-        <v>1815600</v>
+        <v>1705800</v>
       </c>
       <c r="J66" s="3">
+        <v>1901700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1339500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1415200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1190700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1756800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2095000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2749600</v>
+        <v>2428200</v>
       </c>
       <c r="E72" s="3">
-        <v>2592300</v>
+        <v>2880000</v>
       </c>
       <c r="F72" s="3">
-        <v>2819700</v>
+        <v>2715200</v>
       </c>
       <c r="G72" s="3">
-        <v>2561600</v>
+        <v>2953500</v>
       </c>
       <c r="H72" s="3">
-        <v>2520300</v>
+        <v>2683100</v>
       </c>
       <c r="I72" s="3">
-        <v>2008200</v>
+        <v>2639900</v>
       </c>
       <c r="J72" s="3">
+        <v>2103500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2021900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1589400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1335300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1110600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4337000</v>
+        <v>4089600</v>
       </c>
       <c r="E76" s="3">
-        <v>4179700</v>
+        <v>4542800</v>
       </c>
       <c r="F76" s="3">
-        <v>4407200</v>
+        <v>4378000</v>
       </c>
       <c r="G76" s="3">
-        <v>4149000</v>
+        <v>4616200</v>
       </c>
       <c r="H76" s="3">
-        <v>4099900</v>
+        <v>4345900</v>
       </c>
       <c r="I76" s="3">
-        <v>3576700</v>
+        <v>4294400</v>
       </c>
       <c r="J76" s="3">
+        <v>3746400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3590400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3138900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2938100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2713400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>155700</v>
+        <v>-254200</v>
       </c>
       <c r="E81" s="3">
-        <v>166100</v>
+        <v>163100</v>
       </c>
       <c r="F81" s="3">
-        <v>259200</v>
+        <v>174000</v>
       </c>
       <c r="G81" s="3">
-        <v>515700</v>
+        <v>271500</v>
       </c>
       <c r="H81" s="3">
-        <v>514800</v>
+        <v>540200</v>
       </c>
       <c r="I81" s="3">
-        <v>377400</v>
+        <v>539200</v>
       </c>
       <c r="J81" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K81" s="3">
         <v>409500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>451800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>223100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>262800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>702500</v>
+        <v>-447100</v>
       </c>
       <c r="E89" s="3">
-        <v>32000</v>
+        <v>735900</v>
       </c>
       <c r="F89" s="3">
-        <v>355200</v>
+        <v>33500</v>
       </c>
       <c r="G89" s="3">
-        <v>611900</v>
+        <v>372100</v>
       </c>
       <c r="H89" s="3">
-        <v>684100</v>
+        <v>641000</v>
       </c>
       <c r="I89" s="3">
-        <v>341300</v>
+        <v>716600</v>
       </c>
       <c r="J89" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K89" s="3">
         <v>373000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>661900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>468400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>263700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>70000</v>
+        <v>-105900</v>
       </c>
       <c r="E91" s="3">
-        <v>-82100</v>
+        <v>73300</v>
       </c>
       <c r="F91" s="3">
-        <v>30200</v>
+        <v>-86000</v>
       </c>
       <c r="G91" s="3">
-        <v>-51000</v>
+        <v>31600</v>
       </c>
       <c r="H91" s="3">
-        <v>39600</v>
+        <v>-53400</v>
       </c>
       <c r="I91" s="3">
-        <v>-64600</v>
+        <v>41500</v>
       </c>
       <c r="J91" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>35400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46500</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-731100</v>
+        <v>-474700</v>
       </c>
       <c r="E94" s="3">
-        <v>59700</v>
+        <v>-765800</v>
       </c>
       <c r="F94" s="3">
-        <v>-287100</v>
+        <v>62500</v>
       </c>
       <c r="G94" s="3">
-        <v>7000</v>
+        <v>-300700</v>
       </c>
       <c r="H94" s="3">
-        <v>-364800</v>
+        <v>7300</v>
       </c>
       <c r="I94" s="3">
-        <v>16100</v>
+        <v>-382100</v>
       </c>
       <c r="J94" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,13 +3916,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3707,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-157500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-333800</v>
+        <v>223500</v>
       </c>
       <c r="E100" s="3">
-        <v>81500</v>
+        <v>-349600</v>
       </c>
       <c r="F100" s="3">
-        <v>-628700</v>
+        <v>85400</v>
       </c>
       <c r="G100" s="3">
-        <v>119300</v>
+        <v>-658500</v>
       </c>
       <c r="H100" s="3">
-        <v>-385300</v>
+        <v>125000</v>
       </c>
       <c r="I100" s="3">
-        <v>9200</v>
+        <v>-403600</v>
       </c>
       <c r="J100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-203500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-177300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-326500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-222000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-339200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>900</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-361800</v>
+        <v>-697400</v>
       </c>
       <c r="E102" s="3">
-        <v>174200</v>
+        <v>-379000</v>
       </c>
       <c r="F102" s="3">
-        <v>-562100</v>
+        <v>182400</v>
       </c>
       <c r="G102" s="3">
-        <v>741800</v>
+        <v>-588700</v>
       </c>
       <c r="H102" s="3">
-        <v>-65600</v>
+        <v>777000</v>
       </c>
       <c r="I102" s="3">
-        <v>365300</v>
+        <v>-68700</v>
       </c>
       <c r="J102" s="3">
+        <v>382600</v>
+      </c>
+      <c r="K102" s="3">
         <v>143700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>484100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4552300</v>
+        <v>4572100</v>
       </c>
       <c r="E8" s="3">
-        <v>6378500</v>
+        <v>6406200</v>
       </c>
       <c r="F8" s="3">
-        <v>7016600</v>
+        <v>7047000</v>
       </c>
       <c r="G8" s="3">
-        <v>7540000</v>
+        <v>7572800</v>
       </c>
       <c r="H8" s="3">
-        <v>7004700</v>
+        <v>7035100</v>
       </c>
       <c r="I8" s="3">
-        <v>6410700</v>
+        <v>6438500</v>
       </c>
       <c r="J8" s="3">
-        <v>5640000</v>
+        <v>5664500</v>
       </c>
       <c r="K8" s="3">
         <v>5105400</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4951400</v>
+        <v>4972900</v>
       </c>
       <c r="E9" s="3">
-        <v>6273800</v>
+        <v>6301100</v>
       </c>
       <c r="F9" s="3">
-        <v>6879700</v>
+        <v>6909500</v>
       </c>
       <c r="G9" s="3">
-        <v>7260200</v>
+        <v>7291700</v>
       </c>
       <c r="H9" s="3">
-        <v>6406100</v>
+        <v>6433900</v>
       </c>
       <c r="I9" s="3">
-        <v>5800700</v>
+        <v>5825900</v>
       </c>
       <c r="J9" s="3">
-        <v>5212500</v>
+        <v>5235200</v>
       </c>
       <c r="K9" s="3">
         <v>4635300</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-399100</v>
+        <v>-400800</v>
       </c>
       <c r="E10" s="3">
-        <v>104700</v>
+        <v>105100</v>
       </c>
       <c r="F10" s="3">
-        <v>136900</v>
+        <v>137500</v>
       </c>
       <c r="G10" s="3">
-        <v>279800</v>
+        <v>281000</v>
       </c>
       <c r="H10" s="3">
-        <v>598600</v>
+        <v>601200</v>
       </c>
       <c r="I10" s="3">
-        <v>610000</v>
+        <v>612600</v>
       </c>
       <c r="J10" s="3">
-        <v>427500</v>
+        <v>429300</v>
       </c>
       <c r="K10" s="3">
         <v>470100</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4969000</v>
+        <v>4990500</v>
       </c>
       <c r="E17" s="3">
-        <v>6277200</v>
+        <v>6304400</v>
       </c>
       <c r="F17" s="3">
-        <v>6917000</v>
+        <v>6947000</v>
       </c>
       <c r="G17" s="3">
-        <v>7251100</v>
+        <v>7282600</v>
       </c>
       <c r="H17" s="3">
-        <v>6444000</v>
+        <v>6472000</v>
       </c>
       <c r="I17" s="3">
-        <v>5834300</v>
+        <v>5859700</v>
       </c>
       <c r="J17" s="3">
-        <v>5242500</v>
+        <v>5265200</v>
       </c>
       <c r="K17" s="3">
         <v>4660400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-416700</v>
+        <v>-418500</v>
       </c>
       <c r="E18" s="3">
-        <v>101300</v>
+        <v>101800</v>
       </c>
       <c r="F18" s="3">
-        <v>99600</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="3">
-        <v>288900</v>
+        <v>290200</v>
       </c>
       <c r="H18" s="3">
-        <v>560700</v>
+        <v>563100</v>
       </c>
       <c r="I18" s="3">
-        <v>576300</v>
+        <v>578800</v>
       </c>
       <c r="J18" s="3">
-        <v>397500</v>
+        <v>399300</v>
       </c>
       <c r="K18" s="3">
         <v>445100</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="E20" s="3">
-        <v>100000</v>
+        <v>100500</v>
       </c>
       <c r="F20" s="3">
-        <v>111300</v>
+        <v>111800</v>
       </c>
       <c r="G20" s="3">
-        <v>66700</v>
+        <v>67000</v>
       </c>
       <c r="H20" s="3">
-        <v>135500</v>
+        <v>136000</v>
       </c>
       <c r="I20" s="3">
-        <v>125900</v>
+        <v>126500</v>
       </c>
       <c r="J20" s="3">
-        <v>104100</v>
+        <v>104500</v>
       </c>
       <c r="K20" s="3">
         <v>91600</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-229100</v>
+        <v>-230100</v>
       </c>
       <c r="E21" s="3">
-        <v>233200</v>
+        <v>234200</v>
       </c>
       <c r="F21" s="3">
-        <v>327100</v>
+        <v>328500</v>
       </c>
       <c r="G21" s="3">
-        <v>354200</v>
+        <v>355700</v>
       </c>
       <c r="H21" s="3">
-        <v>816400</v>
+        <v>819900</v>
       </c>
       <c r="I21" s="3">
-        <v>699100</v>
+        <v>702100</v>
       </c>
       <c r="J21" s="3">
-        <v>624300</v>
+        <v>627000</v>
       </c>
       <c r="K21" s="3">
         <v>534400</v>
@@ -1238,22 +1238,22 @@
         <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G22" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="H22" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I22" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K22" s="3">
         <v>2800</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-351300</v>
+        <v>-352800</v>
       </c>
       <c r="E23" s="3">
-        <v>196300</v>
+        <v>197200</v>
       </c>
       <c r="F23" s="3">
-        <v>207700</v>
+        <v>208600</v>
       </c>
       <c r="G23" s="3">
-        <v>344700</v>
+        <v>346200</v>
       </c>
       <c r="H23" s="3">
-        <v>691000</v>
+        <v>694000</v>
       </c>
       <c r="I23" s="3">
-        <v>696500</v>
+        <v>699500</v>
       </c>
       <c r="J23" s="3">
-        <v>498100</v>
+        <v>500200</v>
       </c>
       <c r="K23" s="3">
         <v>533900</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-98300</v>
+        <v>-98700</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="F24" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="G24" s="3">
-        <v>74300</v>
+        <v>74600</v>
       </c>
       <c r="H24" s="3">
-        <v>149600</v>
+        <v>150300</v>
       </c>
       <c r="I24" s="3">
-        <v>156300</v>
+        <v>157000</v>
       </c>
       <c r="J24" s="3">
-        <v>102100</v>
+        <v>102500</v>
       </c>
       <c r="K24" s="3">
         <v>123200</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-253000</v>
+        <v>-254100</v>
       </c>
       <c r="E26" s="3">
-        <v>163900</v>
+        <v>164600</v>
       </c>
       <c r="F26" s="3">
-        <v>174900</v>
+        <v>175700</v>
       </c>
       <c r="G26" s="3">
-        <v>270400</v>
+        <v>271600</v>
       </c>
       <c r="H26" s="3">
-        <v>541300</v>
+        <v>543700</v>
       </c>
       <c r="I26" s="3">
-        <v>540200</v>
+        <v>542500</v>
       </c>
       <c r="J26" s="3">
-        <v>396000</v>
+        <v>397700</v>
       </c>
       <c r="K26" s="3">
         <v>410700</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-254200</v>
+        <v>-255300</v>
       </c>
       <c r="E27" s="3">
-        <v>163100</v>
+        <v>163800</v>
       </c>
       <c r="F27" s="3">
-        <v>174000</v>
+        <v>174700</v>
       </c>
       <c r="G27" s="3">
-        <v>271500</v>
+        <v>272700</v>
       </c>
       <c r="H27" s="3">
-        <v>540200</v>
+        <v>542600</v>
       </c>
       <c r="I27" s="3">
-        <v>539200</v>
+        <v>541600</v>
       </c>
       <c r="J27" s="3">
-        <v>395300</v>
+        <v>397000</v>
       </c>
       <c r="K27" s="3">
         <v>409500</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69600</v>
+        <v>-69900</v>
       </c>
       <c r="E32" s="3">
-        <v>-100000</v>
+        <v>-100500</v>
       </c>
       <c r="F32" s="3">
-        <v>-111300</v>
+        <v>-111800</v>
       </c>
       <c r="G32" s="3">
-        <v>-66700</v>
+        <v>-67000</v>
       </c>
       <c r="H32" s="3">
-        <v>-135500</v>
+        <v>-136000</v>
       </c>
       <c r="I32" s="3">
-        <v>-125900</v>
+        <v>-126500</v>
       </c>
       <c r="J32" s="3">
-        <v>-104100</v>
+        <v>-104500</v>
       </c>
       <c r="K32" s="3">
         <v>-91600</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-254200</v>
+        <v>-255300</v>
       </c>
       <c r="E33" s="3">
-        <v>163100</v>
+        <v>163800</v>
       </c>
       <c r="F33" s="3">
-        <v>174000</v>
+        <v>174700</v>
       </c>
       <c r="G33" s="3">
-        <v>271500</v>
+        <v>272700</v>
       </c>
       <c r="H33" s="3">
-        <v>540200</v>
+        <v>542600</v>
       </c>
       <c r="I33" s="3">
-        <v>539200</v>
+        <v>541600</v>
       </c>
       <c r="J33" s="3">
-        <v>395300</v>
+        <v>397000</v>
       </c>
       <c r="K33" s="3">
         <v>409500</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-254200</v>
+        <v>-255300</v>
       </c>
       <c r="E35" s="3">
-        <v>163100</v>
+        <v>163800</v>
       </c>
       <c r="F35" s="3">
-        <v>174000</v>
+        <v>174700</v>
       </c>
       <c r="G35" s="3">
-        <v>271500</v>
+        <v>272700</v>
       </c>
       <c r="H35" s="3">
-        <v>540200</v>
+        <v>542600</v>
       </c>
       <c r="I35" s="3">
-        <v>539200</v>
+        <v>541600</v>
       </c>
       <c r="J35" s="3">
-        <v>395300</v>
+        <v>397000</v>
       </c>
       <c r="K35" s="3">
         <v>409500</v>
@@ -1889,22 +1889,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>429900</v>
+        <v>431800</v>
       </c>
       <c r="E41" s="3">
-        <v>1123100</v>
+        <v>1127900</v>
       </c>
       <c r="F41" s="3">
-        <v>1509700</v>
+        <v>1516200</v>
       </c>
       <c r="G41" s="3">
-        <v>1326500</v>
+        <v>1332200</v>
       </c>
       <c r="H41" s="3">
-        <v>1916700</v>
+        <v>1925000</v>
       </c>
       <c r="I41" s="3">
-        <v>1137100</v>
+        <v>1142100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1930,25 +1930,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1099100</v>
+        <v>1103800</v>
       </c>
       <c r="E42" s="3">
-        <v>979000</v>
+        <v>983200</v>
       </c>
       <c r="F42" s="3">
-        <v>785300</v>
+        <v>788700</v>
       </c>
       <c r="G42" s="3">
-        <v>900800</v>
+        <v>904700</v>
       </c>
       <c r="H42" s="3">
-        <v>307300</v>
+        <v>308600</v>
       </c>
       <c r="I42" s="3">
-        <v>308700</v>
+        <v>310000</v>
       </c>
       <c r="J42" s="3">
-        <v>1210300</v>
+        <v>1215500</v>
       </c>
       <c r="K42" s="3">
         <v>24600</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>303800</v>
+        <v>305200</v>
       </c>
       <c r="E43" s="3">
-        <v>260600</v>
+        <v>261700</v>
       </c>
       <c r="F43" s="3">
-        <v>400300</v>
+        <v>402100</v>
       </c>
       <c r="G43" s="3">
-        <v>376400</v>
+        <v>378000</v>
       </c>
       <c r="H43" s="3">
-        <v>614300</v>
+        <v>617000</v>
       </c>
       <c r="I43" s="3">
-        <v>537900</v>
+        <v>540200</v>
       </c>
       <c r="J43" s="3">
-        <v>479200</v>
+        <v>481300</v>
       </c>
       <c r="K43" s="3">
         <v>451700</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>666400</v>
+        <v>669300</v>
       </c>
       <c r="E44" s="3">
-        <v>1027500</v>
+        <v>1031900</v>
       </c>
       <c r="F44" s="3">
-        <v>1043300</v>
+        <v>1047900</v>
       </c>
       <c r="G44" s="3">
-        <v>1235300</v>
+        <v>1240700</v>
       </c>
       <c r="H44" s="3">
-        <v>1100900</v>
+        <v>1105700</v>
       </c>
       <c r="I44" s="3">
-        <v>1003600</v>
+        <v>1008000</v>
       </c>
       <c r="J44" s="3">
-        <v>1067400</v>
+        <v>1072000</v>
       </c>
       <c r="K44" s="3">
         <v>894500</v>
@@ -2059,19 +2059,19 @@
         <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G45" s="3">
         <v>9500</v>
       </c>
       <c r="H45" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="I45" s="3">
-        <v>34700</v>
+        <v>34900</v>
       </c>
       <c r="J45" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="K45" s="3">
         <v>24100</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2506200</v>
+        <v>2517100</v>
       </c>
       <c r="E46" s="3">
-        <v>3393700</v>
+        <v>3408400</v>
       </c>
       <c r="F46" s="3">
-        <v>3752100</v>
+        <v>3768300</v>
       </c>
       <c r="G46" s="3">
-        <v>3848500</v>
+        <v>3865200</v>
       </c>
       <c r="H46" s="3">
-        <v>3972800</v>
+        <v>3990000</v>
       </c>
       <c r="I46" s="3">
-        <v>3022000</v>
+        <v>3035100</v>
       </c>
       <c r="J46" s="3">
-        <v>2778000</v>
+        <v>2790100</v>
       </c>
       <c r="K46" s="3">
         <v>2160400</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1590400</v>
+        <v>1597300</v>
       </c>
       <c r="E47" s="3">
-        <v>1327200</v>
+        <v>1333000</v>
       </c>
       <c r="F47" s="3">
-        <v>761000</v>
+        <v>764300</v>
       </c>
       <c r="G47" s="3">
-        <v>688700</v>
+        <v>691700</v>
       </c>
       <c r="H47" s="3">
-        <v>773700</v>
+        <v>777100</v>
       </c>
       <c r="I47" s="3">
-        <v>677200</v>
+        <v>680200</v>
       </c>
       <c r="J47" s="3">
-        <v>577100</v>
+        <v>579600</v>
       </c>
       <c r="K47" s="3">
         <v>535700</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2121500</v>
+        <v>2130700</v>
       </c>
       <c r="E48" s="3">
-        <v>2103500</v>
+        <v>2112600</v>
       </c>
       <c r="F48" s="3">
-        <v>2068100</v>
+        <v>2077000</v>
       </c>
       <c r="G48" s="3">
-        <v>2066200</v>
+        <v>2075100</v>
       </c>
       <c r="H48" s="3">
-        <v>2070800</v>
+        <v>2079800</v>
       </c>
       <c r="I48" s="3">
-        <v>2169100</v>
+        <v>2178500</v>
       </c>
       <c r="J48" s="3">
-        <v>2151200</v>
+        <v>2160500</v>
       </c>
       <c r="K48" s="3">
         <v>2116300</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72700</v>
+        <v>73000</v>
       </c>
       <c r="E49" s="3">
-        <v>73200</v>
+        <v>73600</v>
       </c>
       <c r="F49" s="3">
-        <v>69300</v>
+        <v>69600</v>
       </c>
       <c r="G49" s="3">
-        <v>130600</v>
+        <v>131100</v>
       </c>
       <c r="H49" s="3">
-        <v>106700</v>
+        <v>107100</v>
       </c>
       <c r="I49" s="3">
-        <v>113700</v>
+        <v>114200</v>
       </c>
       <c r="J49" s="3">
-        <v>126500</v>
+        <v>127000</v>
       </c>
       <c r="K49" s="3">
         <v>102500</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>124300</v>
+        <v>124900</v>
       </c>
       <c r="E52" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="F52" s="3">
         <v>18400</v>
       </c>
       <c r="G52" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="H52" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="I52" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="J52" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="K52" s="3">
         <v>15000</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6415100</v>
+        <v>6443000</v>
       </c>
       <c r="E54" s="3">
-        <v>6920600</v>
+        <v>6950600</v>
       </c>
       <c r="F54" s="3">
-        <v>6668800</v>
+        <v>6697700</v>
       </c>
       <c r="G54" s="3">
-        <v>6752000</v>
+        <v>6781300</v>
       </c>
       <c r="H54" s="3">
-        <v>6940100</v>
+        <v>6970200</v>
       </c>
       <c r="I54" s="3">
-        <v>6000100</v>
+        <v>6026200</v>
       </c>
       <c r="J54" s="3">
-        <v>5648200</v>
+        <v>5672700</v>
       </c>
       <c r="K54" s="3">
         <v>4929900</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>389400</v>
+        <v>391100</v>
       </c>
       <c r="E57" s="3">
-        <v>428400</v>
+        <v>430300</v>
       </c>
       <c r="F57" s="3">
-        <v>527600</v>
+        <v>529800</v>
       </c>
       <c r="G57" s="3">
-        <v>444600</v>
+        <v>446600</v>
       </c>
       <c r="H57" s="3">
-        <v>442600</v>
+        <v>444500</v>
       </c>
       <c r="I57" s="3">
-        <v>290300</v>
+        <v>291600</v>
       </c>
       <c r="J57" s="3">
-        <v>346300</v>
+        <v>347800</v>
       </c>
       <c r="K57" s="3">
         <v>308500</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>462700</v>
+        <v>464700</v>
       </c>
       <c r="E58" s="3">
-        <v>237200</v>
+        <v>238200</v>
       </c>
       <c r="F58" s="3">
-        <v>167400</v>
+        <v>168200</v>
       </c>
       <c r="G58" s="3">
-        <v>75600</v>
+        <v>76000</v>
       </c>
       <c r="H58" s="3">
-        <v>212300</v>
+        <v>213200</v>
       </c>
       <c r="I58" s="3">
-        <v>92200</v>
+        <v>92600</v>
       </c>
       <c r="J58" s="3">
-        <v>93300</v>
+        <v>93700</v>
       </c>
       <c r="K58" s="3">
         <v>79400</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1444100</v>
+        <v>1450400</v>
       </c>
       <c r="E59" s="3">
-        <v>1689200</v>
+        <v>1696500</v>
       </c>
       <c r="F59" s="3">
-        <v>1572300</v>
+        <v>1579100</v>
       </c>
       <c r="G59" s="3">
-        <v>1596200</v>
+        <v>1603100</v>
       </c>
       <c r="H59" s="3">
-        <v>1893700</v>
+        <v>1901900</v>
       </c>
       <c r="I59" s="3">
-        <v>1279000</v>
+        <v>1284500</v>
       </c>
       <c r="J59" s="3">
-        <v>1419200</v>
+        <v>1425300</v>
       </c>
       <c r="K59" s="3">
         <v>910900</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2296200</v>
+        <v>2306200</v>
       </c>
       <c r="E60" s="3">
-        <v>2354800</v>
+        <v>2365000</v>
       </c>
       <c r="F60" s="3">
-        <v>2267300</v>
+        <v>2277100</v>
       </c>
       <c r="G60" s="3">
-        <v>2116400</v>
+        <v>2125600</v>
       </c>
       <c r="H60" s="3">
-        <v>2548500</v>
+        <v>2559600</v>
       </c>
       <c r="I60" s="3">
-        <v>1661500</v>
+        <v>1668700</v>
       </c>
       <c r="J60" s="3">
-        <v>1858800</v>
+        <v>1866900</v>
       </c>
       <c r="K60" s="3">
         <v>1298700</v>
@@ -2667,7 +2667,7 @@
         <v>1600</v>
       </c>
       <c r="F61" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2325500</v>
+        <v>2335600</v>
       </c>
       <c r="E66" s="3">
-        <v>2377800</v>
+        <v>2388100</v>
       </c>
       <c r="F66" s="3">
-        <v>2290800</v>
+        <v>2300700</v>
       </c>
       <c r="G66" s="3">
-        <v>2135700</v>
+        <v>2145000</v>
       </c>
       <c r="H66" s="3">
-        <v>2594200</v>
+        <v>2605500</v>
       </c>
       <c r="I66" s="3">
-        <v>1705800</v>
+        <v>1713200</v>
       </c>
       <c r="J66" s="3">
-        <v>1901700</v>
+        <v>1910000</v>
       </c>
       <c r="K66" s="3">
         <v>1339500</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2428200</v>
+        <v>2438700</v>
       </c>
       <c r="E72" s="3">
-        <v>2880000</v>
+        <v>2892500</v>
       </c>
       <c r="F72" s="3">
-        <v>2715200</v>
+        <v>2727000</v>
       </c>
       <c r="G72" s="3">
-        <v>2953500</v>
+        <v>2966300</v>
       </c>
       <c r="H72" s="3">
-        <v>2683100</v>
+        <v>2694700</v>
       </c>
       <c r="I72" s="3">
-        <v>2639900</v>
+        <v>2651300</v>
       </c>
       <c r="J72" s="3">
-        <v>2103500</v>
+        <v>2112600</v>
       </c>
       <c r="K72" s="3">
         <v>2021900</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4089600</v>
+        <v>4107400</v>
       </c>
       <c r="E76" s="3">
-        <v>4542800</v>
+        <v>4562500</v>
       </c>
       <c r="F76" s="3">
-        <v>4378000</v>
+        <v>4397000</v>
       </c>
       <c r="G76" s="3">
-        <v>4616200</v>
+        <v>4636300</v>
       </c>
       <c r="H76" s="3">
-        <v>4345900</v>
+        <v>4364700</v>
       </c>
       <c r="I76" s="3">
-        <v>4294400</v>
+        <v>4313000</v>
       </c>
       <c r="J76" s="3">
-        <v>3746400</v>
+        <v>3762700</v>
       </c>
       <c r="K76" s="3">
         <v>3590400</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-254200</v>
+        <v>-255300</v>
       </c>
       <c r="E81" s="3">
-        <v>163100</v>
+        <v>163800</v>
       </c>
       <c r="F81" s="3">
-        <v>174000</v>
+        <v>174700</v>
       </c>
       <c r="G81" s="3">
-        <v>271500</v>
+        <v>272700</v>
       </c>
       <c r="H81" s="3">
-        <v>540200</v>
+        <v>542600</v>
       </c>
       <c r="I81" s="3">
-        <v>539200</v>
+        <v>541600</v>
       </c>
       <c r="J81" s="3">
-        <v>395300</v>
+        <v>397000</v>
       </c>
       <c r="K81" s="3">
         <v>409500</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-447100</v>
+        <v>-449000</v>
       </c>
       <c r="E89" s="3">
-        <v>735900</v>
+        <v>739100</v>
       </c>
       <c r="F89" s="3">
-        <v>33500</v>
+        <v>33700</v>
       </c>
       <c r="G89" s="3">
-        <v>372100</v>
+        <v>373700</v>
       </c>
       <c r="H89" s="3">
-        <v>641000</v>
+        <v>643700</v>
       </c>
       <c r="I89" s="3">
-        <v>716600</v>
+        <v>719700</v>
       </c>
       <c r="J89" s="3">
-        <v>357500</v>
+        <v>359100</v>
       </c>
       <c r="K89" s="3">
         <v>373000</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105900</v>
+        <v>-106400</v>
       </c>
       <c r="E91" s="3">
-        <v>73300</v>
+        <v>73600</v>
       </c>
       <c r="F91" s="3">
-        <v>-86000</v>
+        <v>-86400</v>
       </c>
       <c r="G91" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="H91" s="3">
-        <v>-53400</v>
+        <v>-53700</v>
       </c>
       <c r="I91" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="J91" s="3">
-        <v>-67700</v>
+        <v>-67900</v>
       </c>
       <c r="K91" s="3">
         <v>-29600</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-474700</v>
+        <v>-476800</v>
       </c>
       <c r="E94" s="3">
-        <v>-765800</v>
+        <v>-769200</v>
       </c>
       <c r="F94" s="3">
-        <v>62500</v>
+        <v>62800</v>
       </c>
       <c r="G94" s="3">
-        <v>-300700</v>
+        <v>-302000</v>
       </c>
       <c r="H94" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="I94" s="3">
-        <v>-382100</v>
+        <v>-383700</v>
       </c>
       <c r="J94" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="K94" s="3">
         <v>-26700</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>223500</v>
+        <v>224500</v>
       </c>
       <c r="E100" s="3">
-        <v>-349600</v>
+        <v>-351200</v>
       </c>
       <c r="F100" s="3">
-        <v>85400</v>
+        <v>85700</v>
       </c>
       <c r="G100" s="3">
-        <v>-658500</v>
+        <v>-661400</v>
       </c>
       <c r="H100" s="3">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="I100" s="3">
-        <v>-403600</v>
+        <v>-405300</v>
       </c>
       <c r="J100" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="K100" s="3">
         <v>-203500</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-697400</v>
+        <v>-700400</v>
       </c>
       <c r="E102" s="3">
-        <v>-379000</v>
+        <v>-380600</v>
       </c>
       <c r="F102" s="3">
-        <v>182400</v>
+        <v>183200</v>
       </c>
       <c r="G102" s="3">
-        <v>-588700</v>
+        <v>-591300</v>
       </c>
       <c r="H102" s="3">
-        <v>777000</v>
+        <v>780400</v>
       </c>
       <c r="I102" s="3">
-        <v>-68700</v>
+        <v>-69000</v>
       </c>
       <c r="J102" s="3">
-        <v>382600</v>
+        <v>384300</v>
       </c>
       <c r="K102" s="3">
         <v>143700</v>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4572100</v>
+        <v>4935400</v>
       </c>
       <c r="E8" s="3">
-        <v>6406200</v>
+        <v>4668700</v>
       </c>
       <c r="F8" s="3">
-        <v>7047000</v>
+        <v>6541600</v>
       </c>
       <c r="G8" s="3">
-        <v>7572800</v>
+        <v>7196000</v>
       </c>
       <c r="H8" s="3">
-        <v>7035100</v>
+        <v>7732900</v>
       </c>
       <c r="I8" s="3">
-        <v>6438500</v>
+        <v>7183800</v>
       </c>
       <c r="J8" s="3">
+        <v>6574600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5664500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5105400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4416600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4745100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5203900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6694800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4972900</v>
+        <v>4579200</v>
       </c>
       <c r="E9" s="3">
-        <v>6301100</v>
+        <v>5078000</v>
       </c>
       <c r="F9" s="3">
-        <v>6909500</v>
+        <v>6434300</v>
       </c>
       <c r="G9" s="3">
-        <v>7291700</v>
+        <v>7055600</v>
       </c>
       <c r="H9" s="3">
-        <v>6433900</v>
+        <v>7445900</v>
       </c>
       <c r="I9" s="3">
-        <v>5825900</v>
+        <v>6569900</v>
       </c>
       <c r="J9" s="3">
+        <v>5949000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5235200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4635300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3847400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4462600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4851200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6789600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-400800</v>
+        <v>356200</v>
       </c>
       <c r="E10" s="3">
-        <v>105100</v>
+        <v>-409300</v>
       </c>
       <c r="F10" s="3">
-        <v>137500</v>
+        <v>107300</v>
       </c>
       <c r="G10" s="3">
-        <v>281000</v>
+        <v>140400</v>
       </c>
       <c r="H10" s="3">
-        <v>601200</v>
+        <v>287000</v>
       </c>
       <c r="I10" s="3">
-        <v>612600</v>
+        <v>613900</v>
       </c>
       <c r="J10" s="3">
+        <v>625600</v>
+      </c>
+      <c r="K10" s="3">
         <v>429300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>470100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>569300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>282500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>352800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-94800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,31 +969,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-18900</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,8 +1042,8 @@
       <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>700</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4990500</v>
+        <v>4580800</v>
       </c>
       <c r="E17" s="3">
-        <v>6304400</v>
+        <v>5096000</v>
       </c>
       <c r="F17" s="3">
-        <v>6947000</v>
+        <v>6437700</v>
       </c>
       <c r="G17" s="3">
-        <v>7282600</v>
+        <v>7093900</v>
       </c>
       <c r="H17" s="3">
-        <v>6472000</v>
+        <v>7436500</v>
       </c>
       <c r="I17" s="3">
-        <v>5859700</v>
+        <v>6608800</v>
       </c>
       <c r="J17" s="3">
+        <v>5983500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5265200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4660400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3883900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4473700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4895200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6807400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-418500</v>
+        <v>354600</v>
       </c>
       <c r="E18" s="3">
-        <v>101800</v>
+        <v>-427300</v>
       </c>
       <c r="F18" s="3">
-        <v>100000</v>
+        <v>103900</v>
       </c>
       <c r="G18" s="3">
-        <v>290200</v>
+        <v>102100</v>
       </c>
       <c r="H18" s="3">
-        <v>563100</v>
+        <v>296300</v>
       </c>
       <c r="I18" s="3">
-        <v>578800</v>
+        <v>575000</v>
       </c>
       <c r="J18" s="3">
+        <v>591100</v>
+      </c>
+      <c r="K18" s="3">
         <v>399300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>445100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>532800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>271400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>308700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-112700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>69900</v>
+        <v>108100</v>
       </c>
       <c r="E20" s="3">
-        <v>100500</v>
+        <v>71400</v>
       </c>
       <c r="F20" s="3">
-        <v>111800</v>
+        <v>102600</v>
       </c>
       <c r="G20" s="3">
-        <v>67000</v>
+        <v>114100</v>
       </c>
       <c r="H20" s="3">
-        <v>136000</v>
+        <v>68500</v>
       </c>
       <c r="I20" s="3">
-        <v>126500</v>
+        <v>138900</v>
       </c>
       <c r="J20" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K20" s="3">
         <v>104500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>91600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>60700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>50500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-230100</v>
+        <v>470900</v>
       </c>
       <c r="E21" s="3">
-        <v>234200</v>
+        <v>-234900</v>
       </c>
       <c r="F21" s="3">
-        <v>328500</v>
+        <v>206400</v>
       </c>
       <c r="G21" s="3">
-        <v>355700</v>
+        <v>335400</v>
       </c>
       <c r="H21" s="3">
-        <v>819900</v>
+        <v>363200</v>
       </c>
       <c r="I21" s="3">
-        <v>702100</v>
+        <v>837300</v>
       </c>
       <c r="J21" s="3">
+        <v>716900</v>
+      </c>
+      <c r="K21" s="3">
         <v>627000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>534400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>712400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>289400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>492100</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>10200</v>
       </c>
       <c r="E22" s="3">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="F22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
-        <v>11100</v>
-      </c>
       <c r="H22" s="3">
-        <v>5200</v>
+        <v>11300</v>
       </c>
       <c r="I22" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="J22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-352800</v>
+        <v>452500</v>
       </c>
       <c r="E23" s="3">
-        <v>197200</v>
+        <v>-360300</v>
       </c>
       <c r="F23" s="3">
-        <v>208600</v>
+        <v>201300</v>
       </c>
       <c r="G23" s="3">
-        <v>346200</v>
+        <v>213000</v>
       </c>
       <c r="H23" s="3">
-        <v>694000</v>
+        <v>353500</v>
       </c>
       <c r="I23" s="3">
-        <v>699500</v>
+        <v>708600</v>
       </c>
       <c r="J23" s="3">
+        <v>714300</v>
+      </c>
+      <c r="K23" s="3">
         <v>500200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>533900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>588500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>290500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>338400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-110900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-98700</v>
+        <v>90600</v>
       </c>
       <c r="E24" s="3">
-        <v>32600</v>
+        <v>-100800</v>
       </c>
       <c r="F24" s="3">
-        <v>32900</v>
+        <v>33300</v>
       </c>
       <c r="G24" s="3">
-        <v>74600</v>
+        <v>33600</v>
       </c>
       <c r="H24" s="3">
-        <v>150300</v>
+        <v>76200</v>
       </c>
       <c r="I24" s="3">
-        <v>157000</v>
+        <v>153500</v>
       </c>
       <c r="J24" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K24" s="3">
         <v>102500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>123200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>136100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>73000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-254100</v>
+        <v>361900</v>
       </c>
       <c r="E26" s="3">
-        <v>164600</v>
+        <v>-259500</v>
       </c>
       <c r="F26" s="3">
-        <v>175700</v>
+        <v>168000</v>
       </c>
       <c r="G26" s="3">
-        <v>271600</v>
+        <v>179400</v>
       </c>
       <c r="H26" s="3">
-        <v>543700</v>
+        <v>277300</v>
       </c>
       <c r="I26" s="3">
-        <v>542500</v>
+        <v>555200</v>
       </c>
       <c r="J26" s="3">
+        <v>554000</v>
+      </c>
+      <c r="K26" s="3">
         <v>397700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>410700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>452500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>225900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>265400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-255300</v>
+        <v>361300</v>
       </c>
       <c r="E27" s="3">
-        <v>163800</v>
+        <v>-260700</v>
       </c>
       <c r="F27" s="3">
-        <v>174700</v>
+        <v>167300</v>
       </c>
       <c r="G27" s="3">
-        <v>272700</v>
+        <v>178400</v>
       </c>
       <c r="H27" s="3">
-        <v>542600</v>
+        <v>278500</v>
       </c>
       <c r="I27" s="3">
-        <v>541600</v>
+        <v>554000</v>
       </c>
       <c r="J27" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K27" s="3">
         <v>397000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>409500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>451800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>223100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>262800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69900</v>
+        <v>-108100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100500</v>
+        <v>-71400</v>
       </c>
       <c r="F32" s="3">
-        <v>-111800</v>
+        <v>-102600</v>
       </c>
       <c r="G32" s="3">
-        <v>-67000</v>
+        <v>-114100</v>
       </c>
       <c r="H32" s="3">
-        <v>-136000</v>
+        <v>-68500</v>
       </c>
       <c r="I32" s="3">
-        <v>-126500</v>
+        <v>-138900</v>
       </c>
       <c r="J32" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-104500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-91600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-60700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-50500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-255300</v>
+        <v>361300</v>
       </c>
       <c r="E33" s="3">
-        <v>163800</v>
+        <v>-260700</v>
       </c>
       <c r="F33" s="3">
-        <v>174700</v>
+        <v>167300</v>
       </c>
       <c r="G33" s="3">
-        <v>272700</v>
+        <v>178400</v>
       </c>
       <c r="H33" s="3">
-        <v>542600</v>
+        <v>278500</v>
       </c>
       <c r="I33" s="3">
-        <v>541600</v>
+        <v>554000</v>
       </c>
       <c r="J33" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K33" s="3">
         <v>397000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>409500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>451800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>223100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>262800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-255300</v>
+        <v>361300</v>
       </c>
       <c r="E35" s="3">
-        <v>163800</v>
+        <v>-260700</v>
       </c>
       <c r="F35" s="3">
-        <v>174700</v>
+        <v>167300</v>
       </c>
       <c r="G35" s="3">
-        <v>272700</v>
+        <v>178400</v>
       </c>
       <c r="H35" s="3">
-        <v>542600</v>
+        <v>278500</v>
       </c>
       <c r="I35" s="3">
-        <v>541600</v>
+        <v>554000</v>
       </c>
       <c r="J35" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K35" s="3">
         <v>397000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>409500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>451800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>223100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>262800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,201 +1969,214 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>431800</v>
+        <v>1078100</v>
       </c>
       <c r="E41" s="3">
-        <v>1127900</v>
+        <v>440900</v>
       </c>
       <c r="F41" s="3">
-        <v>1516200</v>
+        <v>1151800</v>
       </c>
       <c r="G41" s="3">
-        <v>1332200</v>
+        <v>1548300</v>
       </c>
       <c r="H41" s="3">
-        <v>1925000</v>
+        <v>1360400</v>
       </c>
       <c r="I41" s="3">
-        <v>1142100</v>
+        <v>1965700</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1166200</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>765600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>635600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1103800</v>
+        <v>821000</v>
       </c>
       <c r="E42" s="3">
-        <v>983200</v>
+        <v>1127200</v>
       </c>
       <c r="F42" s="3">
-        <v>788700</v>
+        <v>1004000</v>
       </c>
       <c r="G42" s="3">
-        <v>904700</v>
+        <v>805400</v>
       </c>
       <c r="H42" s="3">
-        <v>308600</v>
+        <v>923900</v>
       </c>
       <c r="I42" s="3">
-        <v>310000</v>
+        <v>315200</v>
       </c>
       <c r="J42" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1215500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1200</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>305200</v>
+        <v>190900</v>
       </c>
       <c r="E43" s="3">
-        <v>261700</v>
+        <v>311600</v>
       </c>
       <c r="F43" s="3">
-        <v>402100</v>
+        <v>267200</v>
       </c>
       <c r="G43" s="3">
-        <v>378000</v>
+        <v>410600</v>
       </c>
       <c r="H43" s="3">
-        <v>617000</v>
+        <v>386000</v>
       </c>
       <c r="I43" s="3">
-        <v>540200</v>
+        <v>630000</v>
       </c>
       <c r="J43" s="3">
+        <v>551600</v>
+      </c>
+      <c r="K43" s="3">
         <v>481300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>451700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>523700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>428700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>557600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>669300</v>
+        <v>606700</v>
       </c>
       <c r="E44" s="3">
-        <v>1031900</v>
+        <v>683500</v>
       </c>
       <c r="F44" s="3">
-        <v>1047900</v>
+        <v>1053800</v>
       </c>
       <c r="G44" s="3">
-        <v>1240700</v>
+        <v>1070000</v>
       </c>
       <c r="H44" s="3">
-        <v>1105700</v>
+        <v>1266900</v>
       </c>
       <c r="I44" s="3">
-        <v>1008000</v>
+        <v>1129000</v>
       </c>
       <c r="J44" s="3">
+        <v>1029300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1072000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>894500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>664600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>620100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>858600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6900</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>3600</v>
+        <v>7100</v>
       </c>
       <c r="F45" s="3">
-        <v>13500</v>
+        <v>3700</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>13800</v>
       </c>
       <c r="H45" s="3">
-        <v>33700</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>34900</v>
+        <v>34400</v>
       </c>
       <c r="J45" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K45" s="3">
         <v>21300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24100</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2088,172 +2187,187 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2517100</v>
+        <v>2699700</v>
       </c>
       <c r="E46" s="3">
-        <v>3408400</v>
+        <v>2570300</v>
       </c>
       <c r="F46" s="3">
-        <v>3768300</v>
+        <v>3480500</v>
       </c>
       <c r="G46" s="3">
-        <v>3865200</v>
+        <v>3848000</v>
       </c>
       <c r="H46" s="3">
-        <v>3990000</v>
+        <v>3946900</v>
       </c>
       <c r="I46" s="3">
-        <v>3035100</v>
+        <v>4074400</v>
       </c>
       <c r="J46" s="3">
+        <v>3099300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2790100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2160400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1827000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1208600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1460900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1383100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1597300</v>
+        <v>1940100</v>
       </c>
       <c r="E47" s="3">
-        <v>1333000</v>
+        <v>1631100</v>
       </c>
       <c r="F47" s="3">
-        <v>764300</v>
+        <v>1361200</v>
       </c>
       <c r="G47" s="3">
-        <v>691700</v>
+        <v>780400</v>
       </c>
       <c r="H47" s="3">
-        <v>777100</v>
+        <v>706300</v>
       </c>
       <c r="I47" s="3">
-        <v>680200</v>
+        <v>793500</v>
       </c>
       <c r="J47" s="3">
+        <v>694600</v>
+      </c>
+      <c r="K47" s="3">
         <v>579600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>535700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>497100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>491400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>482900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2130700</v>
+        <v>2215600</v>
       </c>
       <c r="E48" s="3">
-        <v>2112600</v>
+        <v>2175700</v>
       </c>
       <c r="F48" s="3">
-        <v>2077000</v>
+        <v>2157300</v>
       </c>
       <c r="G48" s="3">
-        <v>2075100</v>
+        <v>2120900</v>
       </c>
       <c r="H48" s="3">
-        <v>2079800</v>
+        <v>2119000</v>
       </c>
       <c r="I48" s="3">
-        <v>2178500</v>
+        <v>2123800</v>
       </c>
       <c r="J48" s="3">
+        <v>2224500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2160500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2116300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2112000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2302000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2329700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>73000</v>
+        <v>66300</v>
       </c>
       <c r="E49" s="3">
-        <v>73600</v>
+        <v>74500</v>
       </c>
       <c r="F49" s="3">
-        <v>69600</v>
+        <v>75100</v>
       </c>
       <c r="G49" s="3">
-        <v>131100</v>
+        <v>71100</v>
       </c>
       <c r="H49" s="3">
-        <v>107100</v>
+        <v>133900</v>
       </c>
       <c r="I49" s="3">
-        <v>114200</v>
+        <v>109400</v>
       </c>
       <c r="J49" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K49" s="3">
         <v>127000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>102500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>116200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>131600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>124900</v>
+        <v>39300</v>
       </c>
       <c r="E52" s="3">
-        <v>23000</v>
+        <v>127500</v>
       </c>
       <c r="F52" s="3">
-        <v>18400</v>
+        <v>23500</v>
       </c>
       <c r="G52" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="H52" s="3">
-        <v>16200</v>
+        <v>18600</v>
       </c>
       <c r="I52" s="3">
-        <v>18200</v>
+        <v>16500</v>
       </c>
       <c r="J52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6443000</v>
+        <v>6961000</v>
       </c>
       <c r="E54" s="3">
-        <v>6950600</v>
+        <v>6579200</v>
       </c>
       <c r="F54" s="3">
-        <v>6697700</v>
+        <v>7097500</v>
       </c>
       <c r="G54" s="3">
-        <v>6781300</v>
+        <v>6839300</v>
       </c>
       <c r="H54" s="3">
-        <v>6970200</v>
+        <v>6924600</v>
       </c>
       <c r="I54" s="3">
-        <v>6026200</v>
+        <v>7117600</v>
       </c>
       <c r="J54" s="3">
+        <v>6153600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5672700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4929900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4554200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4128900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4470200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4494600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,187 +2621,200 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>391100</v>
+        <v>206000</v>
       </c>
       <c r="E57" s="3">
-        <v>430300</v>
+        <v>399400</v>
       </c>
       <c r="F57" s="3">
-        <v>529800</v>
+        <v>439400</v>
       </c>
       <c r="G57" s="3">
-        <v>446600</v>
+        <v>541000</v>
       </c>
       <c r="H57" s="3">
-        <v>444500</v>
+        <v>456000</v>
       </c>
       <c r="I57" s="3">
-        <v>291600</v>
+        <v>453900</v>
       </c>
       <c r="J57" s="3">
+        <v>297700</v>
+      </c>
+      <c r="K57" s="3">
         <v>347800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>308500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>290500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>231900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>269700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>510700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>464700</v>
+        <v>713800</v>
       </c>
       <c r="E58" s="3">
-        <v>238200</v>
+        <v>474500</v>
       </c>
       <c r="F58" s="3">
-        <v>168200</v>
+        <v>243200</v>
       </c>
       <c r="G58" s="3">
-        <v>76000</v>
+        <v>171700</v>
       </c>
       <c r="H58" s="3">
-        <v>213200</v>
+        <v>77600</v>
       </c>
       <c r="I58" s="3">
-        <v>92600</v>
+        <v>217700</v>
       </c>
       <c r="J58" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K58" s="3">
         <v>93700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>79400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>123300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>307200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>625900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>593100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1450400</v>
+        <v>1456600</v>
       </c>
       <c r="E59" s="3">
-        <v>1696500</v>
+        <v>1481000</v>
       </c>
       <c r="F59" s="3">
-        <v>1579100</v>
+        <v>1732400</v>
       </c>
       <c r="G59" s="3">
-        <v>1603100</v>
+        <v>1612500</v>
       </c>
       <c r="H59" s="3">
-        <v>1901900</v>
+        <v>1637000</v>
       </c>
       <c r="I59" s="3">
-        <v>1284500</v>
+        <v>1942100</v>
       </c>
       <c r="J59" s="3">
+        <v>1311700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1425300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>910900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>961700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>607600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>814900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2306200</v>
+        <v>2376400</v>
       </c>
       <c r="E60" s="3">
-        <v>2365000</v>
+        <v>2355000</v>
       </c>
       <c r="F60" s="3">
-        <v>2277100</v>
+        <v>2415000</v>
       </c>
       <c r="G60" s="3">
-        <v>2125600</v>
+        <v>2325200</v>
       </c>
       <c r="H60" s="3">
-        <v>2559600</v>
+        <v>2170600</v>
       </c>
       <c r="I60" s="3">
-        <v>1668700</v>
+        <v>2613700</v>
       </c>
       <c r="J60" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1866900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1298700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1375500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1146700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1710500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1815700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G61" s="3">
         <v>3300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2691,21 +2834,24 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>237400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>1500</v>
+        <v>7400</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2714,13 +2860,13 @@
         <v>1600</v>
       </c>
       <c r="H62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2731,14 +2877,17 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>2400</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2335600</v>
+        <v>2405900</v>
       </c>
       <c r="E66" s="3">
-        <v>2388100</v>
+        <v>2385000</v>
       </c>
       <c r="F66" s="3">
-        <v>2300700</v>
+        <v>2438600</v>
       </c>
       <c r="G66" s="3">
-        <v>2145000</v>
+        <v>2349400</v>
       </c>
       <c r="H66" s="3">
-        <v>2605500</v>
+        <v>2190400</v>
       </c>
       <c r="I66" s="3">
-        <v>1713200</v>
+        <v>2660600</v>
       </c>
       <c r="J66" s="3">
+        <v>1749400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1910000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1339500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1415200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1190700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1756800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2095000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2438700</v>
+        <v>2849900</v>
       </c>
       <c r="E72" s="3">
-        <v>2892500</v>
+        <v>2490300</v>
       </c>
       <c r="F72" s="3">
-        <v>2727000</v>
+        <v>2953700</v>
       </c>
       <c r="G72" s="3">
-        <v>2966300</v>
+        <v>2784700</v>
       </c>
       <c r="H72" s="3">
-        <v>2694700</v>
+        <v>3029000</v>
       </c>
       <c r="I72" s="3">
-        <v>2651300</v>
+        <v>2751700</v>
       </c>
       <c r="J72" s="3">
+        <v>2707400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2112600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2021900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1589400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1335300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1110600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4107400</v>
+        <v>4555200</v>
       </c>
       <c r="E76" s="3">
-        <v>4562500</v>
+        <v>4194200</v>
       </c>
       <c r="F76" s="3">
-        <v>4397000</v>
+        <v>4659000</v>
       </c>
       <c r="G76" s="3">
-        <v>4636300</v>
+        <v>4490000</v>
       </c>
       <c r="H76" s="3">
-        <v>4364700</v>
+        <v>4734300</v>
       </c>
       <c r="I76" s="3">
-        <v>4313000</v>
+        <v>4457000</v>
       </c>
       <c r="J76" s="3">
+        <v>4404200</v>
+      </c>
+      <c r="K76" s="3">
         <v>3762700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3590400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3138900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2938100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2713400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-255300</v>
+        <v>361300</v>
       </c>
       <c r="E81" s="3">
-        <v>163800</v>
+        <v>-260700</v>
       </c>
       <c r="F81" s="3">
-        <v>174700</v>
+        <v>167300</v>
       </c>
       <c r="G81" s="3">
-        <v>272700</v>
+        <v>178400</v>
       </c>
       <c r="H81" s="3">
-        <v>542600</v>
+        <v>278500</v>
       </c>
       <c r="I81" s="3">
-        <v>541600</v>
+        <v>554000</v>
       </c>
       <c r="J81" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K81" s="3">
         <v>397000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>409500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>451800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>223100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>262800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-449000</v>
+        <v>720600</v>
       </c>
       <c r="E89" s="3">
-        <v>739100</v>
+        <v>-458500</v>
       </c>
       <c r="F89" s="3">
-        <v>33700</v>
+        <v>754700</v>
       </c>
       <c r="G89" s="3">
-        <v>373700</v>
+        <v>34400</v>
       </c>
       <c r="H89" s="3">
-        <v>643700</v>
+        <v>381600</v>
       </c>
       <c r="I89" s="3">
-        <v>719700</v>
+        <v>657300</v>
       </c>
       <c r="J89" s="3">
+        <v>734900</v>
+      </c>
+      <c r="K89" s="3">
         <v>359100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>373000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>661900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>468400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>263700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106400</v>
+        <v>80800</v>
       </c>
       <c r="E91" s="3">
-        <v>73600</v>
+        <v>-108600</v>
       </c>
       <c r="F91" s="3">
-        <v>-86400</v>
+        <v>75200</v>
       </c>
       <c r="G91" s="3">
-        <v>31700</v>
+        <v>-88200</v>
       </c>
       <c r="H91" s="3">
-        <v>-53700</v>
+        <v>32400</v>
       </c>
       <c r="I91" s="3">
-        <v>41600</v>
+        <v>-54800</v>
       </c>
       <c r="J91" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-67900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>35400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46500</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-476800</v>
+        <v>-119700</v>
       </c>
       <c r="E94" s="3">
-        <v>-769200</v>
+        <v>-486800</v>
       </c>
       <c r="F94" s="3">
-        <v>62800</v>
+        <v>-785400</v>
       </c>
       <c r="G94" s="3">
-        <v>-302000</v>
+        <v>64100</v>
       </c>
       <c r="H94" s="3">
-        <v>7400</v>
+        <v>-308400</v>
       </c>
       <c r="I94" s="3">
-        <v>-383700</v>
+        <v>7500</v>
       </c>
       <c r="J94" s="3">
+        <v>-391900</v>
+      </c>
+      <c r="K94" s="3">
         <v>17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,17 +4150,18 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-201700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3944,11 +4178,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-157500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>224500</v>
+        <v>33200</v>
       </c>
       <c r="E100" s="3">
-        <v>-351200</v>
+        <v>229200</v>
       </c>
       <c r="F100" s="3">
-        <v>85700</v>
+        <v>-358600</v>
       </c>
       <c r="G100" s="3">
-        <v>-661400</v>
+        <v>87500</v>
       </c>
       <c r="H100" s="3">
-        <v>125500</v>
+        <v>-675300</v>
       </c>
       <c r="I100" s="3">
-        <v>-405300</v>
+        <v>128200</v>
       </c>
       <c r="J100" s="3">
+        <v>-413900</v>
+      </c>
+      <c r="K100" s="3">
         <v>9700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-203500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-177300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-326500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-222000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-339200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>-1700</v>
       </c>
       <c r="I101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700400</v>
+        <v>632000</v>
       </c>
       <c r="E102" s="3">
-        <v>-380600</v>
+        <v>-715200</v>
       </c>
       <c r="F102" s="3">
-        <v>183200</v>
+        <v>-388700</v>
       </c>
       <c r="G102" s="3">
-        <v>-591300</v>
+        <v>187100</v>
       </c>
       <c r="H102" s="3">
-        <v>780400</v>
+        <v>-603800</v>
       </c>
       <c r="I102" s="3">
-        <v>-69000</v>
+        <v>796900</v>
       </c>
       <c r="J102" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="K102" s="3">
         <v>384300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>143700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>484100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4935400</v>
+        <v>4871200</v>
       </c>
       <c r="E8" s="3">
-        <v>4668700</v>
+        <v>4608000</v>
       </c>
       <c r="F8" s="3">
-        <v>6541600</v>
+        <v>6456500</v>
       </c>
       <c r="G8" s="3">
-        <v>7196000</v>
+        <v>7102300</v>
       </c>
       <c r="H8" s="3">
-        <v>7732900</v>
+        <v>7632200</v>
       </c>
       <c r="I8" s="3">
-        <v>7183800</v>
+        <v>7090300</v>
       </c>
       <c r="J8" s="3">
-        <v>6574600</v>
+        <v>6489100</v>
       </c>
       <c r="K8" s="3">
         <v>5664500</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4579200</v>
+        <v>4519600</v>
       </c>
       <c r="E9" s="3">
-        <v>5078000</v>
+        <v>5012000</v>
       </c>
       <c r="F9" s="3">
-        <v>6434300</v>
+        <v>6350500</v>
       </c>
       <c r="G9" s="3">
-        <v>7055600</v>
+        <v>6963800</v>
       </c>
       <c r="H9" s="3">
-        <v>7445900</v>
+        <v>7349000</v>
       </c>
       <c r="I9" s="3">
-        <v>6569900</v>
+        <v>6484400</v>
       </c>
       <c r="J9" s="3">
-        <v>5949000</v>
+        <v>5871600</v>
       </c>
       <c r="K9" s="3">
         <v>5235200</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>356200</v>
+        <v>351600</v>
       </c>
       <c r="E10" s="3">
-        <v>-409300</v>
+        <v>-404000</v>
       </c>
       <c r="F10" s="3">
-        <v>107300</v>
+        <v>105900</v>
       </c>
       <c r="G10" s="3">
-        <v>140400</v>
+        <v>138500</v>
       </c>
       <c r="H10" s="3">
-        <v>287000</v>
+        <v>283200</v>
       </c>
       <c r="I10" s="3">
-        <v>613900</v>
+        <v>605900</v>
       </c>
       <c r="J10" s="3">
-        <v>625600</v>
+        <v>617400</v>
       </c>
       <c r="K10" s="3">
         <v>429300</v>
@@ -978,19 +978,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18900</v>
+        <v>-18600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>-200</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4580800</v>
+        <v>4521200</v>
       </c>
       <c r="E17" s="3">
-        <v>5096000</v>
+        <v>5029700</v>
       </c>
       <c r="F17" s="3">
-        <v>6437700</v>
+        <v>6353900</v>
       </c>
       <c r="G17" s="3">
-        <v>7093900</v>
+        <v>7001500</v>
       </c>
       <c r="H17" s="3">
-        <v>7436500</v>
+        <v>7339800</v>
       </c>
       <c r="I17" s="3">
-        <v>6608800</v>
+        <v>6522800</v>
       </c>
       <c r="J17" s="3">
-        <v>5983500</v>
+        <v>5905700</v>
       </c>
       <c r="K17" s="3">
         <v>5265200</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>354600</v>
+        <v>350000</v>
       </c>
       <c r="E18" s="3">
-        <v>-427300</v>
+        <v>-421800</v>
       </c>
       <c r="F18" s="3">
-        <v>103900</v>
+        <v>102600</v>
       </c>
       <c r="G18" s="3">
-        <v>102100</v>
+        <v>100800</v>
       </c>
       <c r="H18" s="3">
-        <v>296300</v>
+        <v>292500</v>
       </c>
       <c r="I18" s="3">
-        <v>575000</v>
+        <v>567500</v>
       </c>
       <c r="J18" s="3">
-        <v>591100</v>
+        <v>583400</v>
       </c>
       <c r="K18" s="3">
         <v>399300</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>108100</v>
+        <v>106600</v>
       </c>
       <c r="E20" s="3">
-        <v>71400</v>
+        <v>70500</v>
       </c>
       <c r="F20" s="3">
-        <v>102600</v>
+        <v>101300</v>
       </c>
       <c r="G20" s="3">
-        <v>114100</v>
+        <v>112700</v>
       </c>
       <c r="H20" s="3">
-        <v>68500</v>
+        <v>67600</v>
       </c>
       <c r="I20" s="3">
-        <v>138900</v>
+        <v>137100</v>
       </c>
       <c r="J20" s="3">
-        <v>129100</v>
+        <v>127500</v>
       </c>
       <c r="K20" s="3">
         <v>104500</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>470900</v>
+        <v>464800</v>
       </c>
       <c r="E21" s="3">
-        <v>-234900</v>
+        <v>-231900</v>
       </c>
       <c r="F21" s="3">
-        <v>206400</v>
+        <v>203700</v>
       </c>
       <c r="G21" s="3">
-        <v>335400</v>
+        <v>331100</v>
       </c>
       <c r="H21" s="3">
-        <v>363200</v>
+        <v>358500</v>
       </c>
       <c r="I21" s="3">
-        <v>837300</v>
+        <v>826400</v>
       </c>
       <c r="J21" s="3">
-        <v>716900</v>
+        <v>707600</v>
       </c>
       <c r="K21" s="3">
         <v>627000</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G22" s="3">
         <v>3200</v>
       </c>
       <c r="H22" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="I22" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>3600</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>452500</v>
+        <v>446600</v>
       </c>
       <c r="E23" s="3">
-        <v>-360300</v>
+        <v>-355600</v>
       </c>
       <c r="F23" s="3">
-        <v>201300</v>
+        <v>198700</v>
       </c>
       <c r="G23" s="3">
-        <v>213000</v>
+        <v>210300</v>
       </c>
       <c r="H23" s="3">
-        <v>353500</v>
+        <v>348900</v>
       </c>
       <c r="I23" s="3">
-        <v>708600</v>
+        <v>699400</v>
       </c>
       <c r="J23" s="3">
-        <v>714300</v>
+        <v>705000</v>
       </c>
       <c r="K23" s="3">
         <v>500200</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90600</v>
+        <v>89400</v>
       </c>
       <c r="E24" s="3">
-        <v>-100800</v>
+        <v>-99500</v>
       </c>
       <c r="F24" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="G24" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="H24" s="3">
-        <v>76200</v>
+        <v>75200</v>
       </c>
       <c r="I24" s="3">
-        <v>153500</v>
+        <v>151500</v>
       </c>
       <c r="J24" s="3">
-        <v>160300</v>
+        <v>158200</v>
       </c>
       <c r="K24" s="3">
         <v>102500</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>361900</v>
+        <v>357200</v>
       </c>
       <c r="E26" s="3">
-        <v>-259500</v>
+        <v>-256100</v>
       </c>
       <c r="F26" s="3">
-        <v>168000</v>
+        <v>165900</v>
       </c>
       <c r="G26" s="3">
-        <v>179400</v>
+        <v>177100</v>
       </c>
       <c r="H26" s="3">
-        <v>277300</v>
+        <v>273700</v>
       </c>
       <c r="I26" s="3">
-        <v>555200</v>
+        <v>548000</v>
       </c>
       <c r="J26" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="K26" s="3">
         <v>397700</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>361300</v>
+        <v>356600</v>
       </c>
       <c r="E27" s="3">
-        <v>-260700</v>
+        <v>-257300</v>
       </c>
       <c r="F27" s="3">
-        <v>167300</v>
+        <v>165100</v>
       </c>
       <c r="G27" s="3">
-        <v>178400</v>
+        <v>176100</v>
       </c>
       <c r="H27" s="3">
-        <v>278500</v>
+        <v>274900</v>
       </c>
       <c r="I27" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="J27" s="3">
-        <v>553000</v>
+        <v>545800</v>
       </c>
       <c r="K27" s="3">
         <v>397000</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-108100</v>
+        <v>-106600</v>
       </c>
       <c r="E32" s="3">
-        <v>-71400</v>
+        <v>-70500</v>
       </c>
       <c r="F32" s="3">
-        <v>-102600</v>
+        <v>-101300</v>
       </c>
       <c r="G32" s="3">
-        <v>-114100</v>
+        <v>-112700</v>
       </c>
       <c r="H32" s="3">
-        <v>-68500</v>
+        <v>-67600</v>
       </c>
       <c r="I32" s="3">
-        <v>-138900</v>
+        <v>-137100</v>
       </c>
       <c r="J32" s="3">
-        <v>-129100</v>
+        <v>-127500</v>
       </c>
       <c r="K32" s="3">
         <v>-104500</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>361300</v>
+        <v>356600</v>
       </c>
       <c r="E33" s="3">
-        <v>-260700</v>
+        <v>-257300</v>
       </c>
       <c r="F33" s="3">
-        <v>167300</v>
+        <v>165100</v>
       </c>
       <c r="G33" s="3">
-        <v>178400</v>
+        <v>176100</v>
       </c>
       <c r="H33" s="3">
-        <v>278500</v>
+        <v>274900</v>
       </c>
       <c r="I33" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="J33" s="3">
-        <v>553000</v>
+        <v>545800</v>
       </c>
       <c r="K33" s="3">
         <v>397000</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>361300</v>
+        <v>356600</v>
       </c>
       <c r="E35" s="3">
-        <v>-260700</v>
+        <v>-257300</v>
       </c>
       <c r="F35" s="3">
-        <v>167300</v>
+        <v>165100</v>
       </c>
       <c r="G35" s="3">
-        <v>178400</v>
+        <v>176100</v>
       </c>
       <c r="H35" s="3">
-        <v>278500</v>
+        <v>274900</v>
       </c>
       <c r="I35" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="J35" s="3">
-        <v>553000</v>
+        <v>545800</v>
       </c>
       <c r="K35" s="3">
         <v>397000</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1078100</v>
+        <v>1064100</v>
       </c>
       <c r="E41" s="3">
-        <v>440900</v>
+        <v>435200</v>
       </c>
       <c r="F41" s="3">
-        <v>1151800</v>
+        <v>1136800</v>
       </c>
       <c r="G41" s="3">
-        <v>1548300</v>
+        <v>1528100</v>
       </c>
       <c r="H41" s="3">
-        <v>1360400</v>
+        <v>1342700</v>
       </c>
       <c r="I41" s="3">
-        <v>1965700</v>
+        <v>1940100</v>
       </c>
       <c r="J41" s="3">
-        <v>1166200</v>
+        <v>1151000</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>821000</v>
+        <v>810300</v>
       </c>
       <c r="E42" s="3">
-        <v>1127200</v>
+        <v>1112500</v>
       </c>
       <c r="F42" s="3">
-        <v>1004000</v>
+        <v>990900</v>
       </c>
       <c r="G42" s="3">
-        <v>805400</v>
+        <v>794900</v>
       </c>
       <c r="H42" s="3">
-        <v>923900</v>
+        <v>911800</v>
       </c>
       <c r="I42" s="3">
-        <v>315200</v>
+        <v>311100</v>
       </c>
       <c r="J42" s="3">
-        <v>316600</v>
+        <v>312400</v>
       </c>
       <c r="K42" s="3">
         <v>1215500</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190900</v>
+        <v>188400</v>
       </c>
       <c r="E43" s="3">
-        <v>311600</v>
+        <v>307600</v>
       </c>
       <c r="F43" s="3">
-        <v>267200</v>
+        <v>263700</v>
       </c>
       <c r="G43" s="3">
-        <v>410600</v>
+        <v>405200</v>
       </c>
       <c r="H43" s="3">
-        <v>386000</v>
+        <v>381000</v>
       </c>
       <c r="I43" s="3">
-        <v>630000</v>
+        <v>621800</v>
       </c>
       <c r="J43" s="3">
-        <v>551600</v>
+        <v>544500</v>
       </c>
       <c r="K43" s="3">
         <v>481300</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>606700</v>
+        <v>598800</v>
       </c>
       <c r="E44" s="3">
-        <v>683500</v>
+        <v>674600</v>
       </c>
       <c r="F44" s="3">
-        <v>1053800</v>
+        <v>1040000</v>
       </c>
       <c r="G44" s="3">
-        <v>1070000</v>
+        <v>1056100</v>
       </c>
       <c r="H44" s="3">
-        <v>1266900</v>
+        <v>1250500</v>
       </c>
       <c r="I44" s="3">
-        <v>1129000</v>
+        <v>1114400</v>
       </c>
       <c r="J44" s="3">
-        <v>1029300</v>
+        <v>1015900</v>
       </c>
       <c r="K44" s="3">
         <v>1072000</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
         <v>3700</v>
       </c>
       <c r="G45" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="I45" s="3">
-        <v>34400</v>
+        <v>34000</v>
       </c>
       <c r="J45" s="3">
-        <v>35600</v>
+        <v>35100</v>
       </c>
       <c r="K45" s="3">
         <v>21300</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2699700</v>
+        <v>2664600</v>
       </c>
       <c r="E46" s="3">
-        <v>2570300</v>
+        <v>2536800</v>
       </c>
       <c r="F46" s="3">
-        <v>3480500</v>
+        <v>3435200</v>
       </c>
       <c r="G46" s="3">
-        <v>3848000</v>
+        <v>3797900</v>
       </c>
       <c r="H46" s="3">
-        <v>3946900</v>
+        <v>3895500</v>
       </c>
       <c r="I46" s="3">
-        <v>4074400</v>
+        <v>4021400</v>
       </c>
       <c r="J46" s="3">
-        <v>3099300</v>
+        <v>3059000</v>
       </c>
       <c r="K46" s="3">
         <v>2790100</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1940100</v>
+        <v>1914800</v>
       </c>
       <c r="E47" s="3">
-        <v>1631100</v>
+        <v>1609900</v>
       </c>
       <c r="F47" s="3">
-        <v>1361200</v>
+        <v>1343500</v>
       </c>
       <c r="G47" s="3">
-        <v>780400</v>
+        <v>770300</v>
       </c>
       <c r="H47" s="3">
-        <v>706300</v>
+        <v>697100</v>
       </c>
       <c r="I47" s="3">
-        <v>793500</v>
+        <v>783200</v>
       </c>
       <c r="J47" s="3">
-        <v>694600</v>
+        <v>685500</v>
       </c>
       <c r="K47" s="3">
         <v>579600</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2215600</v>
+        <v>2186800</v>
       </c>
       <c r="E48" s="3">
-        <v>2175700</v>
+        <v>2147400</v>
       </c>
       <c r="F48" s="3">
-        <v>2157300</v>
+        <v>2129200</v>
       </c>
       <c r="G48" s="3">
-        <v>2120900</v>
+        <v>2093400</v>
       </c>
       <c r="H48" s="3">
-        <v>2119000</v>
+        <v>2091400</v>
       </c>
       <c r="I48" s="3">
-        <v>2123800</v>
+        <v>2096100</v>
       </c>
       <c r="J48" s="3">
-        <v>2224500</v>
+        <v>2195600</v>
       </c>
       <c r="K48" s="3">
         <v>2160500</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>66300</v>
+        <v>65400</v>
       </c>
       <c r="E49" s="3">
-        <v>74500</v>
+        <v>73600</v>
       </c>
       <c r="F49" s="3">
-        <v>75100</v>
+        <v>74100</v>
       </c>
       <c r="G49" s="3">
-        <v>71100</v>
+        <v>70200</v>
       </c>
       <c r="H49" s="3">
-        <v>133900</v>
+        <v>132200</v>
       </c>
       <c r="I49" s="3">
-        <v>109400</v>
+        <v>108000</v>
       </c>
       <c r="J49" s="3">
-        <v>116600</v>
+        <v>115100</v>
       </c>
       <c r="K49" s="3">
         <v>127000</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39300</v>
+        <v>38800</v>
       </c>
       <c r="E52" s="3">
-        <v>127500</v>
+        <v>125900</v>
       </c>
       <c r="F52" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="H52" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="I52" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="J52" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6961000</v>
+        <v>6870500</v>
       </c>
       <c r="E54" s="3">
-        <v>6579200</v>
+        <v>6493600</v>
       </c>
       <c r="F54" s="3">
-        <v>7097500</v>
+        <v>7005200</v>
       </c>
       <c r="G54" s="3">
-        <v>6839300</v>
+        <v>6750300</v>
       </c>
       <c r="H54" s="3">
-        <v>6924600</v>
+        <v>6834500</v>
       </c>
       <c r="I54" s="3">
-        <v>7117600</v>
+        <v>7025000</v>
       </c>
       <c r="J54" s="3">
-        <v>6153600</v>
+        <v>6073500</v>
       </c>
       <c r="K54" s="3">
         <v>5672700</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>206000</v>
+        <v>203300</v>
       </c>
       <c r="E57" s="3">
-        <v>399400</v>
+        <v>394200</v>
       </c>
       <c r="F57" s="3">
-        <v>439400</v>
+        <v>433700</v>
       </c>
       <c r="G57" s="3">
-        <v>541000</v>
+        <v>534000</v>
       </c>
       <c r="H57" s="3">
-        <v>456000</v>
+        <v>450100</v>
       </c>
       <c r="I57" s="3">
-        <v>453900</v>
+        <v>448000</v>
       </c>
       <c r="J57" s="3">
-        <v>297700</v>
+        <v>293900</v>
       </c>
       <c r="K57" s="3">
         <v>347800</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>713800</v>
+        <v>704500</v>
       </c>
       <c r="E58" s="3">
-        <v>474500</v>
+        <v>468400</v>
       </c>
       <c r="F58" s="3">
-        <v>243200</v>
+        <v>240100</v>
       </c>
       <c r="G58" s="3">
-        <v>171700</v>
+        <v>169500</v>
       </c>
       <c r="H58" s="3">
-        <v>77600</v>
+        <v>76600</v>
       </c>
       <c r="I58" s="3">
-        <v>217700</v>
+        <v>214900</v>
       </c>
       <c r="J58" s="3">
-        <v>94600</v>
+        <v>93300</v>
       </c>
       <c r="K58" s="3">
         <v>93700</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1456600</v>
+        <v>1437700</v>
       </c>
       <c r="E59" s="3">
-        <v>1481000</v>
+        <v>1461800</v>
       </c>
       <c r="F59" s="3">
-        <v>1732400</v>
+        <v>1709800</v>
       </c>
       <c r="G59" s="3">
-        <v>1612500</v>
+        <v>1591500</v>
       </c>
       <c r="H59" s="3">
-        <v>1637000</v>
+        <v>1615700</v>
       </c>
       <c r="I59" s="3">
-        <v>1942100</v>
+        <v>1916800</v>
       </c>
       <c r="J59" s="3">
-        <v>1311700</v>
+        <v>1294600</v>
       </c>
       <c r="K59" s="3">
         <v>1425300</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2376400</v>
+        <v>2345500</v>
       </c>
       <c r="E60" s="3">
-        <v>2355000</v>
+        <v>2324300</v>
       </c>
       <c r="F60" s="3">
-        <v>2415000</v>
+        <v>2383600</v>
       </c>
       <c r="G60" s="3">
-        <v>2325200</v>
+        <v>2295000</v>
       </c>
       <c r="H60" s="3">
-        <v>2170600</v>
+        <v>2142300</v>
       </c>
       <c r="I60" s="3">
-        <v>2613700</v>
+        <v>2579700</v>
       </c>
       <c r="J60" s="3">
-        <v>1704000</v>
+        <v>1681800</v>
       </c>
       <c r="K60" s="3">
         <v>1866900</v>
@@ -2807,10 +2807,10 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="3">
         <v>3300</v>
@@ -2848,13 +2848,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2405900</v>
+        <v>2374500</v>
       </c>
       <c r="E66" s="3">
-        <v>2385000</v>
+        <v>2353900</v>
       </c>
       <c r="F66" s="3">
-        <v>2438600</v>
+        <v>2406800</v>
       </c>
       <c r="G66" s="3">
-        <v>2349400</v>
+        <v>2318800</v>
       </c>
       <c r="H66" s="3">
-        <v>2190400</v>
+        <v>2161900</v>
       </c>
       <c r="I66" s="3">
-        <v>2660600</v>
+        <v>2626000</v>
       </c>
       <c r="J66" s="3">
-        <v>1749400</v>
+        <v>1726600</v>
       </c>
       <c r="K66" s="3">
         <v>1910000</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2849900</v>
+        <v>2812800</v>
       </c>
       <c r="E72" s="3">
-        <v>2490300</v>
+        <v>2457900</v>
       </c>
       <c r="F72" s="3">
-        <v>2953700</v>
+        <v>2915200</v>
       </c>
       <c r="G72" s="3">
-        <v>2784700</v>
+        <v>2748400</v>
       </c>
       <c r="H72" s="3">
-        <v>3029000</v>
+        <v>2989600</v>
       </c>
       <c r="I72" s="3">
-        <v>2751700</v>
+        <v>2715900</v>
       </c>
       <c r="J72" s="3">
-        <v>2707400</v>
+        <v>2672100</v>
       </c>
       <c r="K72" s="3">
         <v>2112600</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4555200</v>
+        <v>4495900</v>
       </c>
       <c r="E76" s="3">
-        <v>4194200</v>
+        <v>4139700</v>
       </c>
       <c r="F76" s="3">
-        <v>4659000</v>
+        <v>4598300</v>
       </c>
       <c r="G76" s="3">
-        <v>4490000</v>
+        <v>4431500</v>
       </c>
       <c r="H76" s="3">
-        <v>4734300</v>
+        <v>4672700</v>
       </c>
       <c r="I76" s="3">
-        <v>4457000</v>
+        <v>4399000</v>
       </c>
       <c r="J76" s="3">
-        <v>4404200</v>
+        <v>4346900</v>
       </c>
       <c r="K76" s="3">
         <v>3762700</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>361300</v>
+        <v>356600</v>
       </c>
       <c r="E81" s="3">
-        <v>-260700</v>
+        <v>-257300</v>
       </c>
       <c r="F81" s="3">
-        <v>167300</v>
+        <v>165100</v>
       </c>
       <c r="G81" s="3">
-        <v>178400</v>
+        <v>176100</v>
       </c>
       <c r="H81" s="3">
-        <v>278500</v>
+        <v>274900</v>
       </c>
       <c r="I81" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="J81" s="3">
-        <v>553000</v>
+        <v>545800</v>
       </c>
       <c r="K81" s="3">
         <v>397000</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>720600</v>
+        <v>711200</v>
       </c>
       <c r="E89" s="3">
-        <v>-458500</v>
+        <v>-452500</v>
       </c>
       <c r="F89" s="3">
-        <v>754700</v>
+        <v>744900</v>
       </c>
       <c r="G89" s="3">
-        <v>34400</v>
+        <v>33900</v>
       </c>
       <c r="H89" s="3">
-        <v>381600</v>
+        <v>376600</v>
       </c>
       <c r="I89" s="3">
-        <v>657300</v>
+        <v>648800</v>
       </c>
       <c r="J89" s="3">
-        <v>734900</v>
+        <v>725300</v>
       </c>
       <c r="K89" s="3">
         <v>359100</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>80800</v>
+        <v>79700</v>
       </c>
       <c r="E91" s="3">
-        <v>-108600</v>
+        <v>-107200</v>
       </c>
       <c r="F91" s="3">
-        <v>75200</v>
+        <v>74200</v>
       </c>
       <c r="G91" s="3">
-        <v>-88200</v>
+        <v>-87100</v>
       </c>
       <c r="H91" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="I91" s="3">
-        <v>-54800</v>
+        <v>-54100</v>
       </c>
       <c r="J91" s="3">
-        <v>42500</v>
+        <v>42000</v>
       </c>
       <c r="K91" s="3">
         <v>-67900</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-119700</v>
+        <v>-118100</v>
       </c>
       <c r="E94" s="3">
-        <v>-486800</v>
+        <v>-480500</v>
       </c>
       <c r="F94" s="3">
-        <v>-785400</v>
+        <v>-775200</v>
       </c>
       <c r="G94" s="3">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="H94" s="3">
-        <v>-308400</v>
+        <v>-304400</v>
       </c>
       <c r="I94" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="J94" s="3">
-        <v>-391900</v>
+        <v>-386800</v>
       </c>
       <c r="K94" s="3">
         <v>17000</v>
@@ -4157,7 +4157,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-201700</v>
+        <v>-199100</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>33200</v>
+        <v>32700</v>
       </c>
       <c r="E100" s="3">
-        <v>229200</v>
+        <v>226200</v>
       </c>
       <c r="F100" s="3">
-        <v>-358600</v>
+        <v>-353900</v>
       </c>
       <c r="G100" s="3">
-        <v>87500</v>
+        <v>86400</v>
       </c>
       <c r="H100" s="3">
-        <v>-675300</v>
+        <v>-666600</v>
       </c>
       <c r="I100" s="3">
-        <v>128200</v>
+        <v>126500</v>
       </c>
       <c r="J100" s="3">
-        <v>-413900</v>
+        <v>-408500</v>
       </c>
       <c r="K100" s="3">
         <v>9700</v>
@@ -4389,7 +4389,7 @@
         <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I101" s="3">
         <v>3800</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>632000</v>
+        <v>623800</v>
       </c>
       <c r="E102" s="3">
-        <v>-715200</v>
+        <v>-705900</v>
       </c>
       <c r="F102" s="3">
-        <v>-388700</v>
+        <v>-383600</v>
       </c>
       <c r="G102" s="3">
-        <v>187100</v>
+        <v>184600</v>
       </c>
       <c r="H102" s="3">
-        <v>-603800</v>
+        <v>-595900</v>
       </c>
       <c r="I102" s="3">
-        <v>796900</v>
+        <v>786500</v>
       </c>
       <c r="J102" s="3">
-        <v>-70500</v>
+        <v>-69500</v>
       </c>
       <c r="K102" s="3">
         <v>384300</v>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4871200</v>
+        <v>4952900</v>
       </c>
       <c r="E8" s="3">
-        <v>4608000</v>
+        <v>4952800</v>
       </c>
       <c r="F8" s="3">
-        <v>6456500</v>
+        <v>4685200</v>
       </c>
       <c r="G8" s="3">
-        <v>7102300</v>
+        <v>6564700</v>
       </c>
       <c r="H8" s="3">
-        <v>7632200</v>
+        <v>7221300</v>
       </c>
       <c r="I8" s="3">
-        <v>7090300</v>
+        <v>7760100</v>
       </c>
       <c r="J8" s="3">
+        <v>7209100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6489100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5664500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5105400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4416600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4745100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5203900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6694800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4519600</v>
+        <v>4827000</v>
       </c>
       <c r="E9" s="3">
-        <v>5012000</v>
+        <v>4595300</v>
       </c>
       <c r="F9" s="3">
-        <v>6350500</v>
+        <v>5095900</v>
       </c>
       <c r="G9" s="3">
-        <v>6963800</v>
+        <v>6456900</v>
       </c>
       <c r="H9" s="3">
-        <v>7349000</v>
+        <v>7080500</v>
       </c>
       <c r="I9" s="3">
-        <v>6484400</v>
+        <v>7472100</v>
       </c>
       <c r="J9" s="3">
+        <v>6593100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5871600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5235200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4635300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3847400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4462600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4851200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6789600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>351600</v>
+        <v>125800</v>
       </c>
       <c r="E10" s="3">
-        <v>-404000</v>
+        <v>357500</v>
       </c>
       <c r="F10" s="3">
-        <v>105900</v>
+        <v>-410800</v>
       </c>
       <c r="G10" s="3">
-        <v>138500</v>
+        <v>107700</v>
       </c>
       <c r="H10" s="3">
-        <v>283200</v>
+        <v>140900</v>
       </c>
       <c r="I10" s="3">
-        <v>605900</v>
+        <v>288000</v>
       </c>
       <c r="J10" s="3">
+        <v>616100</v>
+      </c>
+      <c r="K10" s="3">
         <v>617400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>429300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>470100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>569300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>282500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>352800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-94800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,34 +989,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-18600</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-18900</v>
       </c>
       <c r="F14" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="H14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1016,13 +1036,16 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>700</v>
@@ -1045,8 +1068,8 @@
       <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>700</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4521200</v>
+        <v>4836200</v>
       </c>
       <c r="E17" s="3">
-        <v>5029700</v>
+        <v>4597000</v>
       </c>
       <c r="F17" s="3">
-        <v>6353900</v>
+        <v>5114000</v>
       </c>
       <c r="G17" s="3">
-        <v>7001500</v>
+        <v>6460400</v>
       </c>
       <c r="H17" s="3">
-        <v>7339800</v>
+        <v>7118900</v>
       </c>
       <c r="I17" s="3">
-        <v>6522800</v>
+        <v>7462700</v>
       </c>
       <c r="J17" s="3">
+        <v>6632100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5905700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5265200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4660400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3883900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4473700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4895200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6807400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>350000</v>
+        <v>116600</v>
       </c>
       <c r="E18" s="3">
-        <v>-421800</v>
+        <v>355800</v>
       </c>
       <c r="F18" s="3">
-        <v>102600</v>
+        <v>-428800</v>
       </c>
       <c r="G18" s="3">
-        <v>100800</v>
+        <v>104300</v>
       </c>
       <c r="H18" s="3">
-        <v>292500</v>
+        <v>102500</v>
       </c>
       <c r="I18" s="3">
-        <v>567500</v>
+        <v>297400</v>
       </c>
       <c r="J18" s="3">
+        <v>577000</v>
+      </c>
+      <c r="K18" s="3">
         <v>583400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>399300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>445100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>532800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>271400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>308700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-112700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>106600</v>
+        <v>130900</v>
       </c>
       <c r="E20" s="3">
-        <v>70500</v>
+        <v>108400</v>
       </c>
       <c r="F20" s="3">
-        <v>101300</v>
+        <v>71700</v>
       </c>
       <c r="G20" s="3">
-        <v>112700</v>
+        <v>103000</v>
       </c>
       <c r="H20" s="3">
-        <v>67600</v>
+        <v>114500</v>
       </c>
       <c r="I20" s="3">
-        <v>137100</v>
+        <v>68700</v>
       </c>
       <c r="J20" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K20" s="3">
         <v>127500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>104500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>91600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>60700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>50500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>464800</v>
+        <v>394400</v>
       </c>
       <c r="E21" s="3">
-        <v>-231900</v>
+        <v>472600</v>
       </c>
       <c r="F21" s="3">
-        <v>203700</v>
+        <v>-235800</v>
       </c>
       <c r="G21" s="3">
-        <v>331100</v>
+        <v>207200</v>
       </c>
       <c r="H21" s="3">
-        <v>358500</v>
+        <v>336600</v>
       </c>
       <c r="I21" s="3">
-        <v>826400</v>
+        <v>364500</v>
       </c>
       <c r="J21" s="3">
+        <v>840200</v>
+      </c>
+      <c r="K21" s="3">
         <v>707600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>627000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>534400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>712400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>289400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>492100</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10100</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>10200</v>
       </c>
       <c r="F22" s="3">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
-        <v>11200</v>
-      </c>
       <c r="I22" s="3">
-        <v>5200</v>
+        <v>11300</v>
       </c>
       <c r="J22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>446600</v>
+        <v>241600</v>
       </c>
       <c r="E23" s="3">
-        <v>-355600</v>
+        <v>454000</v>
       </c>
       <c r="F23" s="3">
-        <v>198700</v>
+        <v>-361600</v>
       </c>
       <c r="G23" s="3">
-        <v>210300</v>
+        <v>202100</v>
       </c>
       <c r="H23" s="3">
-        <v>348900</v>
+        <v>213800</v>
       </c>
       <c r="I23" s="3">
-        <v>699400</v>
+        <v>354700</v>
       </c>
       <c r="J23" s="3">
+        <v>711100</v>
+      </c>
+      <c r="K23" s="3">
         <v>705000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>533900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>588500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>290500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>338400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-110900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89400</v>
+        <v>40900</v>
       </c>
       <c r="E24" s="3">
-        <v>-99500</v>
+        <v>90900</v>
       </c>
       <c r="F24" s="3">
-        <v>32900</v>
+        <v>-101200</v>
       </c>
       <c r="G24" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="H24" s="3">
-        <v>75200</v>
+        <v>33700</v>
       </c>
       <c r="I24" s="3">
-        <v>151500</v>
+        <v>76400</v>
       </c>
       <c r="J24" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K24" s="3">
         <v>158200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>123200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>136100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>73000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>357200</v>
+        <v>200700</v>
       </c>
       <c r="E26" s="3">
-        <v>-256100</v>
+        <v>363100</v>
       </c>
       <c r="F26" s="3">
-        <v>165900</v>
+        <v>-260400</v>
       </c>
       <c r="G26" s="3">
-        <v>177100</v>
+        <v>168600</v>
       </c>
       <c r="H26" s="3">
-        <v>273700</v>
+        <v>180000</v>
       </c>
       <c r="I26" s="3">
-        <v>548000</v>
+        <v>278300</v>
       </c>
       <c r="J26" s="3">
+        <v>557100</v>
+      </c>
+      <c r="K26" s="3">
         <v>546800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>397700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>410700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>452500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>225900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>265400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>356600</v>
+        <v>199800</v>
       </c>
       <c r="E27" s="3">
-        <v>-257300</v>
+        <v>362600</v>
       </c>
       <c r="F27" s="3">
-        <v>165100</v>
+        <v>-261600</v>
       </c>
       <c r="G27" s="3">
-        <v>176100</v>
+        <v>167900</v>
       </c>
       <c r="H27" s="3">
-        <v>274900</v>
+        <v>179000</v>
       </c>
       <c r="I27" s="3">
-        <v>546800</v>
+        <v>279500</v>
       </c>
       <c r="J27" s="3">
+        <v>556000</v>
+      </c>
+      <c r="K27" s="3">
         <v>545800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>397000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>409500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>451800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>223100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>262800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-106600</v>
+        <v>-130900</v>
       </c>
       <c r="E32" s="3">
-        <v>-70500</v>
+        <v>-108400</v>
       </c>
       <c r="F32" s="3">
-        <v>-101300</v>
+        <v>-71700</v>
       </c>
       <c r="G32" s="3">
-        <v>-112700</v>
+        <v>-103000</v>
       </c>
       <c r="H32" s="3">
-        <v>-67600</v>
+        <v>-114500</v>
       </c>
       <c r="I32" s="3">
-        <v>-137100</v>
+        <v>-68700</v>
       </c>
       <c r="J32" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-127500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-104500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-91600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-60700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-50500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>356600</v>
+        <v>199800</v>
       </c>
       <c r="E33" s="3">
-        <v>-257300</v>
+        <v>362600</v>
       </c>
       <c r="F33" s="3">
-        <v>165100</v>
+        <v>-261600</v>
       </c>
       <c r="G33" s="3">
-        <v>176100</v>
+        <v>167900</v>
       </c>
       <c r="H33" s="3">
-        <v>274900</v>
+        <v>179000</v>
       </c>
       <c r="I33" s="3">
-        <v>546800</v>
+        <v>279500</v>
       </c>
       <c r="J33" s="3">
+        <v>556000</v>
+      </c>
+      <c r="K33" s="3">
         <v>545800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>397000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>409500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>451800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>223100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>262800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>356600</v>
+        <v>199800</v>
       </c>
       <c r="E35" s="3">
-        <v>-257300</v>
+        <v>362600</v>
       </c>
       <c r="F35" s="3">
-        <v>165100</v>
+        <v>-261600</v>
       </c>
       <c r="G35" s="3">
-        <v>176100</v>
+        <v>167900</v>
       </c>
       <c r="H35" s="3">
-        <v>274900</v>
+        <v>179000</v>
       </c>
       <c r="I35" s="3">
-        <v>546800</v>
+        <v>279500</v>
       </c>
       <c r="J35" s="3">
+        <v>556000</v>
+      </c>
+      <c r="K35" s="3">
         <v>545800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>397000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>409500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>451800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>223100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>262800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,216 +2056,229 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1064100</v>
+        <v>212000</v>
       </c>
       <c r="E41" s="3">
-        <v>435200</v>
+        <v>1081900</v>
       </c>
       <c r="F41" s="3">
-        <v>1136800</v>
+        <v>442500</v>
       </c>
       <c r="G41" s="3">
-        <v>1528100</v>
+        <v>1155800</v>
       </c>
       <c r="H41" s="3">
-        <v>1342700</v>
+        <v>1553700</v>
       </c>
       <c r="I41" s="3">
-        <v>1940100</v>
+        <v>1365200</v>
       </c>
       <c r="J41" s="3">
+        <v>1972600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1151000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>765600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>635600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>810300</v>
+        <v>1100700</v>
       </c>
       <c r="E42" s="3">
-        <v>1112500</v>
+        <v>823900</v>
       </c>
       <c r="F42" s="3">
-        <v>990900</v>
+        <v>1131100</v>
       </c>
       <c r="G42" s="3">
-        <v>794900</v>
+        <v>1007500</v>
       </c>
       <c r="H42" s="3">
-        <v>911800</v>
+        <v>808200</v>
       </c>
       <c r="I42" s="3">
-        <v>311100</v>
+        <v>927100</v>
       </c>
       <c r="J42" s="3">
+        <v>316300</v>
+      </c>
+      <c r="K42" s="3">
         <v>312400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1215500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1200</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>188400</v>
+        <v>419400</v>
       </c>
       <c r="E43" s="3">
-        <v>307600</v>
+        <v>191600</v>
       </c>
       <c r="F43" s="3">
-        <v>263700</v>
+        <v>312700</v>
       </c>
       <c r="G43" s="3">
-        <v>405200</v>
+        <v>268200</v>
       </c>
       <c r="H43" s="3">
-        <v>381000</v>
+        <v>412000</v>
       </c>
       <c r="I43" s="3">
-        <v>621800</v>
+        <v>387300</v>
       </c>
       <c r="J43" s="3">
+        <v>632300</v>
+      </c>
+      <c r="K43" s="3">
         <v>544500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>481300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>451700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>523700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>428700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>557600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>598800</v>
+        <v>1166700</v>
       </c>
       <c r="E44" s="3">
-        <v>674600</v>
+        <v>608800</v>
       </c>
       <c r="F44" s="3">
-        <v>1040000</v>
+        <v>685900</v>
       </c>
       <c r="G44" s="3">
-        <v>1056100</v>
+        <v>1057500</v>
       </c>
       <c r="H44" s="3">
-        <v>1250500</v>
+        <v>1073800</v>
       </c>
       <c r="I44" s="3">
-        <v>1114400</v>
+        <v>1271400</v>
       </c>
       <c r="J44" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1015900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1072000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>894500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>664600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>620100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>858600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>3100</v>
       </c>
       <c r="F45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
-        <v>13600</v>
-      </c>
       <c r="H45" s="3">
-        <v>9600</v>
+        <v>13800</v>
       </c>
       <c r="I45" s="3">
-        <v>34000</v>
+        <v>9800</v>
       </c>
       <c r="J45" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K45" s="3">
         <v>35100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24100</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -2190,184 +2289,199 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2664600</v>
+        <v>2932000</v>
       </c>
       <c r="E46" s="3">
-        <v>2536800</v>
+        <v>2709200</v>
       </c>
       <c r="F46" s="3">
-        <v>3435200</v>
+        <v>2579300</v>
       </c>
       <c r="G46" s="3">
-        <v>3797900</v>
+        <v>3492700</v>
       </c>
       <c r="H46" s="3">
-        <v>3895500</v>
+        <v>3861600</v>
       </c>
       <c r="I46" s="3">
-        <v>4021400</v>
+        <v>3960800</v>
       </c>
       <c r="J46" s="3">
+        <v>4088700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3059000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2790100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2160400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1827000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1208600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1460900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1383100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1914800</v>
+        <v>1960300</v>
       </c>
       <c r="E47" s="3">
-        <v>1609900</v>
+        <v>1946900</v>
       </c>
       <c r="F47" s="3">
-        <v>1343500</v>
+        <v>1636900</v>
       </c>
       <c r="G47" s="3">
-        <v>770300</v>
+        <v>1366000</v>
       </c>
       <c r="H47" s="3">
-        <v>697100</v>
+        <v>783200</v>
       </c>
       <c r="I47" s="3">
-        <v>783200</v>
+        <v>708800</v>
       </c>
       <c r="J47" s="3">
+        <v>796300</v>
+      </c>
+      <c r="K47" s="3">
         <v>685500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>579600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>535700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>497100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>491400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>482900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2186800</v>
+        <v>2275800</v>
       </c>
       <c r="E48" s="3">
-        <v>2147400</v>
+        <v>2223400</v>
       </c>
       <c r="F48" s="3">
-        <v>2129200</v>
+        <v>2183400</v>
       </c>
       <c r="G48" s="3">
-        <v>2093400</v>
+        <v>2164900</v>
       </c>
       <c r="H48" s="3">
-        <v>2091400</v>
+        <v>2128400</v>
       </c>
       <c r="I48" s="3">
-        <v>2096100</v>
+        <v>2126500</v>
       </c>
       <c r="J48" s="3">
+        <v>2131300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2195600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2160500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2116300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2112000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2302000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2329700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65400</v>
+        <v>127100</v>
       </c>
       <c r="E49" s="3">
-        <v>73600</v>
+        <v>66500</v>
       </c>
       <c r="F49" s="3">
-        <v>74100</v>
+        <v>74800</v>
       </c>
       <c r="G49" s="3">
-        <v>70200</v>
+        <v>75400</v>
       </c>
       <c r="H49" s="3">
-        <v>132200</v>
+        <v>71300</v>
       </c>
       <c r="I49" s="3">
-        <v>108000</v>
+        <v>134400</v>
       </c>
       <c r="J49" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K49" s="3">
         <v>115100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>102500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>105500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>116200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>131600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38800</v>
+        <v>17200</v>
       </c>
       <c r="E52" s="3">
-        <v>125900</v>
+        <v>39500</v>
       </c>
       <c r="F52" s="3">
-        <v>23200</v>
+        <v>128000</v>
       </c>
       <c r="G52" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="H52" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>16300</v>
-      </c>
       <c r="J52" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6870500</v>
+        <v>7312300</v>
       </c>
       <c r="E54" s="3">
-        <v>6493600</v>
+        <v>6985600</v>
       </c>
       <c r="F54" s="3">
-        <v>7005200</v>
+        <v>6602400</v>
       </c>
       <c r="G54" s="3">
-        <v>6750300</v>
+        <v>7122600</v>
       </c>
       <c r="H54" s="3">
-        <v>6834500</v>
+        <v>6863400</v>
       </c>
       <c r="I54" s="3">
-        <v>7025000</v>
+        <v>6949100</v>
       </c>
       <c r="J54" s="3">
+        <v>7142700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6073500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5672700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4929900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4554200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4128900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4470200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4494600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,202 +2752,215 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>203300</v>
+        <v>499200</v>
       </c>
       <c r="E57" s="3">
-        <v>394200</v>
+        <v>206700</v>
       </c>
       <c r="F57" s="3">
-        <v>433700</v>
+        <v>400800</v>
       </c>
       <c r="G57" s="3">
-        <v>534000</v>
+        <v>440900</v>
       </c>
       <c r="H57" s="3">
-        <v>450100</v>
+        <v>543000</v>
       </c>
       <c r="I57" s="3">
-        <v>448000</v>
+        <v>457600</v>
       </c>
       <c r="J57" s="3">
+        <v>455500</v>
+      </c>
+      <c r="K57" s="3">
         <v>293900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>347800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>308500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>290500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>231900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>269700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>510700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>704500</v>
+        <v>712400</v>
       </c>
       <c r="E58" s="3">
-        <v>468400</v>
+        <v>716300</v>
       </c>
       <c r="F58" s="3">
-        <v>240100</v>
+        <v>476200</v>
       </c>
       <c r="G58" s="3">
-        <v>169500</v>
+        <v>244100</v>
       </c>
       <c r="H58" s="3">
-        <v>76600</v>
+        <v>172300</v>
       </c>
       <c r="I58" s="3">
-        <v>214900</v>
+        <v>77800</v>
       </c>
       <c r="J58" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K58" s="3">
         <v>93300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>79400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>123300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>307200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>625900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>593100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1437700</v>
+        <v>1457500</v>
       </c>
       <c r="E59" s="3">
         <v>1461800</v>
       </c>
       <c r="F59" s="3">
-        <v>1709800</v>
+        <v>1486300</v>
       </c>
       <c r="G59" s="3">
-        <v>1591500</v>
+        <v>1738500</v>
       </c>
       <c r="H59" s="3">
-        <v>1615700</v>
+        <v>1618200</v>
       </c>
       <c r="I59" s="3">
-        <v>1916800</v>
+        <v>1642700</v>
       </c>
       <c r="J59" s="3">
+        <v>1948900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1294600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1425300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>910900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>961700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>607600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>814900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2345500</v>
+        <v>2669100</v>
       </c>
       <c r="E60" s="3">
-        <v>2324300</v>
+        <v>2384800</v>
       </c>
       <c r="F60" s="3">
-        <v>2383600</v>
+        <v>2363300</v>
       </c>
       <c r="G60" s="3">
-        <v>2295000</v>
+        <v>2423500</v>
       </c>
       <c r="H60" s="3">
-        <v>2142300</v>
+        <v>2333400</v>
       </c>
       <c r="I60" s="3">
-        <v>2579700</v>
+        <v>2178200</v>
       </c>
       <c r="J60" s="3">
+        <v>2622900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1681800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1866900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1298700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1375500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1146700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1710500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1815700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>1000</v>
-      </c>
       <c r="F61" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H61" s="3">
         <v>3300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2837,13 +2980,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>237400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,10 +2997,10 @@
         <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="F62" s="3">
-        <v>1500</v>
+        <v>7400</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
@@ -2863,13 +3009,13 @@
         <v>1600</v>
       </c>
       <c r="I62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2880,14 +3026,17 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>2400</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2374500</v>
+        <v>2702400</v>
       </c>
       <c r="E66" s="3">
-        <v>2353900</v>
+        <v>2414300</v>
       </c>
       <c r="F66" s="3">
-        <v>2406800</v>
+        <v>2393400</v>
       </c>
       <c r="G66" s="3">
-        <v>2318800</v>
+        <v>2447200</v>
       </c>
       <c r="H66" s="3">
-        <v>2161900</v>
+        <v>2357600</v>
       </c>
       <c r="I66" s="3">
-        <v>2626000</v>
+        <v>2198100</v>
       </c>
       <c r="J66" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1726600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1910000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1339500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1415200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1190700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1756800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2095000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2812800</v>
+        <v>2890400</v>
       </c>
       <c r="E72" s="3">
-        <v>2457900</v>
+        <v>2859900</v>
       </c>
       <c r="F72" s="3">
-        <v>2915200</v>
+        <v>2499000</v>
       </c>
       <c r="G72" s="3">
-        <v>2748400</v>
+        <v>2964100</v>
       </c>
       <c r="H72" s="3">
-        <v>2989600</v>
+        <v>2794500</v>
       </c>
       <c r="I72" s="3">
-        <v>2715900</v>
+        <v>3039700</v>
       </c>
       <c r="J72" s="3">
+        <v>2761400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2672100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2112600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2021900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1589400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1335300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1110600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4495900</v>
+        <v>4609800</v>
       </c>
       <c r="E76" s="3">
-        <v>4139700</v>
+        <v>4571200</v>
       </c>
       <c r="F76" s="3">
-        <v>4598300</v>
+        <v>4209000</v>
       </c>
       <c r="G76" s="3">
-        <v>4431500</v>
+        <v>4675400</v>
       </c>
       <c r="H76" s="3">
-        <v>4672700</v>
+        <v>4505800</v>
       </c>
       <c r="I76" s="3">
-        <v>4399000</v>
+        <v>4751000</v>
       </c>
       <c r="J76" s="3">
+        <v>4472700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4346900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3762700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3590400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3138900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2938100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2713400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>356600</v>
+        <v>199800</v>
       </c>
       <c r="E81" s="3">
-        <v>-257300</v>
+        <v>362600</v>
       </c>
       <c r="F81" s="3">
-        <v>165100</v>
+        <v>-261600</v>
       </c>
       <c r="G81" s="3">
-        <v>176100</v>
+        <v>167900</v>
       </c>
       <c r="H81" s="3">
-        <v>274900</v>
+        <v>179000</v>
       </c>
       <c r="I81" s="3">
-        <v>546800</v>
+        <v>279500</v>
       </c>
       <c r="J81" s="3">
+        <v>556000</v>
+      </c>
+      <c r="K81" s="3">
         <v>545800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>397000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>409500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>451800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>223100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>262800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>711200</v>
+        <v>-382500</v>
       </c>
       <c r="E89" s="3">
-        <v>-452500</v>
+        <v>723100</v>
       </c>
       <c r="F89" s="3">
-        <v>744900</v>
+        <v>-460100</v>
       </c>
       <c r="G89" s="3">
-        <v>33900</v>
+        <v>757300</v>
       </c>
       <c r="H89" s="3">
-        <v>376600</v>
+        <v>34500</v>
       </c>
       <c r="I89" s="3">
-        <v>648800</v>
+        <v>382900</v>
       </c>
       <c r="J89" s="3">
+        <v>659700</v>
+      </c>
+      <c r="K89" s="3">
         <v>725300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>359100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>373000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>661900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>468400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>263700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>79700</v>
+        <v>-233900</v>
       </c>
       <c r="E91" s="3">
-        <v>-107200</v>
+        <v>81100</v>
       </c>
       <c r="F91" s="3">
-        <v>74200</v>
+        <v>-109000</v>
       </c>
       <c r="G91" s="3">
-        <v>-87100</v>
+        <v>75500</v>
       </c>
       <c r="H91" s="3">
-        <v>32000</v>
+        <v>-88500</v>
       </c>
       <c r="I91" s="3">
-        <v>-54100</v>
+        <v>32500</v>
       </c>
       <c r="J91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K91" s="3">
         <v>42000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>35400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46500</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-118100</v>
+        <v>-486300</v>
       </c>
       <c r="E94" s="3">
-        <v>-480500</v>
+        <v>-120100</v>
       </c>
       <c r="F94" s="3">
-        <v>-775200</v>
+        <v>-488600</v>
       </c>
       <c r="G94" s="3">
-        <v>63300</v>
+        <v>-788200</v>
       </c>
       <c r="H94" s="3">
-        <v>-304400</v>
+        <v>64400</v>
       </c>
       <c r="I94" s="3">
-        <v>7400</v>
+        <v>-309500</v>
       </c>
       <c r="J94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-386800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,20 +4384,21 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-199100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-202400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4181,11 +4415,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-157500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32700</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>226200</v>
+        <v>33300</v>
       </c>
       <c r="F100" s="3">
-        <v>-353900</v>
+        <v>230000</v>
       </c>
       <c r="G100" s="3">
-        <v>86400</v>
+        <v>-359900</v>
       </c>
       <c r="H100" s="3">
-        <v>-666600</v>
+        <v>87800</v>
       </c>
       <c r="I100" s="3">
-        <v>126500</v>
+        <v>-677700</v>
       </c>
       <c r="J100" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-408500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-203500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-177300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-326500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-222000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-339200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
-        <v>600</v>
-      </c>
       <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J101" s="3">
         <v>3800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>623800</v>
+        <v>-868800</v>
       </c>
       <c r="E102" s="3">
-        <v>-705900</v>
+        <v>634200</v>
       </c>
       <c r="F102" s="3">
-        <v>-383600</v>
+        <v>-717700</v>
       </c>
       <c r="G102" s="3">
-        <v>184600</v>
+        <v>-390000</v>
       </c>
       <c r="H102" s="3">
-        <v>-595900</v>
+        <v>187700</v>
       </c>
       <c r="I102" s="3">
-        <v>786500</v>
+        <v>-605900</v>
       </c>
       <c r="J102" s="3">
+        <v>799700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-69500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>384300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>143700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>484100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4952900</v>
+        <v>4990800</v>
       </c>
       <c r="E8" s="3">
-        <v>4952800</v>
+        <v>4990800</v>
       </c>
       <c r="F8" s="3">
-        <v>4685200</v>
+        <v>4721100</v>
       </c>
       <c r="G8" s="3">
-        <v>6564700</v>
+        <v>6615000</v>
       </c>
       <c r="H8" s="3">
-        <v>7221300</v>
+        <v>7276700</v>
       </c>
       <c r="I8" s="3">
-        <v>7760100</v>
+        <v>7819600</v>
       </c>
       <c r="J8" s="3">
-        <v>7209100</v>
+        <v>7264400</v>
       </c>
       <c r="K8" s="3">
         <v>6489100</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4827000</v>
+        <v>4864000</v>
       </c>
       <c r="E9" s="3">
-        <v>4595300</v>
+        <v>4630500</v>
       </c>
       <c r="F9" s="3">
-        <v>5095900</v>
+        <v>5135000</v>
       </c>
       <c r="G9" s="3">
-        <v>6456900</v>
+        <v>6506400</v>
       </c>
       <c r="H9" s="3">
-        <v>7080500</v>
+        <v>7134800</v>
       </c>
       <c r="I9" s="3">
-        <v>7472100</v>
+        <v>7529400</v>
       </c>
       <c r="J9" s="3">
-        <v>6593100</v>
+        <v>6643600</v>
       </c>
       <c r="K9" s="3">
         <v>5871600</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>125800</v>
+        <v>126800</v>
       </c>
       <c r="E10" s="3">
-        <v>357500</v>
+        <v>360200</v>
       </c>
       <c r="F10" s="3">
-        <v>-410800</v>
+        <v>-413900</v>
       </c>
       <c r="G10" s="3">
-        <v>107700</v>
+        <v>108500</v>
       </c>
       <c r="H10" s="3">
-        <v>140900</v>
+        <v>141900</v>
       </c>
       <c r="I10" s="3">
-        <v>288000</v>
+        <v>290200</v>
       </c>
       <c r="J10" s="3">
-        <v>616100</v>
+        <v>620800</v>
       </c>
       <c r="K10" s="3">
         <v>617400</v>
@@ -1001,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4836200</v>
+        <v>4873300</v>
       </c>
       <c r="E17" s="3">
-        <v>4597000</v>
+        <v>4632200</v>
       </c>
       <c r="F17" s="3">
-        <v>5114000</v>
+        <v>5153200</v>
       </c>
       <c r="G17" s="3">
-        <v>6460400</v>
+        <v>6509900</v>
       </c>
       <c r="H17" s="3">
-        <v>7118900</v>
+        <v>7173400</v>
       </c>
       <c r="I17" s="3">
-        <v>7462700</v>
+        <v>7519900</v>
       </c>
       <c r="J17" s="3">
-        <v>6632100</v>
+        <v>6682900</v>
       </c>
       <c r="K17" s="3">
         <v>5905700</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>116600</v>
+        <v>117500</v>
       </c>
       <c r="E18" s="3">
-        <v>355800</v>
+        <v>358600</v>
       </c>
       <c r="F18" s="3">
-        <v>-428800</v>
+        <v>-432100</v>
       </c>
       <c r="G18" s="3">
-        <v>104300</v>
+        <v>105100</v>
       </c>
       <c r="H18" s="3">
-        <v>102500</v>
+        <v>103300</v>
       </c>
       <c r="I18" s="3">
-        <v>297400</v>
+        <v>299700</v>
       </c>
       <c r="J18" s="3">
-        <v>577000</v>
+        <v>581400</v>
       </c>
       <c r="K18" s="3">
         <v>583400</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>130900</v>
+        <v>131900</v>
       </c>
       <c r="E20" s="3">
-        <v>108400</v>
+        <v>109300</v>
       </c>
       <c r="F20" s="3">
-        <v>71700</v>
+        <v>72200</v>
       </c>
       <c r="G20" s="3">
-        <v>103000</v>
+        <v>103800</v>
       </c>
       <c r="H20" s="3">
-        <v>114500</v>
+        <v>115400</v>
       </c>
       <c r="I20" s="3">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="J20" s="3">
-        <v>139400</v>
+        <v>140500</v>
       </c>
       <c r="K20" s="3">
         <v>127500</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>394400</v>
+        <v>397400</v>
       </c>
       <c r="E21" s="3">
-        <v>472600</v>
+        <v>476200</v>
       </c>
       <c r="F21" s="3">
-        <v>-235800</v>
+        <v>-237600</v>
       </c>
       <c r="G21" s="3">
-        <v>207200</v>
+        <v>208700</v>
       </c>
       <c r="H21" s="3">
-        <v>336600</v>
+        <v>339200</v>
       </c>
       <c r="I21" s="3">
-        <v>364500</v>
+        <v>367300</v>
       </c>
       <c r="J21" s="3">
-        <v>840200</v>
+        <v>846700</v>
       </c>
       <c r="K21" s="3">
         <v>707600</v>
@@ -1318,7 +1318,7 @@
         <v>6000</v>
       </c>
       <c r="E22" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F22" s="3">
         <v>4400</v>
@@ -1327,10 +1327,10 @@
         <v>5200</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I22" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="J22" s="3">
         <v>5300</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>241600</v>
+        <v>243400</v>
       </c>
       <c r="E23" s="3">
-        <v>454000</v>
+        <v>457500</v>
       </c>
       <c r="F23" s="3">
-        <v>-361600</v>
+        <v>-364300</v>
       </c>
       <c r="G23" s="3">
-        <v>202100</v>
+        <v>203600</v>
       </c>
       <c r="H23" s="3">
-        <v>213800</v>
+        <v>215400</v>
       </c>
       <c r="I23" s="3">
-        <v>354700</v>
+        <v>357500</v>
       </c>
       <c r="J23" s="3">
-        <v>711100</v>
+        <v>716600</v>
       </c>
       <c r="K23" s="3">
         <v>705000</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="E24" s="3">
-        <v>90900</v>
+        <v>91600</v>
       </c>
       <c r="F24" s="3">
-        <v>-101200</v>
+        <v>-102000</v>
       </c>
       <c r="G24" s="3">
-        <v>33400</v>
+        <v>33700</v>
       </c>
       <c r="H24" s="3">
-        <v>33700</v>
+        <v>34000</v>
       </c>
       <c r="I24" s="3">
-        <v>76400</v>
+        <v>77000</v>
       </c>
       <c r="J24" s="3">
-        <v>154000</v>
+        <v>155200</v>
       </c>
       <c r="K24" s="3">
         <v>158200</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200700</v>
+        <v>202200</v>
       </c>
       <c r="E26" s="3">
-        <v>363100</v>
+        <v>365900</v>
       </c>
       <c r="F26" s="3">
-        <v>-260400</v>
+        <v>-262400</v>
       </c>
       <c r="G26" s="3">
-        <v>168600</v>
+        <v>169900</v>
       </c>
       <c r="H26" s="3">
-        <v>180000</v>
+        <v>181400</v>
       </c>
       <c r="I26" s="3">
-        <v>278300</v>
+        <v>280400</v>
       </c>
       <c r="J26" s="3">
-        <v>557100</v>
+        <v>561400</v>
       </c>
       <c r="K26" s="3">
         <v>546800</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>199800</v>
+        <v>201400</v>
       </c>
       <c r="E27" s="3">
-        <v>362600</v>
+        <v>365400</v>
       </c>
       <c r="F27" s="3">
-        <v>-261600</v>
+        <v>-263600</v>
       </c>
       <c r="G27" s="3">
-        <v>167900</v>
+        <v>169100</v>
       </c>
       <c r="H27" s="3">
-        <v>179000</v>
+        <v>180400</v>
       </c>
       <c r="I27" s="3">
-        <v>279500</v>
+        <v>281600</v>
       </c>
       <c r="J27" s="3">
-        <v>556000</v>
+        <v>560200</v>
       </c>
       <c r="K27" s="3">
         <v>545800</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-130900</v>
+        <v>-131900</v>
       </c>
       <c r="E32" s="3">
-        <v>-108400</v>
+        <v>-109300</v>
       </c>
       <c r="F32" s="3">
-        <v>-71700</v>
+        <v>-72200</v>
       </c>
       <c r="G32" s="3">
-        <v>-103000</v>
+        <v>-103800</v>
       </c>
       <c r="H32" s="3">
-        <v>-114500</v>
+        <v>-115400</v>
       </c>
       <c r="I32" s="3">
-        <v>-68700</v>
+        <v>-69200</v>
       </c>
       <c r="J32" s="3">
-        <v>-139400</v>
+        <v>-140500</v>
       </c>
       <c r="K32" s="3">
         <v>-127500</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>199800</v>
+        <v>201400</v>
       </c>
       <c r="E33" s="3">
-        <v>362600</v>
+        <v>365400</v>
       </c>
       <c r="F33" s="3">
-        <v>-261600</v>
+        <v>-263600</v>
       </c>
       <c r="G33" s="3">
-        <v>167900</v>
+        <v>169100</v>
       </c>
       <c r="H33" s="3">
-        <v>179000</v>
+        <v>180400</v>
       </c>
       <c r="I33" s="3">
-        <v>279500</v>
+        <v>281600</v>
       </c>
       <c r="J33" s="3">
-        <v>556000</v>
+        <v>560200</v>
       </c>
       <c r="K33" s="3">
         <v>545800</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>199800</v>
+        <v>201400</v>
       </c>
       <c r="E35" s="3">
-        <v>362600</v>
+        <v>365400</v>
       </c>
       <c r="F35" s="3">
-        <v>-261600</v>
+        <v>-263600</v>
       </c>
       <c r="G35" s="3">
-        <v>167900</v>
+        <v>169100</v>
       </c>
       <c r="H35" s="3">
-        <v>179000</v>
+        <v>180400</v>
       </c>
       <c r="I35" s="3">
-        <v>279500</v>
+        <v>281600</v>
       </c>
       <c r="J35" s="3">
-        <v>556000</v>
+        <v>560200</v>
       </c>
       <c r="K35" s="3">
         <v>545800</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>212000</v>
+        <v>213700</v>
       </c>
       <c r="E41" s="3">
-        <v>1081900</v>
+        <v>1090200</v>
       </c>
       <c r="F41" s="3">
-        <v>442500</v>
+        <v>445900</v>
       </c>
       <c r="G41" s="3">
-        <v>1155800</v>
+        <v>1164700</v>
       </c>
       <c r="H41" s="3">
-        <v>1553700</v>
+        <v>1565600</v>
       </c>
       <c r="I41" s="3">
-        <v>1365200</v>
+        <v>1375600</v>
       </c>
       <c r="J41" s="3">
-        <v>1972600</v>
+        <v>1987700</v>
       </c>
       <c r="K41" s="3">
         <v>1151000</v>
@@ -2110,25 +2110,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1100700</v>
+        <v>1109100</v>
       </c>
       <c r="E42" s="3">
-        <v>823900</v>
+        <v>830200</v>
       </c>
       <c r="F42" s="3">
-        <v>1131100</v>
+        <v>1139800</v>
       </c>
       <c r="G42" s="3">
-        <v>1007500</v>
+        <v>1015300</v>
       </c>
       <c r="H42" s="3">
-        <v>808200</v>
+        <v>814400</v>
       </c>
       <c r="I42" s="3">
-        <v>927100</v>
+        <v>934200</v>
       </c>
       <c r="J42" s="3">
-        <v>316300</v>
+        <v>318700</v>
       </c>
       <c r="K42" s="3">
         <v>312400</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>419400</v>
+        <v>422600</v>
       </c>
       <c r="E43" s="3">
-        <v>191600</v>
+        <v>193000</v>
       </c>
       <c r="F43" s="3">
-        <v>312700</v>
+        <v>315100</v>
       </c>
       <c r="G43" s="3">
-        <v>268200</v>
+        <v>270200</v>
       </c>
       <c r="H43" s="3">
-        <v>412000</v>
+        <v>415200</v>
       </c>
       <c r="I43" s="3">
-        <v>387300</v>
+        <v>390300</v>
       </c>
       <c r="J43" s="3">
-        <v>632300</v>
+        <v>637100</v>
       </c>
       <c r="K43" s="3">
         <v>544500</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1166700</v>
+        <v>1175700</v>
       </c>
       <c r="E44" s="3">
-        <v>608800</v>
+        <v>613500</v>
       </c>
       <c r="F44" s="3">
-        <v>685900</v>
+        <v>691200</v>
       </c>
       <c r="G44" s="3">
-        <v>1057500</v>
+        <v>1065600</v>
       </c>
       <c r="H44" s="3">
-        <v>1073800</v>
+        <v>1082000</v>
       </c>
       <c r="I44" s="3">
-        <v>1271400</v>
+        <v>1281100</v>
       </c>
       <c r="J44" s="3">
-        <v>1133000</v>
+        <v>1141700</v>
       </c>
       <c r="K44" s="3">
         <v>1015900</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33100</v>
+        <v>33400</v>
       </c>
       <c r="E45" s="3">
         <v>3100</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G45" s="3">
         <v>3700</v>
       </c>
       <c r="H45" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I45" s="3">
         <v>9800</v>
       </c>
       <c r="J45" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="K45" s="3">
         <v>35100</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2932000</v>
+        <v>2954400</v>
       </c>
       <c r="E46" s="3">
-        <v>2709200</v>
+        <v>2730000</v>
       </c>
       <c r="F46" s="3">
-        <v>2579300</v>
+        <v>2599100</v>
       </c>
       <c r="G46" s="3">
-        <v>3492700</v>
+        <v>3519500</v>
       </c>
       <c r="H46" s="3">
-        <v>3861600</v>
+        <v>3891200</v>
       </c>
       <c r="I46" s="3">
-        <v>3960800</v>
+        <v>3991200</v>
       </c>
       <c r="J46" s="3">
-        <v>4088700</v>
+        <v>4120100</v>
       </c>
       <c r="K46" s="3">
         <v>3059000</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1960300</v>
+        <v>1975300</v>
       </c>
       <c r="E47" s="3">
-        <v>1946900</v>
+        <v>1961900</v>
       </c>
       <c r="F47" s="3">
-        <v>1636900</v>
+        <v>1649400</v>
       </c>
       <c r="G47" s="3">
-        <v>1366000</v>
+        <v>1376500</v>
       </c>
       <c r="H47" s="3">
-        <v>783200</v>
+        <v>789200</v>
       </c>
       <c r="I47" s="3">
-        <v>708800</v>
+        <v>714200</v>
       </c>
       <c r="J47" s="3">
-        <v>796300</v>
+        <v>802400</v>
       </c>
       <c r="K47" s="3">
         <v>685500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2275800</v>
+        <v>2293200</v>
       </c>
       <c r="E48" s="3">
-        <v>2223400</v>
+        <v>2240400</v>
       </c>
       <c r="F48" s="3">
-        <v>2183400</v>
+        <v>2200100</v>
       </c>
       <c r="G48" s="3">
-        <v>2164900</v>
+        <v>2181500</v>
       </c>
       <c r="H48" s="3">
-        <v>2128400</v>
+        <v>2144700</v>
       </c>
       <c r="I48" s="3">
-        <v>2126500</v>
+        <v>2142800</v>
       </c>
       <c r="J48" s="3">
-        <v>2131300</v>
+        <v>2147600</v>
       </c>
       <c r="K48" s="3">
         <v>2195600</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127100</v>
+        <v>128000</v>
       </c>
       <c r="E49" s="3">
-        <v>66500</v>
+        <v>67000</v>
       </c>
       <c r="F49" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="G49" s="3">
-        <v>75400</v>
+        <v>75900</v>
       </c>
       <c r="H49" s="3">
-        <v>71300</v>
+        <v>71900</v>
       </c>
       <c r="I49" s="3">
-        <v>134400</v>
+        <v>135400</v>
       </c>
       <c r="J49" s="3">
-        <v>109800</v>
+        <v>110600</v>
       </c>
       <c r="K49" s="3">
         <v>115100</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="E52" s="3">
-        <v>39500</v>
+        <v>39800</v>
       </c>
       <c r="F52" s="3">
-        <v>128000</v>
+        <v>129000</v>
       </c>
       <c r="G52" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="H52" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="J52" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="K52" s="3">
         <v>18400</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7312300</v>
+        <v>7368300</v>
       </c>
       <c r="E54" s="3">
-        <v>6985600</v>
+        <v>7039100</v>
       </c>
       <c r="F54" s="3">
-        <v>6602400</v>
+        <v>6653000</v>
       </c>
       <c r="G54" s="3">
-        <v>7122600</v>
+        <v>7177100</v>
       </c>
       <c r="H54" s="3">
-        <v>6863400</v>
+        <v>6916000</v>
       </c>
       <c r="I54" s="3">
-        <v>6949100</v>
+        <v>7002300</v>
       </c>
       <c r="J54" s="3">
-        <v>7142700</v>
+        <v>7197400</v>
       </c>
       <c r="K54" s="3">
         <v>6073500</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>499200</v>
+        <v>503000</v>
       </c>
       <c r="E57" s="3">
-        <v>206700</v>
+        <v>208300</v>
       </c>
       <c r="F57" s="3">
-        <v>400800</v>
+        <v>403900</v>
       </c>
       <c r="G57" s="3">
-        <v>440900</v>
+        <v>444300</v>
       </c>
       <c r="H57" s="3">
-        <v>543000</v>
+        <v>547100</v>
       </c>
       <c r="I57" s="3">
-        <v>457600</v>
+        <v>461100</v>
       </c>
       <c r="J57" s="3">
-        <v>455500</v>
+        <v>459000</v>
       </c>
       <c r="K57" s="3">
         <v>293900</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>712400</v>
+        <v>717900</v>
       </c>
       <c r="E58" s="3">
-        <v>716300</v>
+        <v>721800</v>
       </c>
       <c r="F58" s="3">
-        <v>476200</v>
+        <v>479900</v>
       </c>
       <c r="G58" s="3">
-        <v>244100</v>
+        <v>246000</v>
       </c>
       <c r="H58" s="3">
-        <v>172300</v>
+        <v>173600</v>
       </c>
       <c r="I58" s="3">
-        <v>77800</v>
+        <v>78400</v>
       </c>
       <c r="J58" s="3">
-        <v>218500</v>
+        <v>220200</v>
       </c>
       <c r="K58" s="3">
         <v>93300</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1457500</v>
+        <v>1468600</v>
       </c>
       <c r="E59" s="3">
-        <v>1461800</v>
+        <v>1473000</v>
       </c>
       <c r="F59" s="3">
-        <v>1486300</v>
+        <v>1497700</v>
       </c>
       <c r="G59" s="3">
-        <v>1738500</v>
+        <v>1751800</v>
       </c>
       <c r="H59" s="3">
-        <v>1618200</v>
+        <v>1630600</v>
       </c>
       <c r="I59" s="3">
-        <v>1642700</v>
+        <v>1655300</v>
       </c>
       <c r="J59" s="3">
-        <v>1948900</v>
+        <v>1963900</v>
       </c>
       <c r="K59" s="3">
         <v>1294600</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2669100</v>
+        <v>2689600</v>
       </c>
       <c r="E60" s="3">
-        <v>2384800</v>
+        <v>2403000</v>
       </c>
       <c r="F60" s="3">
-        <v>2363300</v>
+        <v>2381400</v>
       </c>
       <c r="G60" s="3">
-        <v>2423500</v>
+        <v>2442100</v>
       </c>
       <c r="H60" s="3">
-        <v>2333400</v>
+        <v>2351300</v>
       </c>
       <c r="I60" s="3">
-        <v>2178200</v>
+        <v>2194900</v>
       </c>
       <c r="J60" s="3">
-        <v>2622900</v>
+        <v>2643000</v>
       </c>
       <c r="K60" s="3">
         <v>1681800</v>
@@ -2959,7 +2959,7 @@
         <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F62" s="3">
         <v>7400</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2702400</v>
+        <v>2723100</v>
       </c>
       <c r="E66" s="3">
-        <v>2414300</v>
+        <v>2432800</v>
       </c>
       <c r="F66" s="3">
-        <v>2393400</v>
+        <v>2411700</v>
       </c>
       <c r="G66" s="3">
-        <v>2447200</v>
+        <v>2465900</v>
       </c>
       <c r="H66" s="3">
-        <v>2357600</v>
+        <v>2375700</v>
       </c>
       <c r="I66" s="3">
-        <v>2198100</v>
+        <v>2214900</v>
       </c>
       <c r="J66" s="3">
-        <v>2670000</v>
+        <v>2690400</v>
       </c>
       <c r="K66" s="3">
         <v>1726600</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2890400</v>
+        <v>2912600</v>
       </c>
       <c r="E72" s="3">
-        <v>2859900</v>
+        <v>2881900</v>
       </c>
       <c r="F72" s="3">
-        <v>2499000</v>
+        <v>2518200</v>
       </c>
       <c r="G72" s="3">
-        <v>2964100</v>
+        <v>2986800</v>
       </c>
       <c r="H72" s="3">
-        <v>2794500</v>
+        <v>2815900</v>
       </c>
       <c r="I72" s="3">
-        <v>3039700</v>
+        <v>3063000</v>
       </c>
       <c r="J72" s="3">
-        <v>2761400</v>
+        <v>2782600</v>
       </c>
       <c r="K72" s="3">
         <v>2672100</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4609800</v>
+        <v>4645200</v>
       </c>
       <c r="E76" s="3">
-        <v>4571200</v>
+        <v>4606300</v>
       </c>
       <c r="F76" s="3">
-        <v>4209000</v>
+        <v>4241300</v>
       </c>
       <c r="G76" s="3">
-        <v>4675400</v>
+        <v>4711200</v>
       </c>
       <c r="H76" s="3">
-        <v>4505800</v>
+        <v>4540300</v>
       </c>
       <c r="I76" s="3">
-        <v>4751000</v>
+        <v>4787400</v>
       </c>
       <c r="J76" s="3">
-        <v>4472700</v>
+        <v>4507000</v>
       </c>
       <c r="K76" s="3">
         <v>4346900</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>199800</v>
+        <v>201400</v>
       </c>
       <c r="E81" s="3">
-        <v>362600</v>
+        <v>365400</v>
       </c>
       <c r="F81" s="3">
-        <v>-261600</v>
+        <v>-263600</v>
       </c>
       <c r="G81" s="3">
-        <v>167900</v>
+        <v>169100</v>
       </c>
       <c r="H81" s="3">
-        <v>179000</v>
+        <v>180400</v>
       </c>
       <c r="I81" s="3">
-        <v>279500</v>
+        <v>281600</v>
       </c>
       <c r="J81" s="3">
-        <v>556000</v>
+        <v>560200</v>
       </c>
       <c r="K81" s="3">
         <v>545800</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-382500</v>
+        <v>-385500</v>
       </c>
       <c r="E89" s="3">
-        <v>723100</v>
+        <v>728700</v>
       </c>
       <c r="F89" s="3">
-        <v>-460100</v>
+        <v>-463600</v>
       </c>
       <c r="G89" s="3">
-        <v>757300</v>
+        <v>763100</v>
       </c>
       <c r="H89" s="3">
-        <v>34500</v>
+        <v>34800</v>
       </c>
       <c r="I89" s="3">
-        <v>382900</v>
+        <v>385900</v>
       </c>
       <c r="J89" s="3">
-        <v>659700</v>
+        <v>664700</v>
       </c>
       <c r="K89" s="3">
         <v>725300</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-233900</v>
+        <v>-235700</v>
       </c>
       <c r="E91" s="3">
-        <v>81100</v>
+        <v>81700</v>
       </c>
       <c r="F91" s="3">
-        <v>-109000</v>
+        <v>-109800</v>
       </c>
       <c r="G91" s="3">
-        <v>75500</v>
+        <v>76000</v>
       </c>
       <c r="H91" s="3">
-        <v>-88500</v>
+        <v>-89200</v>
       </c>
       <c r="I91" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="J91" s="3">
-        <v>-55000</v>
+        <v>-55400</v>
       </c>
       <c r="K91" s="3">
         <v>42000</v>
@@ -4325,22 +4325,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-486300</v>
+        <v>-490100</v>
       </c>
       <c r="E94" s="3">
-        <v>-120100</v>
+        <v>-121000</v>
       </c>
       <c r="F94" s="3">
-        <v>-488600</v>
+        <v>-492300</v>
       </c>
       <c r="G94" s="3">
-        <v>-788200</v>
+        <v>-794200</v>
       </c>
       <c r="H94" s="3">
-        <v>64400</v>
+        <v>64900</v>
       </c>
       <c r="I94" s="3">
-        <v>-309500</v>
+        <v>-311800</v>
       </c>
       <c r="J94" s="3">
         <v>7600</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-202400</v>
+        <v>-204000</v>
       </c>
       <c r="F96" s="3">
         <v>-100</v>
@@ -4582,22 +4582,22 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="F100" s="3">
-        <v>230000</v>
+        <v>231800</v>
       </c>
       <c r="G100" s="3">
-        <v>-359900</v>
+        <v>-362600</v>
       </c>
       <c r="H100" s="3">
-        <v>87800</v>
+        <v>88500</v>
       </c>
       <c r="I100" s="3">
-        <v>-677700</v>
+        <v>-682900</v>
       </c>
       <c r="J100" s="3">
-        <v>128600</v>
+        <v>129600</v>
       </c>
       <c r="K100" s="3">
         <v>-408500</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-868800</v>
+        <v>-875400</v>
       </c>
       <c r="E102" s="3">
-        <v>634200</v>
+        <v>639100</v>
       </c>
       <c r="F102" s="3">
-        <v>-717700</v>
+        <v>-723200</v>
       </c>
       <c r="G102" s="3">
-        <v>-390000</v>
+        <v>-393000</v>
       </c>
       <c r="H102" s="3">
-        <v>187700</v>
+        <v>189200</v>
       </c>
       <c r="I102" s="3">
-        <v>-605900</v>
+        <v>-610600</v>
       </c>
       <c r="J102" s="3">
-        <v>799700</v>
+        <v>805800</v>
       </c>
       <c r="K102" s="3">
         <v>-69500</v>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4990800</v>
+        <v>6521200</v>
       </c>
       <c r="E8" s="3">
-        <v>4990800</v>
+        <v>4661800</v>
       </c>
       <c r="F8" s="3">
-        <v>4721100</v>
+        <v>4661700</v>
       </c>
       <c r="G8" s="3">
-        <v>6615000</v>
+        <v>4409900</v>
       </c>
       <c r="H8" s="3">
-        <v>7276700</v>
+        <v>6178900</v>
       </c>
       <c r="I8" s="3">
-        <v>7819600</v>
+        <v>6797000</v>
       </c>
       <c r="J8" s="3">
+        <v>7304100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7264400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6489100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5664500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5105400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4416600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4745100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5203900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6694800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4864000</v>
+        <v>6405200</v>
       </c>
       <c r="E9" s="3">
-        <v>4630500</v>
+        <v>4543400</v>
       </c>
       <c r="F9" s="3">
-        <v>5135000</v>
+        <v>4325300</v>
       </c>
       <c r="G9" s="3">
-        <v>6506400</v>
+        <v>4796500</v>
       </c>
       <c r="H9" s="3">
-        <v>7134800</v>
+        <v>6077500</v>
       </c>
       <c r="I9" s="3">
-        <v>7529400</v>
+        <v>6664400</v>
       </c>
       <c r="J9" s="3">
+        <v>7033000</v>
+      </c>
+      <c r="K9" s="3">
         <v>6643600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5871600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5235200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4635300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3847400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4462600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4851200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6789600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>126800</v>
+        <v>116000</v>
       </c>
       <c r="E10" s="3">
-        <v>360200</v>
+        <v>118400</v>
       </c>
       <c r="F10" s="3">
-        <v>-413900</v>
+        <v>336500</v>
       </c>
       <c r="G10" s="3">
-        <v>108500</v>
+        <v>-386600</v>
       </c>
       <c r="H10" s="3">
-        <v>141900</v>
+        <v>101400</v>
       </c>
       <c r="I10" s="3">
-        <v>290200</v>
+        <v>132600</v>
       </c>
       <c r="J10" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K10" s="3">
         <v>620800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>617400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>429300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>470100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>569300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>282500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>352800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-94800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,37 +1009,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-19100</v>
-      </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-17800</v>
       </c>
       <c r="G14" s="3">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1039,16 +1059,19 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>700</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
@@ -1071,8 +1094,8 @@
       <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>700</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4873300</v>
+        <v>6419900</v>
       </c>
       <c r="E17" s="3">
-        <v>4632200</v>
+        <v>4552000</v>
       </c>
       <c r="F17" s="3">
-        <v>5153200</v>
+        <v>4326800</v>
       </c>
       <c r="G17" s="3">
-        <v>6509900</v>
+        <v>4813500</v>
       </c>
       <c r="H17" s="3">
-        <v>7173400</v>
+        <v>6080800</v>
       </c>
       <c r="I17" s="3">
-        <v>7519900</v>
+        <v>6700500</v>
       </c>
       <c r="J17" s="3">
+        <v>7024200</v>
+      </c>
+      <c r="K17" s="3">
         <v>6682900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5905700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5265200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4660400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3883900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4473700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4895200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6807400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>117500</v>
+        <v>101300</v>
       </c>
       <c r="E18" s="3">
-        <v>358600</v>
+        <v>109800</v>
       </c>
       <c r="F18" s="3">
-        <v>-432100</v>
+        <v>334900</v>
       </c>
       <c r="G18" s="3">
-        <v>105100</v>
+        <v>-403600</v>
       </c>
       <c r="H18" s="3">
-        <v>103300</v>
+        <v>98100</v>
       </c>
       <c r="I18" s="3">
-        <v>299700</v>
+        <v>96500</v>
       </c>
       <c r="J18" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K18" s="3">
         <v>581400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>583400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>399300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>445100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>532800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>271400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>308700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-112700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>131900</v>
+        <v>80600</v>
       </c>
       <c r="E20" s="3">
-        <v>109300</v>
+        <v>123200</v>
       </c>
       <c r="F20" s="3">
-        <v>72200</v>
+        <v>102100</v>
       </c>
       <c r="G20" s="3">
-        <v>103800</v>
+        <v>67500</v>
       </c>
       <c r="H20" s="3">
-        <v>115400</v>
+        <v>96900</v>
       </c>
       <c r="I20" s="3">
-        <v>69200</v>
+        <v>107800</v>
       </c>
       <c r="J20" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K20" s="3">
         <v>140500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>127500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>104500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>91600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>60700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>50500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>397400</v>
+        <v>185000</v>
       </c>
       <c r="E21" s="3">
-        <v>476200</v>
+        <v>354800</v>
       </c>
       <c r="F21" s="3">
-        <v>-237600</v>
+        <v>444800</v>
       </c>
       <c r="G21" s="3">
-        <v>208700</v>
+        <v>-221900</v>
       </c>
       <c r="H21" s="3">
-        <v>339200</v>
+        <v>195000</v>
       </c>
       <c r="I21" s="3">
-        <v>367300</v>
+        <v>316800</v>
       </c>
       <c r="J21" s="3">
+        <v>343100</v>
+      </c>
+      <c r="K21" s="3">
         <v>846700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>707600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>627000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>534400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>712400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>289400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>492100</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
-        <v>10300</v>
+        <v>5600</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="H22" s="3">
-        <v>3300</v>
+        <v>4900</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>243400</v>
+        <v>173600</v>
       </c>
       <c r="E23" s="3">
-        <v>457500</v>
+        <v>227400</v>
       </c>
       <c r="F23" s="3">
-        <v>-364300</v>
+        <v>427400</v>
       </c>
       <c r="G23" s="3">
-        <v>203600</v>
+        <v>-340300</v>
       </c>
       <c r="H23" s="3">
-        <v>215400</v>
+        <v>190200</v>
       </c>
       <c r="I23" s="3">
-        <v>357500</v>
+        <v>201200</v>
       </c>
       <c r="J23" s="3">
+        <v>333900</v>
+      </c>
+      <c r="K23" s="3">
         <v>716600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>705000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>533900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>588500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>290500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>338400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-110900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41200</v>
+        <v>56500</v>
       </c>
       <c r="E24" s="3">
-        <v>91600</v>
+        <v>38500</v>
       </c>
       <c r="F24" s="3">
-        <v>-102000</v>
+        <v>85600</v>
       </c>
       <c r="G24" s="3">
-        <v>33700</v>
+        <v>-95200</v>
       </c>
       <c r="H24" s="3">
-        <v>34000</v>
+        <v>31500</v>
       </c>
       <c r="I24" s="3">
-        <v>77000</v>
+        <v>31800</v>
       </c>
       <c r="J24" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K24" s="3">
         <v>155200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>158200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>102500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>123200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>136100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>73000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-30200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>202200</v>
+        <v>117100</v>
       </c>
       <c r="E26" s="3">
-        <v>365900</v>
+        <v>188900</v>
       </c>
       <c r="F26" s="3">
-        <v>-262400</v>
+        <v>341800</v>
       </c>
       <c r="G26" s="3">
-        <v>169900</v>
+        <v>-245100</v>
       </c>
       <c r="H26" s="3">
-        <v>181400</v>
+        <v>158700</v>
       </c>
       <c r="I26" s="3">
-        <v>280400</v>
+        <v>169500</v>
       </c>
       <c r="J26" s="3">
+        <v>261900</v>
+      </c>
+      <c r="K26" s="3">
         <v>561400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>546800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>397700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>410700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>452500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>225900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>265400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>201400</v>
+        <v>117400</v>
       </c>
       <c r="E27" s="3">
-        <v>365400</v>
+        <v>188100</v>
       </c>
       <c r="F27" s="3">
-        <v>-263600</v>
+        <v>341300</v>
       </c>
       <c r="G27" s="3">
-        <v>169100</v>
+        <v>-246200</v>
       </c>
       <c r="H27" s="3">
-        <v>180400</v>
+        <v>158000</v>
       </c>
       <c r="I27" s="3">
-        <v>281600</v>
+        <v>168500</v>
       </c>
       <c r="J27" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K27" s="3">
         <v>560200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>545800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>397000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>409500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>451800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>223100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>262800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-131900</v>
+        <v>-80600</v>
       </c>
       <c r="E32" s="3">
-        <v>-109300</v>
+        <v>-123200</v>
       </c>
       <c r="F32" s="3">
-        <v>-72200</v>
+        <v>-102100</v>
       </c>
       <c r="G32" s="3">
-        <v>-103800</v>
+        <v>-67500</v>
       </c>
       <c r="H32" s="3">
-        <v>-115400</v>
+        <v>-96900</v>
       </c>
       <c r="I32" s="3">
-        <v>-69200</v>
+        <v>-107800</v>
       </c>
       <c r="J32" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-140500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-127500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-104500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-91600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-60700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-50500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>201400</v>
+        <v>117400</v>
       </c>
       <c r="E33" s="3">
-        <v>365400</v>
+        <v>188100</v>
       </c>
       <c r="F33" s="3">
-        <v>-263600</v>
+        <v>341300</v>
       </c>
       <c r="G33" s="3">
-        <v>169100</v>
+        <v>-246200</v>
       </c>
       <c r="H33" s="3">
-        <v>180400</v>
+        <v>158000</v>
       </c>
       <c r="I33" s="3">
-        <v>281600</v>
+        <v>168500</v>
       </c>
       <c r="J33" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K33" s="3">
         <v>560200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>545800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>397000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>409500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>451800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>223100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>262800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>201400</v>
+        <v>117400</v>
       </c>
       <c r="E35" s="3">
-        <v>365400</v>
+        <v>188100</v>
       </c>
       <c r="F35" s="3">
-        <v>-263600</v>
+        <v>341300</v>
       </c>
       <c r="G35" s="3">
-        <v>169100</v>
+        <v>-246200</v>
       </c>
       <c r="H35" s="3">
-        <v>180400</v>
+        <v>158000</v>
       </c>
       <c r="I35" s="3">
-        <v>281600</v>
+        <v>168500</v>
       </c>
       <c r="J35" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K35" s="3">
         <v>560200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>545800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>397000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>409500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>451800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>223100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>262800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,231 +2143,244 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>213700</v>
+        <v>752800</v>
       </c>
       <c r="E41" s="3">
-        <v>1090200</v>
+        <v>199600</v>
       </c>
       <c r="F41" s="3">
-        <v>445900</v>
+        <v>1018400</v>
       </c>
       <c r="G41" s="3">
-        <v>1164700</v>
+        <v>416500</v>
       </c>
       <c r="H41" s="3">
-        <v>1565600</v>
+        <v>1087900</v>
       </c>
       <c r="I41" s="3">
-        <v>1375600</v>
+        <v>1462400</v>
       </c>
       <c r="J41" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1987700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1151000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>765600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>635600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>159100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1109100</v>
+        <v>1243400</v>
       </c>
       <c r="E42" s="3">
-        <v>830200</v>
+        <v>1036000</v>
       </c>
       <c r="F42" s="3">
-        <v>1139800</v>
+        <v>775400</v>
       </c>
       <c r="G42" s="3">
-        <v>1015300</v>
+        <v>1064700</v>
       </c>
       <c r="H42" s="3">
-        <v>814400</v>
+        <v>948300</v>
       </c>
       <c r="I42" s="3">
-        <v>934200</v>
+        <v>760700</v>
       </c>
       <c r="J42" s="3">
+        <v>872600</v>
+      </c>
+      <c r="K42" s="3">
         <v>318700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>312400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1215500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1200</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>422600</v>
+        <v>197100</v>
       </c>
       <c r="E43" s="3">
-        <v>193000</v>
+        <v>394800</v>
       </c>
       <c r="F43" s="3">
-        <v>315100</v>
+        <v>180300</v>
       </c>
       <c r="G43" s="3">
-        <v>270200</v>
+        <v>294300</v>
       </c>
       <c r="H43" s="3">
-        <v>415200</v>
+        <v>252400</v>
       </c>
       <c r="I43" s="3">
-        <v>390300</v>
+        <v>387800</v>
       </c>
       <c r="J43" s="3">
+        <v>364600</v>
+      </c>
+      <c r="K43" s="3">
         <v>637100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>544500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>481300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>451700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>523700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>428700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>557600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1175700</v>
+        <v>872900</v>
       </c>
       <c r="E44" s="3">
-        <v>613500</v>
+        <v>1098200</v>
       </c>
       <c r="F44" s="3">
-        <v>691200</v>
+        <v>573000</v>
       </c>
       <c r="G44" s="3">
-        <v>1065600</v>
+        <v>645600</v>
       </c>
       <c r="H44" s="3">
-        <v>1082000</v>
+        <v>995300</v>
       </c>
       <c r="I44" s="3">
-        <v>1281100</v>
+        <v>1010700</v>
       </c>
       <c r="J44" s="3">
+        <v>1196700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1141700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1015900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1072000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>894500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>664600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>620100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>858600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>18400</v>
       </c>
       <c r="E45" s="3">
-        <v>3100</v>
+        <v>31200</v>
       </c>
       <c r="F45" s="3">
-        <v>7200</v>
+        <v>2900</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>6700</v>
       </c>
       <c r="H45" s="3">
-        <v>13900</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3">
-        <v>9800</v>
+        <v>13000</v>
       </c>
       <c r="J45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K45" s="3">
         <v>34800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24100</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -2292,196 +2391,211 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2954400</v>
+        <v>3084600</v>
       </c>
       <c r="E46" s="3">
-        <v>2730000</v>
+        <v>2759700</v>
       </c>
       <c r="F46" s="3">
-        <v>2599100</v>
+        <v>2550000</v>
       </c>
       <c r="G46" s="3">
-        <v>3519500</v>
+        <v>2427800</v>
       </c>
       <c r="H46" s="3">
-        <v>3891200</v>
+        <v>3287500</v>
       </c>
       <c r="I46" s="3">
-        <v>3991200</v>
+        <v>3634700</v>
       </c>
       <c r="J46" s="3">
+        <v>3728000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4120100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3059000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2790100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2160400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1827000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1208600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1460900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1383100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1975300</v>
+        <v>1425800</v>
       </c>
       <c r="E47" s="3">
-        <v>1961900</v>
+        <v>1845100</v>
       </c>
       <c r="F47" s="3">
-        <v>1649400</v>
+        <v>1832500</v>
       </c>
       <c r="G47" s="3">
-        <v>1376500</v>
+        <v>1540700</v>
       </c>
       <c r="H47" s="3">
-        <v>789200</v>
+        <v>1285700</v>
       </c>
       <c r="I47" s="3">
-        <v>714200</v>
+        <v>737200</v>
       </c>
       <c r="J47" s="3">
+        <v>667100</v>
+      </c>
+      <c r="K47" s="3">
         <v>802400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>685500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>579600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>535700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>497100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>491400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>482900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2293200</v>
+        <v>2260700</v>
       </c>
       <c r="E48" s="3">
-        <v>2240400</v>
+        <v>2142000</v>
       </c>
       <c r="F48" s="3">
-        <v>2200100</v>
+        <v>2092700</v>
       </c>
       <c r="G48" s="3">
-        <v>2181500</v>
+        <v>2055100</v>
       </c>
       <c r="H48" s="3">
-        <v>2144700</v>
+        <v>2037600</v>
       </c>
       <c r="I48" s="3">
-        <v>2142800</v>
+        <v>2003400</v>
       </c>
       <c r="J48" s="3">
+        <v>2001500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2147600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2195600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2160500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2116300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2112000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2302000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2329700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>128000</v>
+        <v>116100</v>
       </c>
       <c r="E49" s="3">
-        <v>67000</v>
+        <v>119600</v>
       </c>
       <c r="F49" s="3">
-        <v>75400</v>
+        <v>62600</v>
       </c>
       <c r="G49" s="3">
-        <v>75900</v>
+        <v>70400</v>
       </c>
       <c r="H49" s="3">
-        <v>71900</v>
+        <v>70900</v>
       </c>
       <c r="I49" s="3">
-        <v>135400</v>
+        <v>67200</v>
       </c>
       <c r="J49" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K49" s="3">
         <v>110600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>115100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>127000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>102500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>116200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>131600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17300</v>
+        <v>27100</v>
       </c>
       <c r="E52" s="3">
-        <v>39800</v>
+        <v>16200</v>
       </c>
       <c r="F52" s="3">
-        <v>129000</v>
+        <v>37200</v>
       </c>
       <c r="G52" s="3">
-        <v>23800</v>
+        <v>120500</v>
       </c>
       <c r="H52" s="3">
-        <v>19000</v>
+        <v>22200</v>
       </c>
       <c r="I52" s="3">
-        <v>18800</v>
+        <v>17800</v>
       </c>
       <c r="J52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K52" s="3">
         <v>16700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7368300</v>
+        <v>6914200</v>
       </c>
       <c r="E54" s="3">
-        <v>7039100</v>
+        <v>6882600</v>
       </c>
       <c r="F54" s="3">
-        <v>6653000</v>
+        <v>6575100</v>
       </c>
       <c r="G54" s="3">
-        <v>7177100</v>
+        <v>6214400</v>
       </c>
       <c r="H54" s="3">
-        <v>6916000</v>
+        <v>6704000</v>
       </c>
       <c r="I54" s="3">
-        <v>7002300</v>
+        <v>6460100</v>
       </c>
       <c r="J54" s="3">
+        <v>6540700</v>
+      </c>
+      <c r="K54" s="3">
         <v>7197400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6073500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5672700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4929900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4554200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4128900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4470200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4494600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,216 +2883,229 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>503000</v>
+        <v>308000</v>
       </c>
       <c r="E57" s="3">
-        <v>208300</v>
+        <v>469900</v>
       </c>
       <c r="F57" s="3">
-        <v>403900</v>
+        <v>194600</v>
       </c>
       <c r="G57" s="3">
-        <v>444300</v>
+        <v>377200</v>
       </c>
       <c r="H57" s="3">
-        <v>547100</v>
+        <v>415000</v>
       </c>
       <c r="I57" s="3">
-        <v>461100</v>
+        <v>511000</v>
       </c>
       <c r="J57" s="3">
+        <v>430700</v>
+      </c>
+      <c r="K57" s="3">
         <v>459000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>293900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>347800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>308500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>290500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>231900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>269700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>510700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>717900</v>
+        <v>230300</v>
       </c>
       <c r="E58" s="3">
-        <v>721800</v>
+        <v>670600</v>
       </c>
       <c r="F58" s="3">
-        <v>479900</v>
+        <v>674200</v>
       </c>
       <c r="G58" s="3">
-        <v>246000</v>
+        <v>448200</v>
       </c>
       <c r="H58" s="3">
-        <v>173600</v>
+        <v>229700</v>
       </c>
       <c r="I58" s="3">
-        <v>78400</v>
+        <v>162200</v>
       </c>
       <c r="J58" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K58" s="3">
         <v>220200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>93700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>79400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>123300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>307200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>625900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>593100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1468600</v>
+        <v>1789300</v>
       </c>
       <c r="E59" s="3">
-        <v>1473000</v>
+        <v>1371800</v>
       </c>
       <c r="F59" s="3">
-        <v>1497700</v>
+        <v>1375900</v>
       </c>
       <c r="G59" s="3">
-        <v>1751800</v>
+        <v>1398900</v>
       </c>
       <c r="H59" s="3">
-        <v>1630600</v>
+        <v>1636300</v>
       </c>
       <c r="I59" s="3">
-        <v>1655300</v>
+        <v>1523100</v>
       </c>
       <c r="J59" s="3">
+        <v>1546200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1963900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1294600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1425300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>910900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>961700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>607600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>814900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2689600</v>
+        <v>2327700</v>
       </c>
       <c r="E60" s="3">
-        <v>2403000</v>
+        <v>2512300</v>
       </c>
       <c r="F60" s="3">
-        <v>2381400</v>
+        <v>2244600</v>
       </c>
       <c r="G60" s="3">
-        <v>2442100</v>
+        <v>2224400</v>
       </c>
       <c r="H60" s="3">
-        <v>2351300</v>
+        <v>2281100</v>
       </c>
       <c r="I60" s="3">
-        <v>2194900</v>
+        <v>2196300</v>
       </c>
       <c r="J60" s="3">
+        <v>2050200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2643000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1681800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1866900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1298700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1375500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1146700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1710500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1815700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3500</v>
+        <v>103400</v>
       </c>
       <c r="E61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>1100</v>
-      </c>
       <c r="G61" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2983,42 +3126,45 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>237400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7600</v>
+        <v>6800</v>
       </c>
       <c r="E62" s="3">
-        <v>7700</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>1600</v>
+        <v>6900</v>
       </c>
       <c r="H62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3029,14 +3175,17 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>2400</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2723100</v>
+        <v>2457700</v>
       </c>
       <c r="E66" s="3">
-        <v>2432800</v>
+        <v>2543600</v>
       </c>
       <c r="F66" s="3">
-        <v>2411700</v>
+        <v>2272500</v>
       </c>
       <c r="G66" s="3">
-        <v>2465900</v>
+        <v>2252700</v>
       </c>
       <c r="H66" s="3">
-        <v>2375700</v>
+        <v>2303400</v>
       </c>
       <c r="I66" s="3">
-        <v>2214900</v>
+        <v>2219100</v>
       </c>
       <c r="J66" s="3">
+        <v>2068900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2690400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1726600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1910000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1339500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1415200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1190700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1756800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2095000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2912600</v>
+        <v>2840400</v>
       </c>
       <c r="E72" s="3">
-        <v>2881900</v>
+        <v>2720600</v>
       </c>
       <c r="F72" s="3">
-        <v>2518200</v>
+        <v>2691900</v>
       </c>
       <c r="G72" s="3">
-        <v>2986800</v>
+        <v>2352200</v>
       </c>
       <c r="H72" s="3">
-        <v>2815900</v>
+        <v>2789900</v>
       </c>
       <c r="I72" s="3">
-        <v>3063000</v>
+        <v>2630300</v>
       </c>
       <c r="J72" s="3">
+        <v>2861100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2782600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2672100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2112600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2021900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1589400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1335300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1110600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4645200</v>
+        <v>4456500</v>
       </c>
       <c r="E76" s="3">
-        <v>4606300</v>
+        <v>4338900</v>
       </c>
       <c r="F76" s="3">
-        <v>4241300</v>
+        <v>4302600</v>
       </c>
       <c r="G76" s="3">
-        <v>4711200</v>
+        <v>3961700</v>
       </c>
       <c r="H76" s="3">
-        <v>4540300</v>
+        <v>4400700</v>
       </c>
       <c r="I76" s="3">
-        <v>4787400</v>
+        <v>4241000</v>
       </c>
       <c r="J76" s="3">
+        <v>4471800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4346900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3762700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3590400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3138900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2938100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2713400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2399600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>201400</v>
+        <v>117400</v>
       </c>
       <c r="E81" s="3">
-        <v>365400</v>
+        <v>188100</v>
       </c>
       <c r="F81" s="3">
-        <v>-263600</v>
+        <v>341300</v>
       </c>
       <c r="G81" s="3">
-        <v>169100</v>
+        <v>-246200</v>
       </c>
       <c r="H81" s="3">
-        <v>180400</v>
+        <v>158000</v>
       </c>
       <c r="I81" s="3">
-        <v>281600</v>
+        <v>168500</v>
       </c>
       <c r="J81" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K81" s="3">
         <v>560200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>545800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>397000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>409500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>451800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>223100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>262800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-82700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-385500</v>
+        <v>942100</v>
       </c>
       <c r="E89" s="3">
-        <v>728700</v>
+        <v>-360100</v>
       </c>
       <c r="F89" s="3">
-        <v>-463600</v>
+        <v>680600</v>
       </c>
       <c r="G89" s="3">
-        <v>763100</v>
+        <v>-433100</v>
       </c>
       <c r="H89" s="3">
-        <v>34800</v>
+        <v>712800</v>
       </c>
       <c r="I89" s="3">
-        <v>385900</v>
+        <v>32500</v>
       </c>
       <c r="J89" s="3">
+        <v>360400</v>
+      </c>
+      <c r="K89" s="3">
         <v>664700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>725300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>359100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>373000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>661900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>468400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>263700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-235700</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>81700</v>
+        <v>-220100</v>
       </c>
       <c r="F91" s="3">
-        <v>-109800</v>
+        <v>76300</v>
       </c>
       <c r="G91" s="3">
-        <v>76000</v>
+        <v>-102600</v>
       </c>
       <c r="H91" s="3">
-        <v>-89200</v>
+        <v>71000</v>
       </c>
       <c r="I91" s="3">
-        <v>32800</v>
+        <v>-83300</v>
       </c>
       <c r="J91" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-55400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>42000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>35400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-490100</v>
+        <v>110100</v>
       </c>
       <c r="E94" s="3">
-        <v>-121000</v>
+        <v>-457800</v>
       </c>
       <c r="F94" s="3">
-        <v>-492300</v>
+        <v>-113000</v>
       </c>
       <c r="G94" s="3">
-        <v>-794200</v>
+        <v>-459800</v>
       </c>
       <c r="H94" s="3">
-        <v>64900</v>
+        <v>-741900</v>
       </c>
       <c r="I94" s="3">
-        <v>-311800</v>
+        <v>60600</v>
       </c>
       <c r="J94" s="3">
+        <v>-291300</v>
+      </c>
+      <c r="K94" s="3">
         <v>7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-386800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-78000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,23 +4618,24 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-159300</v>
       </c>
       <c r="E96" s="3">
-        <v>-204000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-190500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4418,11 +4652,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-157500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500400</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>33500</v>
-      </c>
       <c r="F100" s="3">
-        <v>231800</v>
+        <v>31300</v>
       </c>
       <c r="G100" s="3">
-        <v>-362600</v>
+        <v>216500</v>
       </c>
       <c r="H100" s="3">
-        <v>88500</v>
+        <v>-338700</v>
       </c>
       <c r="I100" s="3">
-        <v>-682900</v>
+        <v>82700</v>
       </c>
       <c r="J100" s="3">
+        <v>-637900</v>
+      </c>
+      <c r="K100" s="3">
         <v>129600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-408500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-203500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-177300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-326500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-222000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-339200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
-        <v>700</v>
-      </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1700</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-875400</v>
+        <v>551800</v>
       </c>
       <c r="E102" s="3">
-        <v>639100</v>
+        <v>-817700</v>
       </c>
       <c r="F102" s="3">
-        <v>-723200</v>
+        <v>597000</v>
       </c>
       <c r="G102" s="3">
-        <v>-393000</v>
+        <v>-675600</v>
       </c>
       <c r="H102" s="3">
-        <v>189200</v>
+        <v>-367100</v>
       </c>
       <c r="I102" s="3">
-        <v>-610600</v>
+        <v>176700</v>
       </c>
       <c r="J102" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="K102" s="3">
         <v>805800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>384300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>143700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>484100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHI_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6521200</v>
+        <v>6462300</v>
       </c>
       <c r="E8" s="3">
-        <v>4661800</v>
+        <v>4619700</v>
       </c>
       <c r="F8" s="3">
-        <v>4661700</v>
+        <v>4619700</v>
       </c>
       <c r="G8" s="3">
-        <v>4409900</v>
+        <v>4370100</v>
       </c>
       <c r="H8" s="3">
-        <v>6178900</v>
+        <v>6123100</v>
       </c>
       <c r="I8" s="3">
-        <v>6797000</v>
+        <v>6735600</v>
       </c>
       <c r="J8" s="3">
-        <v>7304100</v>
+        <v>7238200</v>
       </c>
       <c r="K8" s="3">
         <v>7264400</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6405200</v>
+        <v>6347400</v>
       </c>
       <c r="E9" s="3">
-        <v>4543400</v>
+        <v>4502400</v>
       </c>
       <c r="F9" s="3">
-        <v>4325300</v>
+        <v>4286200</v>
       </c>
       <c r="G9" s="3">
-        <v>4796500</v>
+        <v>4753200</v>
       </c>
       <c r="H9" s="3">
-        <v>6077500</v>
+        <v>6022700</v>
       </c>
       <c r="I9" s="3">
-        <v>6664400</v>
+        <v>6604300</v>
       </c>
       <c r="J9" s="3">
-        <v>7033000</v>
+        <v>6969600</v>
       </c>
       <c r="K9" s="3">
         <v>6643600</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>116000</v>
+        <v>115000</v>
       </c>
       <c r="E10" s="3">
-        <v>118400</v>
+        <v>117300</v>
       </c>
       <c r="F10" s="3">
-        <v>336500</v>
+        <v>333400</v>
       </c>
       <c r="G10" s="3">
-        <v>-386600</v>
+        <v>-383100</v>
       </c>
       <c r="H10" s="3">
-        <v>101400</v>
+        <v>100500</v>
       </c>
       <c r="I10" s="3">
-        <v>132600</v>
+        <v>131400</v>
       </c>
       <c r="J10" s="3">
-        <v>271100</v>
+        <v>268600</v>
       </c>
       <c r="K10" s="3">
         <v>620800</v>
@@ -1018,19 +1018,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-17800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6419900</v>
+        <v>6361900</v>
       </c>
       <c r="E17" s="3">
-        <v>4552000</v>
+        <v>4510900</v>
       </c>
       <c r="F17" s="3">
-        <v>4326800</v>
+        <v>4287800</v>
       </c>
       <c r="G17" s="3">
-        <v>4813500</v>
+        <v>4770100</v>
       </c>
       <c r="H17" s="3">
-        <v>6080800</v>
+        <v>6025900</v>
       </c>
       <c r="I17" s="3">
-        <v>6700500</v>
+        <v>6640100</v>
       </c>
       <c r="J17" s="3">
-        <v>7024200</v>
+        <v>6960800</v>
       </c>
       <c r="K17" s="3">
         <v>6682900</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>101300</v>
+        <v>100400</v>
       </c>
       <c r="E18" s="3">
-        <v>109800</v>
+        <v>108800</v>
       </c>
       <c r="F18" s="3">
-        <v>334900</v>
+        <v>331900</v>
       </c>
       <c r="G18" s="3">
-        <v>-403600</v>
+        <v>-400000</v>
       </c>
       <c r="H18" s="3">
-        <v>98100</v>
+        <v>97300</v>
       </c>
       <c r="I18" s="3">
-        <v>96500</v>
+        <v>95600</v>
       </c>
       <c r="J18" s="3">
-        <v>279900</v>
+        <v>277400</v>
       </c>
       <c r="K18" s="3">
         <v>581400</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>80600</v>
+        <v>79800</v>
       </c>
       <c r="E20" s="3">
-        <v>123200</v>
+        <v>122100</v>
       </c>
       <c r="F20" s="3">
-        <v>102100</v>
+        <v>101100</v>
       </c>
       <c r="G20" s="3">
-        <v>67500</v>
+        <v>66900</v>
       </c>
       <c r="H20" s="3">
-        <v>96900</v>
+        <v>96000</v>
       </c>
       <c r="I20" s="3">
-        <v>107800</v>
+        <v>106800</v>
       </c>
       <c r="J20" s="3">
-        <v>64700</v>
+        <v>64100</v>
       </c>
       <c r="K20" s="3">
         <v>140500</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>185000</v>
+        <v>183300</v>
       </c>
       <c r="E21" s="3">
-        <v>354800</v>
+        <v>351600</v>
       </c>
       <c r="F21" s="3">
-        <v>444800</v>
+        <v>440800</v>
       </c>
       <c r="G21" s="3">
-        <v>-221900</v>
+        <v>-219900</v>
       </c>
       <c r="H21" s="3">
-        <v>195000</v>
+        <v>193200</v>
       </c>
       <c r="I21" s="3">
-        <v>316800</v>
+        <v>314000</v>
       </c>
       <c r="J21" s="3">
-        <v>343100</v>
+        <v>340000</v>
       </c>
       <c r="K21" s="3">
         <v>846700</v>
@@ -1361,19 +1361,19 @@
         <v>5600</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
         <v>4100</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I22" s="3">
         <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="K22" s="3">
         <v>5300</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>173600</v>
+        <v>172000</v>
       </c>
       <c r="E23" s="3">
-        <v>227400</v>
+        <v>225300</v>
       </c>
       <c r="F23" s="3">
-        <v>427400</v>
+        <v>423500</v>
       </c>
       <c r="G23" s="3">
-        <v>-340300</v>
+        <v>-337200</v>
       </c>
       <c r="H23" s="3">
-        <v>190200</v>
+        <v>188500</v>
       </c>
       <c r="I23" s="3">
-        <v>201200</v>
+        <v>199400</v>
       </c>
       <c r="J23" s="3">
-        <v>333900</v>
+        <v>330900</v>
       </c>
       <c r="K23" s="3">
         <v>716600</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56500</v>
+        <v>55900</v>
       </c>
       <c r="E24" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="F24" s="3">
-        <v>85600</v>
+        <v>84800</v>
       </c>
       <c r="G24" s="3">
-        <v>-95200</v>
+        <v>-94400</v>
       </c>
       <c r="H24" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I24" s="3">
         <v>31500</v>
       </c>
-      <c r="I24" s="3">
-        <v>31800</v>
-      </c>
       <c r="J24" s="3">
-        <v>71900</v>
+        <v>71300</v>
       </c>
       <c r="K24" s="3">
         <v>155200</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>117100</v>
+        <v>116100</v>
       </c>
       <c r="E26" s="3">
-        <v>188900</v>
+        <v>187200</v>
       </c>
       <c r="F26" s="3">
-        <v>341800</v>
+        <v>338700</v>
       </c>
       <c r="G26" s="3">
-        <v>-245100</v>
+        <v>-242900</v>
       </c>
       <c r="H26" s="3">
-        <v>158700</v>
+        <v>157300</v>
       </c>
       <c r="I26" s="3">
-        <v>169500</v>
+        <v>167900</v>
       </c>
       <c r="J26" s="3">
-        <v>261900</v>
+        <v>259600</v>
       </c>
       <c r="K26" s="3">
         <v>561400</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117400</v>
+        <v>116400</v>
       </c>
       <c r="E27" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F27" s="3">
-        <v>341300</v>
+        <v>338200</v>
       </c>
       <c r="G27" s="3">
-        <v>-246200</v>
+        <v>-244000</v>
       </c>
       <c r="H27" s="3">
-        <v>158000</v>
+        <v>156600</v>
       </c>
       <c r="I27" s="3">
-        <v>168500</v>
+        <v>167000</v>
       </c>
       <c r="J27" s="3">
-        <v>263000</v>
+        <v>260700</v>
       </c>
       <c r="K27" s="3">
         <v>560200</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-80600</v>
+        <v>-79800</v>
       </c>
       <c r="E32" s="3">
-        <v>-123200</v>
+        <v>-122100</v>
       </c>
       <c r="F32" s="3">
-        <v>-102100</v>
+        <v>-101100</v>
       </c>
       <c r="G32" s="3">
-        <v>-67500</v>
+        <v>-66900</v>
       </c>
       <c r="H32" s="3">
-        <v>-96900</v>
+        <v>-96000</v>
       </c>
       <c r="I32" s="3">
-        <v>-107800</v>
+        <v>-106800</v>
       </c>
       <c r="J32" s="3">
-        <v>-64700</v>
+        <v>-64100</v>
       </c>
       <c r="K32" s="3">
         <v>-140500</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117400</v>
+        <v>116400</v>
       </c>
       <c r="E33" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F33" s="3">
-        <v>341300</v>
+        <v>338200</v>
       </c>
       <c r="G33" s="3">
-        <v>-246200</v>
+        <v>-244000</v>
       </c>
       <c r="H33" s="3">
-        <v>158000</v>
+        <v>156600</v>
       </c>
       <c r="I33" s="3">
-        <v>168500</v>
+        <v>167000</v>
       </c>
       <c r="J33" s="3">
-        <v>263000</v>
+        <v>260700</v>
       </c>
       <c r="K33" s="3">
         <v>560200</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117400</v>
+        <v>116400</v>
       </c>
       <c r="E35" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F35" s="3">
-        <v>341300</v>
+        <v>338200</v>
       </c>
       <c r="G35" s="3">
-        <v>-246200</v>
+        <v>-244000</v>
       </c>
       <c r="H35" s="3">
-        <v>158000</v>
+        <v>156600</v>
       </c>
       <c r="I35" s="3">
-        <v>168500</v>
+        <v>167000</v>
       </c>
       <c r="J35" s="3">
-        <v>263000</v>
+        <v>260700</v>
       </c>
       <c r="K35" s="3">
         <v>560200</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>752800</v>
+        <v>746000</v>
       </c>
       <c r="E41" s="3">
-        <v>199600</v>
+        <v>197800</v>
       </c>
       <c r="F41" s="3">
-        <v>1018400</v>
+        <v>1009200</v>
       </c>
       <c r="G41" s="3">
-        <v>416500</v>
+        <v>412700</v>
       </c>
       <c r="H41" s="3">
-        <v>1087900</v>
+        <v>1078100</v>
       </c>
       <c r="I41" s="3">
-        <v>1462400</v>
+        <v>1449200</v>
       </c>
       <c r="J41" s="3">
-        <v>1285000</v>
+        <v>1273400</v>
       </c>
       <c r="K41" s="3">
         <v>1987700</v>
@@ -2200,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1243400</v>
+        <v>1232100</v>
       </c>
       <c r="E42" s="3">
-        <v>1036000</v>
+        <v>1026600</v>
       </c>
       <c r="F42" s="3">
-        <v>775400</v>
+        <v>768400</v>
       </c>
       <c r="G42" s="3">
-        <v>1064700</v>
+        <v>1055100</v>
       </c>
       <c r="H42" s="3">
-        <v>948300</v>
+        <v>939800</v>
       </c>
       <c r="I42" s="3">
-        <v>760700</v>
+        <v>753900</v>
       </c>
       <c r="J42" s="3">
-        <v>872600</v>
+        <v>864800</v>
       </c>
       <c r="K42" s="3">
         <v>318700</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>197100</v>
+        <v>195300</v>
       </c>
       <c r="E43" s="3">
-        <v>394800</v>
+        <v>391200</v>
       </c>
       <c r="F43" s="3">
-        <v>180300</v>
+        <v>178700</v>
       </c>
       <c r="G43" s="3">
-        <v>294300</v>
+        <v>291700</v>
       </c>
       <c r="H43" s="3">
-        <v>252400</v>
+        <v>250100</v>
       </c>
       <c r="I43" s="3">
-        <v>387800</v>
+        <v>384300</v>
       </c>
       <c r="J43" s="3">
-        <v>364600</v>
+        <v>361300</v>
       </c>
       <c r="K43" s="3">
         <v>637100</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>872900</v>
+        <v>865000</v>
       </c>
       <c r="E44" s="3">
-        <v>1098200</v>
+        <v>1088300</v>
       </c>
       <c r="F44" s="3">
-        <v>573000</v>
+        <v>567900</v>
       </c>
       <c r="G44" s="3">
-        <v>645600</v>
+        <v>639800</v>
       </c>
       <c r="H44" s="3">
-        <v>995300</v>
+        <v>986300</v>
       </c>
       <c r="I44" s="3">
-        <v>1010700</v>
+        <v>1001600</v>
       </c>
       <c r="J44" s="3">
-        <v>1196700</v>
+        <v>1185900</v>
       </c>
       <c r="K44" s="3">
         <v>1141700</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="E45" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="F45" s="3">
         <v>2900</v>
       </c>
       <c r="G45" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H45" s="3">
         <v>3500</v>
       </c>
       <c r="I45" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J45" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="K45" s="3">
         <v>34800</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3084600</v>
+        <v>3056700</v>
       </c>
       <c r="E46" s="3">
-        <v>2759700</v>
+        <v>2734800</v>
       </c>
       <c r="F46" s="3">
-        <v>2550000</v>
+        <v>2527000</v>
       </c>
       <c r="G46" s="3">
-        <v>2427800</v>
+        <v>2405900</v>
       </c>
       <c r="H46" s="3">
-        <v>3287500</v>
+        <v>3257800</v>
       </c>
       <c r="I46" s="3">
-        <v>3634700</v>
+        <v>3601900</v>
       </c>
       <c r="J46" s="3">
-        <v>3728000</v>
+        <v>3694400</v>
       </c>
       <c r="K46" s="3">
         <v>4120100</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1425800</v>
+        <v>1412900</v>
       </c>
       <c r="E47" s="3">
-        <v>1845100</v>
+        <v>1828400</v>
       </c>
       <c r="F47" s="3">
-        <v>1832500</v>
+        <v>1816000</v>
       </c>
       <c r="G47" s="3">
-        <v>1540700</v>
+        <v>1526800</v>
       </c>
       <c r="H47" s="3">
-        <v>1285700</v>
+        <v>1274100</v>
       </c>
       <c r="I47" s="3">
-        <v>737200</v>
+        <v>730500</v>
       </c>
       <c r="J47" s="3">
-        <v>667100</v>
+        <v>661100</v>
       </c>
       <c r="K47" s="3">
         <v>802400</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2260700</v>
+        <v>2240300</v>
       </c>
       <c r="E48" s="3">
-        <v>2142000</v>
+        <v>2122700</v>
       </c>
       <c r="F48" s="3">
-        <v>2092700</v>
+        <v>2073800</v>
       </c>
       <c r="G48" s="3">
-        <v>2055100</v>
+        <v>2036600</v>
       </c>
       <c r="H48" s="3">
-        <v>2037600</v>
+        <v>2019300</v>
       </c>
       <c r="I48" s="3">
-        <v>2003400</v>
+        <v>1985300</v>
       </c>
       <c r="J48" s="3">
-        <v>2001500</v>
+        <v>1983500</v>
       </c>
       <c r="K48" s="3">
         <v>2147600</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>116100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>119600</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>62600</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>70400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>70900</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>67200</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>126500</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>110600</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27100</v>
+        <v>141900</v>
       </c>
       <c r="E52" s="3">
-        <v>16200</v>
+        <v>134600</v>
       </c>
       <c r="F52" s="3">
-        <v>37200</v>
+        <v>98900</v>
       </c>
       <c r="G52" s="3">
-        <v>120500</v>
+        <v>189100</v>
       </c>
       <c r="H52" s="3">
-        <v>22200</v>
+        <v>92300</v>
       </c>
       <c r="I52" s="3">
-        <v>17800</v>
+        <v>84200</v>
       </c>
       <c r="J52" s="3">
-        <v>17500</v>
+        <v>142700</v>
       </c>
       <c r="K52" s="3">
         <v>16700</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6914200</v>
+        <v>6851800</v>
       </c>
       <c r="E54" s="3">
-        <v>6882600</v>
+        <v>6820400</v>
       </c>
       <c r="F54" s="3">
-        <v>6575100</v>
+        <v>6515700</v>
       </c>
       <c r="G54" s="3">
-        <v>6214400</v>
+        <v>6158300</v>
       </c>
       <c r="H54" s="3">
-        <v>6704000</v>
+        <v>6643500</v>
       </c>
       <c r="I54" s="3">
-        <v>6460100</v>
+        <v>6401800</v>
       </c>
       <c r="J54" s="3">
-        <v>6540700</v>
+        <v>6481700</v>
       </c>
       <c r="K54" s="3">
         <v>7197400</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>308000</v>
+        <v>305200</v>
       </c>
       <c r="E57" s="3">
-        <v>469900</v>
+        <v>465600</v>
       </c>
       <c r="F57" s="3">
-        <v>194600</v>
+        <v>192800</v>
       </c>
       <c r="G57" s="3">
-        <v>377200</v>
+        <v>373800</v>
       </c>
       <c r="H57" s="3">
-        <v>415000</v>
+        <v>411300</v>
       </c>
       <c r="I57" s="3">
-        <v>511000</v>
+        <v>506400</v>
       </c>
       <c r="J57" s="3">
-        <v>430700</v>
+        <v>426800</v>
       </c>
       <c r="K57" s="3">
         <v>459000</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>230300</v>
+        <v>228200</v>
       </c>
       <c r="E58" s="3">
-        <v>670600</v>
+        <v>664500</v>
       </c>
       <c r="F58" s="3">
-        <v>674200</v>
+        <v>668100</v>
       </c>
       <c r="G58" s="3">
-        <v>448200</v>
+        <v>444200</v>
       </c>
       <c r="H58" s="3">
-        <v>229700</v>
+        <v>227700</v>
       </c>
       <c r="I58" s="3">
-        <v>162200</v>
+        <v>160700</v>
       </c>
       <c r="J58" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="K58" s="3">
         <v>220200</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1789300</v>
+        <v>1773200</v>
       </c>
       <c r="E59" s="3">
-        <v>1371800</v>
+        <v>1359400</v>
       </c>
       <c r="F59" s="3">
-        <v>1375900</v>
+        <v>1363400</v>
       </c>
       <c r="G59" s="3">
-        <v>1398900</v>
+        <v>1386300</v>
       </c>
       <c r="H59" s="3">
-        <v>1636300</v>
+        <v>1621600</v>
       </c>
       <c r="I59" s="3">
-        <v>1523100</v>
+        <v>1509300</v>
       </c>
       <c r="J59" s="3">
-        <v>1546200</v>
+        <v>1532300</v>
       </c>
       <c r="K59" s="3">
         <v>1963900</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2327700</v>
+        <v>2306700</v>
       </c>
       <c r="E60" s="3">
-        <v>2512300</v>
+        <v>2489600</v>
       </c>
       <c r="F60" s="3">
-        <v>2244600</v>
+        <v>2224400</v>
       </c>
       <c r="G60" s="3">
-        <v>2224400</v>
+        <v>2204300</v>
       </c>
       <c r="H60" s="3">
-        <v>2281100</v>
+        <v>2260500</v>
       </c>
       <c r="I60" s="3">
-        <v>2196300</v>
+        <v>2176500</v>
       </c>
       <c r="J60" s="3">
-        <v>2050200</v>
+        <v>2031700</v>
       </c>
       <c r="K60" s="3">
         <v>2643000</v>
@@ -3090,10 +3090,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>103400</v>
+        <v>102400</v>
       </c>
       <c r="E61" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3102,7 +3102,7 @@
         <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
         <v>3100</v>
@@ -3140,13 +3140,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F62" s="3">
         <v>7100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7200</v>
       </c>
       <c r="G62" s="3">
         <v>6900</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2457700</v>
+        <v>2435600</v>
       </c>
       <c r="E66" s="3">
-        <v>2543600</v>
+        <v>2520700</v>
       </c>
       <c r="F66" s="3">
-        <v>2272500</v>
+        <v>2251900</v>
       </c>
       <c r="G66" s="3">
-        <v>2252700</v>
+        <v>2232400</v>
       </c>
       <c r="H66" s="3">
-        <v>2303400</v>
+        <v>2282600</v>
       </c>
       <c r="I66" s="3">
-        <v>2219100</v>
+        <v>2199100</v>
       </c>
       <c r="J66" s="3">
-        <v>2068900</v>
+        <v>2050200</v>
       </c>
       <c r="K66" s="3">
         <v>2690400</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2840400</v>
+        <v>2814700</v>
       </c>
       <c r="E72" s="3">
-        <v>2720600</v>
+        <v>2696000</v>
       </c>
       <c r="F72" s="3">
-        <v>2691900</v>
+        <v>2667600</v>
       </c>
       <c r="G72" s="3">
-        <v>2352200</v>
+        <v>2331000</v>
       </c>
       <c r="H72" s="3">
-        <v>2789900</v>
+        <v>2764700</v>
       </c>
       <c r="I72" s="3">
-        <v>2630300</v>
+        <v>2606500</v>
       </c>
       <c r="J72" s="3">
-        <v>2861100</v>
+        <v>2835200</v>
       </c>
       <c r="K72" s="3">
         <v>2782600</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4456500</v>
+        <v>4416300</v>
       </c>
       <c r="E76" s="3">
-        <v>4338900</v>
+        <v>4299800</v>
       </c>
       <c r="F76" s="3">
-        <v>4302600</v>
+        <v>4263800</v>
       </c>
       <c r="G76" s="3">
-        <v>3961700</v>
+        <v>3925900</v>
       </c>
       <c r="H76" s="3">
-        <v>4400700</v>
+        <v>4360900</v>
       </c>
       <c r="I76" s="3">
-        <v>4241000</v>
+        <v>4202700</v>
       </c>
       <c r="J76" s="3">
-        <v>4471800</v>
+        <v>4431400</v>
       </c>
       <c r="K76" s="3">
         <v>4507000</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117400</v>
+        <v>116400</v>
       </c>
       <c r="E81" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F81" s="3">
-        <v>341300</v>
+        <v>338200</v>
       </c>
       <c r="G81" s="3">
-        <v>-246200</v>
+        <v>-244000</v>
       </c>
       <c r="H81" s="3">
-        <v>158000</v>
+        <v>156600</v>
       </c>
       <c r="I81" s="3">
-        <v>168500</v>
+        <v>167000</v>
       </c>
       <c r="J81" s="3">
-        <v>263000</v>
+        <v>260700</v>
       </c>
       <c r="K81" s="3">
         <v>560200</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>942100</v>
+        <v>933600</v>
       </c>
       <c r="E89" s="3">
-        <v>-360100</v>
+        <v>-356800</v>
       </c>
       <c r="F89" s="3">
-        <v>680600</v>
+        <v>674500</v>
       </c>
       <c r="G89" s="3">
-        <v>-433100</v>
+        <v>-429200</v>
       </c>
       <c r="H89" s="3">
-        <v>712800</v>
+        <v>706400</v>
       </c>
       <c r="I89" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="J89" s="3">
-        <v>360400</v>
+        <v>357200</v>
       </c>
       <c r="K89" s="3">
         <v>664700</v>
@@ -4408,22 +4408,22 @@
         <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-220100</v>
+        <v>-218100</v>
       </c>
       <c r="F91" s="3">
-        <v>76300</v>
+        <v>75600</v>
       </c>
       <c r="G91" s="3">
-        <v>-102600</v>
+        <v>-101700</v>
       </c>
       <c r="H91" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="I91" s="3">
-        <v>-83300</v>
+        <v>-82600</v>
       </c>
       <c r="J91" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="K91" s="3">
         <v>-55400</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>110100</v>
+        <v>109100</v>
       </c>
       <c r="E94" s="3">
-        <v>-457800</v>
+        <v>-453600</v>
       </c>
       <c r="F94" s="3">
-        <v>-113000</v>
+        <v>-112000</v>
       </c>
       <c r="G94" s="3">
-        <v>-459800</v>
+        <v>-455700</v>
       </c>
       <c r="H94" s="3">
-        <v>-741900</v>
+        <v>-735200</v>
       </c>
       <c r="I94" s="3">
-        <v>60600</v>
+        <v>60000</v>
       </c>
       <c r="J94" s="3">
-        <v>-291300</v>
+        <v>-288700</v>
       </c>
       <c r="K94" s="3">
         <v>7600</v>
@@ -4625,13 +4625,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-159300</v>
+        <v>-157900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-190500</v>
+        <v>-188800</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500400</v>
+        <v>-495900</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>31300</v>
+        <v>31100</v>
       </c>
       <c r="G100" s="3">
-        <v>216500</v>
+        <v>214500</v>
       </c>
       <c r="H100" s="3">
-        <v>-338700</v>
+        <v>-335600</v>
       </c>
       <c r="I100" s="3">
-        <v>82700</v>
+        <v>81900</v>
       </c>
       <c r="J100" s="3">
-        <v>-637900</v>
+        <v>-632100</v>
       </c>
       <c r="K100" s="3">
         <v>129600</v>
@@ -4881,7 +4881,7 @@
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
         <v>900</v>
@@ -4893,7 +4893,7 @@
         <v>900</v>
       </c>
       <c r="J101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K101" s="3">
         <v>3800</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>551800</v>
+        <v>546800</v>
       </c>
       <c r="E102" s="3">
-        <v>-817700</v>
+        <v>-810300</v>
       </c>
       <c r="F102" s="3">
-        <v>597000</v>
+        <v>591600</v>
       </c>
       <c r="G102" s="3">
-        <v>-675600</v>
+        <v>-669500</v>
       </c>
       <c r="H102" s="3">
-        <v>-367100</v>
+        <v>-363800</v>
       </c>
       <c r="I102" s="3">
-        <v>176700</v>
+        <v>175100</v>
       </c>
       <c r="J102" s="3">
-        <v>-570300</v>
+        <v>-565200</v>
       </c>
       <c r="K102" s="3">
         <v>805800</v>
